--- a/Portfolio Optimization Tool.xlsx
+++ b/Portfolio Optimization Tool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanlupinski/PycharmProjects/Finance/Portfolio Optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DB9B69-6703-1143-8D9E-6A7F759D9302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3646C935-7794-0E43-B145-822590871BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Portfolio!$B$4:$F$15</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Portfolio!$F$4:$F$15</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Portfolio!$B$4:$F$15</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Portfolio!$F$4:$F$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>Rank</t>
   </si>
@@ -180,6 +178,9 @@
   <si>
     <t>Foreign Emerging Stocks</t>
   </si>
+  <si>
+    <t>Performance Data from:</t>
+  </si>
 </sst>
 </file>
 
@@ -187,9 +188,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -246,8 +247,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,8 +328,14 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF999A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -344,6 +358,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -363,7 +440,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,9 +450,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -398,8 +472,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -407,9 +487,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -444,6 +533,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF999A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1542,7 +1636,7 @@
   <dimension ref="B1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1564,15 +1658,20 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.5" customHeight="1"/>
     <row r="2" spans="2:16">
-      <c r="G2" s="16" t="str">
-        <f>CONCATENATE("Performance Data ","from 5/31/22")</f>
-        <v>Performance Data from 5/31/22</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17" t="s">
+      <c r="G2" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24">
+        <f>INDEX('Price Data'!$A$2:$A$265,COUNT('Price Data'!$A$2:$A$265))</f>
+        <v>44712</v>
+      </c>
+      <c r="K2" s="25">
+        <f>INDEX('Price Data'!$L$2:$L$255,COUNT('Price Data'!$L$2:$L$255))</f>
+        <v>99.069999694824205</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -1581,10 +1680,10 @@
       <c r="N2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1604,723 +1703,724 @@
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="6" t="s">
+      <c r="L3" s="20"/>
+      <c r="M3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="18"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="21"/>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <f t="shared" ref="E4:E14" si="0">IF(P4="buy",0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f t="shared" ref="F4:F15" si="1">D4+E4</f>
         <v>0.05</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <f>'Performance Data'!$B$2</f>
         <v>-5.9891763000000002E-3</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <f>'Performance Data'!$B$3</f>
         <v>-9.2688066400000005E-2</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <f>'Performance Data'!$B$4</f>
         <v>-0.20256615929999999</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <f>'Performance Data'!$B$5</f>
         <v>-0.14221400240000001</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <f t="shared" ref="K4:K14" si="2">AVERAGE(G4:J4)</f>
         <v>-0.11086435110000001</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <f t="shared" ref="L4:L14" si="3">_xlfn.RANK.EQ(K4,$K$4:$K$14,0)</f>
         <v>10</v>
       </c>
-      <c r="M4" s="12">
-        <f>INDEX('Price Data'!$B$2:$B$255,COUNT('Price Data'!$B$2:$B$255))</f>
+      <c r="M4" s="11">
+        <f>INDEX('Price Data'!$B$2:$B$265,COUNT('Price Data'!$B$2:$B$265))</f>
         <v>146.05000305175699</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="11">
         <f>'200D SMA'!$B$2</f>
         <v>170.661000213623</v>
       </c>
-      <c r="O4" s="11" t="str">
+      <c r="O4" s="10" t="str">
         <f t="shared" ref="O4:O14" si="4">IF(M4&gt;N4,"yes","no")</f>
         <v>no</v>
       </c>
-      <c r="P4" s="13" t="str">
+      <c r="P4" s="12" t="str">
         <f t="shared" ref="P4:P14" si="5">IF(L4&gt;5,"n/a",IF(O4="yes","buy","n/a"))</f>
         <v>n/a</v>
       </c>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f t="shared" si="1"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <f>'Performance Data'!$C$2</f>
         <v>2.4093812799999999E-2</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <f>'Performance Data'!$C$3</f>
         <v>1.6683366000000001E-3</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <f>'Performance Data'!$C$4</f>
         <v>4.11127362E-2</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <f>'Performance Data'!$C$5</f>
         <v>3.5200569899999999E-2</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <f t="shared" si="2"/>
         <v>2.5518863874999999E-2</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M5" s="12">
-        <f>INDEX('Price Data'!$C$2:$C$255,COUNT('Price Data'!$C$2:$C$255))</f>
+      <c r="M5" s="11">
+        <f>INDEX('Price Data'!$C$2:$C$265,COUNT('Price Data'!$C$2:$C$265))</f>
         <v>144.08999633789</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="11">
         <f>'200D SMA'!$C$2</f>
         <v>143.467700042724</v>
       </c>
-      <c r="O5" s="14" t="str">
+      <c r="O5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>yes</v>
       </c>
-      <c r="P5" s="13" t="str">
+      <c r="P5" s="12" t="str">
         <f t="shared" si="5"/>
         <v>buy</v>
       </c>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f t="shared" si="1"/>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <f>'Performance Data'!$D$2</f>
         <v>1.6338675399999999E-2</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <f>'Performance Data'!$D$3</f>
         <v>-5.5881302000000001E-2</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <f>'Performance Data'!$D$4</f>
         <v>-8.6753371199999998E-2</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <f>'Performance Data'!$D$5</f>
         <v>-0.14060580089999999</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <f t="shared" si="2"/>
         <v>-6.6725449674999993E-2</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="M6" s="12">
-        <f>INDEX('Price Data'!$D$2:$D$255,COUNT('Price Data'!$D$2:$D$255))</f>
+      <c r="M6" s="11">
+        <f>INDEX('Price Data'!$D$2:$D$265,COUNT('Price Data'!$D$2:$D$265))</f>
         <v>54.740001678466797</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="11">
         <f>'200D SMA'!$D$2</f>
         <v>59.593499927520703</v>
       </c>
-      <c r="O6" s="14" t="str">
+      <c r="O6" s="13" t="str">
         <f t="shared" si="4"/>
         <v>no</v>
       </c>
-      <c r="P6" s="13" t="str">
+      <c r="P6" s="12" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f t="shared" si="1"/>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <f>'Performance Data'!$E$2</f>
         <v>4.6040693000000002E-3</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <f>'Performance Data'!$E$3</f>
         <v>-8.7411132000000002E-2</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <f>'Performance Data'!$E$4</f>
         <v>-0.1128277982</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <f>'Performance Data'!$E$5</f>
         <v>-0.1858034999</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <f t="shared" si="2"/>
         <v>-9.5359590199999997E-2</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="M7" s="12">
-        <f>INDEX('Price Data'!$E$2:$E$255,COUNT('Price Data'!$E$2:$E$255))</f>
+      <c r="M7" s="11">
+        <f>INDEX('Price Data'!$E$2:$E$265,COUNT('Price Data'!$E$2:$E$265))</f>
         <v>43.639999389648402</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="11">
         <f>'200D SMA'!$E$2</f>
         <v>48.427849941253598</v>
       </c>
-      <c r="O7" s="14" t="str">
+      <c r="O7" s="13" t="str">
         <f t="shared" si="4"/>
         <v>no</v>
       </c>
-      <c r="P7" s="13" t="str">
+      <c r="P7" s="12" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <f t="shared" si="1"/>
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <f>'Performance Data'!$F$2</f>
         <v>1.07882464E-2</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <f>'Performance Data'!$F$3</f>
         <v>-7.3283176199999994E-2</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <f>'Performance Data'!$F$4</f>
         <v>-0.1172377345</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <f>'Performance Data'!$F$5</f>
         <v>-0.12144138140000001</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <f t="shared" si="2"/>
         <v>-7.5293511425000001E-2</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="M8" s="12">
-        <f>INDEX('Price Data'!$F$2:$F$255,COUNT('Price Data'!$F$2:$F$255))</f>
+      <c r="M8" s="11">
+        <f>INDEX('Price Data'!$F$2:$F$265,COUNT('Price Data'!$F$2:$F$265))</f>
         <v>82.449996948242102</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="11">
         <f>'200D SMA'!$F$2</f>
         <v>90.086999969482406</v>
       </c>
-      <c r="O8" s="14" t="str">
+      <c r="O8" s="13" t="str">
         <f t="shared" si="4"/>
         <v>no</v>
       </c>
-      <c r="P8" s="13" t="str">
+      <c r="P8" s="12" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f t="shared" si="1"/>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <f>'Performance Data'!$G$2</f>
         <v>-2.2091117899999999E-2</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <f>'Performance Data'!$G$3</f>
         <v>-0.15696716499999999</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <f>'Performance Data'!$G$4</f>
         <v>-0.2204965941</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <f>'Performance Data'!$G$5</f>
         <v>-0.15218632709999999</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <f t="shared" si="2"/>
         <v>-0.13793530102499998</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="M9" s="12">
-        <f>INDEX('Price Data'!$G$2:$G$255,COUNT('Price Data'!$G$2:$G$255))</f>
+      <c r="M9" s="11">
+        <f>INDEX('Price Data'!$G$2:$G$265,COUNT('Price Data'!$G$2:$G$265))</f>
         <v>71.269996643066406</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="11">
         <f>'200D SMA'!$G$2</f>
         <v>84.335749969482407</v>
       </c>
-      <c r="O9" s="14" t="str">
+      <c r="O9" s="13" t="str">
         <f t="shared" si="4"/>
         <v>no</v>
       </c>
-      <c r="P9" s="13" t="str">
+      <c r="P9" s="12" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <f t="shared" si="1"/>
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <f>'Performance Data'!$H$2</f>
         <v>-7.4759207999999999E-3</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <f>'Performance Data'!$H$3</f>
         <v>-5.9996227200000002E-2</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <f>'Performance Data'!$H$4</f>
         <v>-0.1184693139</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <f>'Performance Data'!$H$5</f>
         <v>-0.11253249529999999</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <f t="shared" si="2"/>
         <v>-7.4618489299999993E-2</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="M10" s="12">
-        <f>INDEX('Price Data'!$H$2:$H$255,COUNT('Price Data'!$H$2:$H$255))</f>
+      <c r="M10" s="11">
+        <f>INDEX('Price Data'!$H$2:$H$265,COUNT('Price Data'!$H$2:$H$265))</f>
         <v>50.450000762939403</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="11">
         <f>'200D SMA'!$H$2</f>
         <v>54.796000022888101</v>
       </c>
-      <c r="O10" s="14" t="str">
+      <c r="O10" s="13" t="str">
         <f t="shared" si="4"/>
         <v>no</v>
       </c>
-      <c r="P10" s="13" t="str">
+      <c r="P10" s="12" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <f t="shared" si="1"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <f>'Performance Data'!$I$2</f>
         <v>5.3286059999999996E-3</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <f>'Performance Data'!$I$3</f>
         <v>-1.2790695100000001E-2</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <f>'Performance Data'!$I$4</f>
         <v>-2.2640067699999999E-2</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <f>'Performance Data'!$I$5</f>
         <v>-1.8670778700000001E-2</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <f t="shared" si="2"/>
         <v>-1.2193233875000001E-2</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M11" s="12">
-        <f>INDEX('Price Data'!$I$2:$I$255,COUNT('Price Data'!$I$2:$I$255))</f>
+      <c r="M11" s="11">
+        <f>INDEX('Price Data'!$I$2:$I$265,COUNT('Price Data'!$I$2:$I$265))</f>
         <v>50.939998626708899</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="11">
         <f>'200D SMA'!$I$2</f>
         <v>51.608049964904701</v>
       </c>
-      <c r="O11" s="14" t="str">
+      <c r="O11" s="13" t="str">
         <f t="shared" si="4"/>
         <v>no</v>
       </c>
-      <c r="P11" s="13" t="str">
+      <c r="P11" s="12" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <f>'Performance Data'!$J$2</f>
         <v>4.6131439099999998E-2</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <f>'Performance Data'!$J$3</f>
         <v>0.20653532569999999</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <f>'Performance Data'!$J$4</f>
         <v>0.4784394206</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <f>'Performance Data'!$J$5</f>
         <v>0.54838702399999995</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <f t="shared" si="2"/>
         <v>0.31987330235</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M12" s="12">
-        <f>INDEX('Price Data'!$J$2:$J$255,COUNT('Price Data'!$J$2:$J$255))</f>
+      <c r="M12" s="11">
+        <f>INDEX('Price Data'!$J$2:$J$265,COUNT('Price Data'!$J$2:$J$265))</f>
         <v>28.799999237060501</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="11">
         <f>'200D SMA'!$J$2</f>
         <v>22.896499977111802</v>
       </c>
-      <c r="O12" s="14" t="str">
+      <c r="O12" s="13" t="str">
         <f t="shared" si="4"/>
         <v>yes</v>
       </c>
-      <c r="P12" s="13" t="str">
+      <c r="P12" s="12" t="str">
         <f t="shared" si="5"/>
         <v>buy</v>
       </c>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <f>'Performance Data'!$K$2</f>
         <v>-3.2463983199999998E-2</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <f>'Performance Data'!$K$3</f>
         <v>-3.9658562000000001E-2</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <f>'Performance Data'!$K$4</f>
         <v>3.5332500500000003E-2</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <f>'Performance Data'!$K$5</f>
         <v>-3.8334237600000001E-2</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <f t="shared" si="2"/>
         <v>-1.8781070574999999E-2</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="10">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M13" s="12">
-        <f>INDEX('Price Data'!$K$2:$K$255,COUNT('Price Data'!$K$2:$K$255))</f>
+      <c r="M13" s="11">
+        <f>INDEX('Price Data'!$K$2:$K$265,COUNT('Price Data'!$K$2:$K$265))</f>
         <v>34.869998931884702</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="11">
         <f>'200D SMA'!$K$2</f>
         <v>34.975750102996798</v>
       </c>
-      <c r="O13" s="14" t="str">
+      <c r="O13" s="13" t="str">
         <f t="shared" si="4"/>
         <v>no</v>
       </c>
-      <c r="P13" s="13" t="str">
+      <c r="P13" s="12" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <f t="shared" si="1"/>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <f>'Performance Data'!$L$2</f>
         <v>-4.6853979499999997E-2</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <f>'Performance Data'!$L$3</f>
         <v>-3.3840464100000002E-2</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <f>'Performance Data'!$L$4</f>
         <v>-7.1856832699999998E-2</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <f>'Performance Data'!$L$5</f>
         <v>-1.0511603999999999E-3</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <f t="shared" si="2"/>
         <v>-3.8400609174999996E-2</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="10">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="M14" s="12">
-        <f>INDEX('Price Data'!$L$2:$L$255,COUNT('Price Data'!$L$2:$L$255))</f>
+      <c r="M14" s="11">
+        <f>INDEX('Price Data'!$L$2:$L$265,COUNT('Price Data'!$L$2:$L$265))</f>
         <v>99.069999694824205</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="11">
         <f>'200D SMA'!$L$2</f>
         <v>106.527500190734</v>
       </c>
-      <c r="O14" s="11" t="str">
+      <c r="O14" s="10" t="str">
         <f t="shared" si="4"/>
         <v>no</v>
       </c>
-      <c r="P14" s="13" t="str">
+      <c r="P14" s="12" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>0</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <f>0.5-SUM(E4:E14)</f>
         <v>0.3</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="8">
+      <c r="C16" s="14"/>
+      <c r="D16" s="7">
         <f>SUM(D4:D15)</f>
         <v>0.50000000000000011</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <f>SUM(E4:E15)</f>
         <v>0.5</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <f>SUM(F4:F15)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="G2:K2"/>
+  <mergeCells count="5">
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="L2 L4:L14">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThanOrEqual">
@@ -2344,9 +2444,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L255"/>
+  <dimension ref="A1:L261"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A227" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -2395,7 +2495,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="19">
+      <c r="A2" s="15">
         <v>44344</v>
       </c>
       <c r="B2">
@@ -2433,7 +2533,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="19">
+      <c r="A3" s="15">
         <v>44348</v>
       </c>
       <c r="B3">
@@ -2471,7 +2571,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="19">
+      <c r="A4" s="15">
         <v>44349</v>
       </c>
       <c r="B4">
@@ -2509,7 +2609,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="19">
+      <c r="A5" s="15">
         <v>44350</v>
       </c>
       <c r="B5">
@@ -2547,7 +2647,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="19">
+      <c r="A6" s="15">
         <v>44351</v>
       </c>
       <c r="B6">
@@ -2585,7 +2685,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="19">
+      <c r="A7" s="15">
         <v>44354</v>
       </c>
       <c r="B7">
@@ -2623,7 +2723,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="19">
+      <c r="A8" s="15">
         <v>44355</v>
       </c>
       <c r="B8">
@@ -2661,7 +2761,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="19">
+      <c r="A9" s="15">
         <v>44356</v>
       </c>
       <c r="B9">
@@ -2699,7 +2799,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="19">
+      <c r="A10" s="15">
         <v>44357</v>
       </c>
       <c r="B10">
@@ -2737,7 +2837,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="19">
+      <c r="A11" s="15">
         <v>44358</v>
       </c>
       <c r="B11">
@@ -2775,7 +2875,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="19">
+      <c r="A12" s="15">
         <v>44361</v>
       </c>
       <c r="B12">
@@ -2813,7 +2913,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="19">
+      <c r="A13" s="15">
         <v>44362</v>
       </c>
       <c r="B13">
@@ -2851,7 +2951,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="19">
+      <c r="A14" s="15">
         <v>44363</v>
       </c>
       <c r="B14">
@@ -2889,7 +2989,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="19">
+      <c r="A15" s="15">
         <v>44364</v>
       </c>
       <c r="B15">
@@ -2927,7 +3027,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="19">
+      <c r="A16" s="15">
         <v>44365</v>
       </c>
       <c r="B16">
@@ -2965,7 +3065,7 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="19">
+      <c r="A17" s="15">
         <v>44368</v>
       </c>
       <c r="B17">
@@ -3003,7 +3103,7 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="19">
+      <c r="A18" s="15">
         <v>44369</v>
       </c>
       <c r="B18">
@@ -3041,7 +3141,7 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="19">
+      <c r="A19" s="15">
         <v>44370</v>
       </c>
       <c r="B19">
@@ -3079,7 +3179,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="19">
+      <c r="A20" s="15">
         <v>44371</v>
       </c>
       <c r="B20">
@@ -3117,7 +3217,7 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="19">
+      <c r="A21" s="15">
         <v>44372</v>
       </c>
       <c r="B21">
@@ -3155,7 +3255,7 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="19">
+      <c r="A22" s="15">
         <v>44375</v>
       </c>
       <c r="B22">
@@ -3193,7 +3293,7 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="19">
+      <c r="A23" s="15">
         <v>44376</v>
       </c>
       <c r="B23">
@@ -3231,7 +3331,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="19">
+      <c r="A24" s="15">
         <v>44377</v>
       </c>
       <c r="B24">
@@ -3269,7 +3369,7 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="19">
+      <c r="A25" s="15">
         <v>44378</v>
       </c>
       <c r="B25">
@@ -3307,7 +3407,7 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="19">
+      <c r="A26" s="15">
         <v>44379</v>
       </c>
       <c r="B26">
@@ -3345,7 +3445,7 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="19">
+      <c r="A27" s="15">
         <v>44383</v>
       </c>
       <c r="B27">
@@ -3383,7 +3483,7 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="19">
+      <c r="A28" s="15">
         <v>44384</v>
       </c>
       <c r="B28">
@@ -3421,7 +3521,7 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="19">
+      <c r="A29" s="15">
         <v>44385</v>
       </c>
       <c r="B29">
@@ -3459,7 +3559,7 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="19">
+      <c r="A30" s="15">
         <v>44386</v>
       </c>
       <c r="B30">
@@ -3497,7 +3597,7 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="19">
+      <c r="A31" s="15">
         <v>44389</v>
       </c>
       <c r="B31">
@@ -3535,7 +3635,7 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="19">
+      <c r="A32" s="15">
         <v>44390</v>
       </c>
       <c r="B32">
@@ -3573,7 +3673,7 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="19">
+      <c r="A33" s="15">
         <v>44391</v>
       </c>
       <c r="B33">
@@ -3611,7 +3711,7 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="19">
+      <c r="A34" s="15">
         <v>44392</v>
       </c>
       <c r="B34">
@@ -3649,7 +3749,7 @@
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="19">
+      <c r="A35" s="15">
         <v>44393</v>
       </c>
       <c r="B35">
@@ -3687,7 +3787,7 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="19">
+      <c r="A36" s="15">
         <v>44396</v>
       </c>
       <c r="B36">
@@ -3725,7 +3825,7 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="19">
+      <c r="A37" s="15">
         <v>44397</v>
       </c>
       <c r="B37">
@@ -3763,7 +3863,7 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="19">
+      <c r="A38" s="15">
         <v>44398</v>
       </c>
       <c r="B38">
@@ -3801,7 +3901,7 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="19">
+      <c r="A39" s="15">
         <v>44399</v>
       </c>
       <c r="B39">
@@ -3839,7 +3939,7 @@
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="19">
+      <c r="A40" s="15">
         <v>44400</v>
       </c>
       <c r="B40">
@@ -3877,7 +3977,7 @@
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="19">
+      <c r="A41" s="15">
         <v>44403</v>
       </c>
       <c r="B41">
@@ -3915,7 +4015,7 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="19">
+      <c r="A42" s="15">
         <v>44404</v>
       </c>
       <c r="B42">
@@ -3953,7 +4053,7 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="19">
+      <c r="A43" s="15">
         <v>44405</v>
       </c>
       <c r="B43">
@@ -3991,7 +4091,7 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="19">
+      <c r="A44" s="15">
         <v>44406</v>
       </c>
       <c r="B44">
@@ -4029,7 +4129,7 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="19">
+      <c r="A45" s="15">
         <v>44407</v>
       </c>
       <c r="B45">
@@ -4067,7 +4167,7 @@
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="19">
+      <c r="A46" s="15">
         <v>44410</v>
       </c>
       <c r="B46">
@@ -4105,7 +4205,7 @@
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="19">
+      <c r="A47" s="15">
         <v>44411</v>
       </c>
       <c r="B47">
@@ -4143,7 +4243,7 @@
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="19">
+      <c r="A48" s="15">
         <v>44412</v>
       </c>
       <c r="B48">
@@ -4181,7 +4281,7 @@
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="19">
+      <c r="A49" s="15">
         <v>44413</v>
       </c>
       <c r="B49">
@@ -4219,7 +4319,7 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="19">
+      <c r="A50" s="15">
         <v>44414</v>
       </c>
       <c r="B50">
@@ -4257,7 +4357,7 @@
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="19">
+      <c r="A51" s="15">
         <v>44417</v>
       </c>
       <c r="B51">
@@ -4295,7 +4395,7 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="19">
+      <c r="A52" s="15">
         <v>44418</v>
       </c>
       <c r="B52">
@@ -4333,7 +4433,7 @@
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="19">
+      <c r="A53" s="15">
         <v>44419</v>
       </c>
       <c r="B53">
@@ -4371,7 +4471,7 @@
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="19">
+      <c r="A54" s="15">
         <v>44420</v>
       </c>
       <c r="B54">
@@ -4409,7 +4509,7 @@
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="19">
+      <c r="A55" s="15">
         <v>44421</v>
       </c>
       <c r="B55">
@@ -4447,7 +4547,7 @@
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="19">
+      <c r="A56" s="15">
         <v>44424</v>
       </c>
       <c r="B56">
@@ -4485,7 +4585,7 @@
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="19">
+      <c r="A57" s="15">
         <v>44425</v>
       </c>
       <c r="B57">
@@ -4523,7 +4623,7 @@
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="19">
+      <c r="A58" s="15">
         <v>44426</v>
       </c>
       <c r="B58">
@@ -4561,7 +4661,7 @@
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="19">
+      <c r="A59" s="15">
         <v>44427</v>
       </c>
       <c r="B59">
@@ -4599,7 +4699,7 @@
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="19">
+      <c r="A60" s="15">
         <v>44428</v>
       </c>
       <c r="B60">
@@ -4637,7 +4737,7 @@
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="19">
+      <c r="A61" s="15">
         <v>44431</v>
       </c>
       <c r="B61">
@@ -4675,7 +4775,7 @@
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="19">
+      <c r="A62" s="15">
         <v>44432</v>
       </c>
       <c r="B62">
@@ -4713,7 +4813,7 @@
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="19">
+      <c r="A63" s="15">
         <v>44433</v>
       </c>
       <c r="B63">
@@ -4751,7 +4851,7 @@
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="19">
+      <c r="A64" s="15">
         <v>44434</v>
       </c>
       <c r="B64">
@@ -4789,7 +4889,7 @@
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="19">
+      <c r="A65" s="15">
         <v>44435</v>
       </c>
       <c r="B65">
@@ -4827,7 +4927,7 @@
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="19">
+      <c r="A66" s="15">
         <v>44438</v>
       </c>
       <c r="B66">
@@ -4865,7 +4965,7 @@
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="19">
+      <c r="A67" s="15">
         <v>44439</v>
       </c>
       <c r="B67">
@@ -4903,7 +5003,7 @@
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="19">
+      <c r="A68" s="15">
         <v>44440</v>
       </c>
       <c r="B68">
@@ -4941,7 +5041,7 @@
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="19">
+      <c r="A69" s="15">
         <v>44441</v>
       </c>
       <c r="B69">
@@ -4979,7 +5079,7 @@
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="19">
+      <c r="A70" s="15">
         <v>44442</v>
       </c>
       <c r="B70">
@@ -5017,7 +5117,7 @@
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="19">
+      <c r="A71" s="15">
         <v>44446</v>
       </c>
       <c r="B71">
@@ -5055,7 +5155,7 @@
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="19">
+      <c r="A72" s="15">
         <v>44447</v>
       </c>
       <c r="B72">
@@ -5093,7 +5193,7 @@
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="19">
+      <c r="A73" s="15">
         <v>44448</v>
       </c>
       <c r="B73">
@@ -5131,7 +5231,7 @@
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="19">
+      <c r="A74" s="15">
         <v>44449</v>
       </c>
       <c r="B74">
@@ -5169,7 +5269,7 @@
       </c>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="19">
+      <c r="A75" s="15">
         <v>44452</v>
       </c>
       <c r="B75">
@@ -5207,7 +5307,7 @@
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="19">
+      <c r="A76" s="15">
         <v>44453</v>
       </c>
       <c r="B76">
@@ -5245,7 +5345,7 @@
       </c>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="19">
+      <c r="A77" s="15">
         <v>44454</v>
       </c>
       <c r="B77">
@@ -5283,7 +5383,7 @@
       </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="19">
+      <c r="A78" s="15">
         <v>44455</v>
       </c>
       <c r="B78">
@@ -5321,7 +5421,7 @@
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="19">
+      <c r="A79" s="15">
         <v>44456</v>
       </c>
       <c r="B79">
@@ -5359,7 +5459,7 @@
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="19">
+      <c r="A80" s="15">
         <v>44459</v>
       </c>
       <c r="B80">
@@ -5397,7 +5497,7 @@
       </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="19">
+      <c r="A81" s="15">
         <v>44460</v>
       </c>
       <c r="B81">
@@ -5435,7 +5535,7 @@
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="19">
+      <c r="A82" s="15">
         <v>44461</v>
       </c>
       <c r="B82">
@@ -5473,7 +5573,7 @@
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="19">
+      <c r="A83" s="15">
         <v>44462</v>
       </c>
       <c r="B83">
@@ -5511,7 +5611,7 @@
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="19">
+      <c r="A84" s="15">
         <v>44463</v>
       </c>
       <c r="B84">
@@ -5549,7 +5649,7 @@
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="19">
+      <c r="A85" s="15">
         <v>44466</v>
       </c>
       <c r="B85">
@@ -5587,7 +5687,7 @@
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="19">
+      <c r="A86" s="15">
         <v>44467</v>
       </c>
       <c r="B86">
@@ -5625,7 +5725,7 @@
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="19">
+      <c r="A87" s="15">
         <v>44468</v>
       </c>
       <c r="B87">
@@ -5663,7 +5763,7 @@
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="19">
+      <c r="A88" s="15">
         <v>44469</v>
       </c>
       <c r="B88">
@@ -5701,7 +5801,7 @@
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="19">
+      <c r="A89" s="15">
         <v>44470</v>
       </c>
       <c r="B89">
@@ -5739,7 +5839,7 @@
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="19">
+      <c r="A90" s="15">
         <v>44473</v>
       </c>
       <c r="B90">
@@ -5777,7 +5877,7 @@
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="19">
+      <c r="A91" s="15">
         <v>44474</v>
       </c>
       <c r="B91">
@@ -5815,7 +5915,7 @@
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="19">
+      <c r="A92" s="15">
         <v>44475</v>
       </c>
       <c r="B92">
@@ -5853,7 +5953,7 @@
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="19">
+      <c r="A93" s="15">
         <v>44476</v>
       </c>
       <c r="B93">
@@ -5891,7 +5991,7 @@
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="19">
+      <c r="A94" s="15">
         <v>44477</v>
       </c>
       <c r="B94">
@@ -5929,7 +6029,7 @@
       </c>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="19">
+      <c r="A95" s="15">
         <v>44480</v>
       </c>
       <c r="B95">
@@ -5967,7 +6067,7 @@
       </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="19">
+      <c r="A96" s="15">
         <v>44481</v>
       </c>
       <c r="B96">
@@ -6005,7 +6105,7 @@
       </c>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="19">
+      <c r="A97" s="15">
         <v>44482</v>
       </c>
       <c r="B97">
@@ -6043,7 +6143,7 @@
       </c>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="19">
+      <c r="A98" s="15">
         <v>44483</v>
       </c>
       <c r="B98">
@@ -6081,7 +6181,7 @@
       </c>
     </row>
     <row r="99" spans="1:12">
-      <c r="A99" s="19">
+      <c r="A99" s="15">
         <v>44484</v>
       </c>
       <c r="B99">
@@ -6119,7 +6219,7 @@
       </c>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="19">
+      <c r="A100" s="15">
         <v>44487</v>
       </c>
       <c r="B100">
@@ -6157,7 +6257,7 @@
       </c>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101" s="19">
+      <c r="A101" s="15">
         <v>44488</v>
       </c>
       <c r="B101">
@@ -6195,7 +6295,7 @@
       </c>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="19">
+      <c r="A102" s="15">
         <v>44489</v>
       </c>
       <c r="B102">
@@ -6233,7 +6333,7 @@
       </c>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="19">
+      <c r="A103" s="15">
         <v>44490</v>
       </c>
       <c r="B103">
@@ -6271,7 +6371,7 @@
       </c>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="19">
+      <c r="A104" s="15">
         <v>44491</v>
       </c>
       <c r="B104">
@@ -6309,7 +6409,7 @@
       </c>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="19">
+      <c r="A105" s="15">
         <v>44494</v>
       </c>
       <c r="B105">
@@ -6347,7 +6447,7 @@
       </c>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="19">
+      <c r="A106" s="15">
         <v>44495</v>
       </c>
       <c r="B106">
@@ -6385,7 +6485,7 @@
       </c>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="19">
+      <c r="A107" s="15">
         <v>44496</v>
       </c>
       <c r="B107">
@@ -6423,7 +6523,7 @@
       </c>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="19">
+      <c r="A108" s="15">
         <v>44497</v>
       </c>
       <c r="B108">
@@ -6461,7 +6561,7 @@
       </c>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="19">
+      <c r="A109" s="15">
         <v>44498</v>
       </c>
       <c r="B109">
@@ -6499,7 +6599,7 @@
       </c>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="19">
+      <c r="A110" s="15">
         <v>44501</v>
       </c>
       <c r="B110">
@@ -6537,7 +6637,7 @@
       </c>
     </row>
     <row r="111" spans="1:12">
-      <c r="A111" s="19">
+      <c r="A111" s="15">
         <v>44502</v>
       </c>
       <c r="B111">
@@ -6575,7 +6675,7 @@
       </c>
     </row>
     <row r="112" spans="1:12">
-      <c r="A112" s="19">
+      <c r="A112" s="15">
         <v>44503</v>
       </c>
       <c r="B112">
@@ -6613,7 +6713,7 @@
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="19">
+      <c r="A113" s="15">
         <v>44504</v>
       </c>
       <c r="B113">
@@ -6651,7 +6751,7 @@
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="19">
+      <c r="A114" s="15">
         <v>44505</v>
       </c>
       <c r="B114">
@@ -6689,7 +6789,7 @@
       </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="A115" s="19">
+      <c r="A115" s="15">
         <v>44508</v>
       </c>
       <c r="B115">
@@ -6727,7 +6827,7 @@
       </c>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="19">
+      <c r="A116" s="15">
         <v>44509</v>
       </c>
       <c r="B116">
@@ -6765,7 +6865,7 @@
       </c>
     </row>
     <row r="117" spans="1:12">
-      <c r="A117" s="19">
+      <c r="A117" s="15">
         <v>44510</v>
       </c>
       <c r="B117">
@@ -6803,7 +6903,7 @@
       </c>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="19">
+      <c r="A118" s="15">
         <v>44511</v>
       </c>
       <c r="B118">
@@ -6841,7 +6941,7 @@
       </c>
     </row>
     <row r="119" spans="1:12">
-      <c r="A119" s="19">
+      <c r="A119" s="15">
         <v>44512</v>
       </c>
       <c r="B119">
@@ -6879,7 +6979,7 @@
       </c>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="19">
+      <c r="A120" s="15">
         <v>44515</v>
       </c>
       <c r="B120">
@@ -6917,7 +7017,7 @@
       </c>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="19">
+      <c r="A121" s="15">
         <v>44516</v>
       </c>
       <c r="B121">
@@ -6955,7 +7055,7 @@
       </c>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="19">
+      <c r="A122" s="15">
         <v>44517</v>
       </c>
       <c r="B122">
@@ -6993,7 +7093,7 @@
       </c>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="19">
+      <c r="A123" s="15">
         <v>44518</v>
       </c>
       <c r="B123">
@@ -7031,7 +7131,7 @@
       </c>
     </row>
     <row r="124" spans="1:12">
-      <c r="A124" s="19">
+      <c r="A124" s="15">
         <v>44519</v>
       </c>
       <c r="B124">
@@ -7069,7 +7169,7 @@
       </c>
     </row>
     <row r="125" spans="1:12">
-      <c r="A125" s="19">
+      <c r="A125" s="15">
         <v>44522</v>
       </c>
       <c r="B125">
@@ -7107,7 +7207,7 @@
       </c>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="19">
+      <c r="A126" s="15">
         <v>44523</v>
       </c>
       <c r="B126">
@@ -7145,7 +7245,7 @@
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="A127" s="19">
+      <c r="A127" s="15">
         <v>44524</v>
       </c>
       <c r="B127">
@@ -7183,7 +7283,7 @@
       </c>
     </row>
     <row r="128" spans="1:12">
-      <c r="A128" s="19">
+      <c r="A128" s="15">
         <v>44526</v>
       </c>
       <c r="B128">
@@ -7221,7 +7321,7 @@
       </c>
     </row>
     <row r="129" spans="1:12">
-      <c r="A129" s="19">
+      <c r="A129" s="15">
         <v>44529</v>
       </c>
       <c r="B129">
@@ -7259,7 +7359,7 @@
       </c>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="19">
+      <c r="A130" s="15">
         <v>44530</v>
       </c>
       <c r="B130">
@@ -7297,7 +7397,7 @@
       </c>
     </row>
     <row r="131" spans="1:12">
-      <c r="A131" s="19">
+      <c r="A131" s="15">
         <v>44531</v>
       </c>
       <c r="B131">
@@ -7335,7 +7435,7 @@
       </c>
     </row>
     <row r="132" spans="1:12">
-      <c r="A132" s="19">
+      <c r="A132" s="15">
         <v>44532</v>
       </c>
       <c r="B132">
@@ -7373,7 +7473,7 @@
       </c>
     </row>
     <row r="133" spans="1:12">
-      <c r="A133" s="19">
+      <c r="A133" s="15">
         <v>44533</v>
       </c>
       <c r="B133">
@@ -7411,7 +7511,7 @@
       </c>
     </row>
     <row r="134" spans="1:12">
-      <c r="A134" s="19">
+      <c r="A134" s="15">
         <v>44536</v>
       </c>
       <c r="B134">
@@ -7449,7 +7549,7 @@
       </c>
     </row>
     <row r="135" spans="1:12">
-      <c r="A135" s="19">
+      <c r="A135" s="15">
         <v>44537</v>
       </c>
       <c r="B135">
@@ -7487,7 +7587,7 @@
       </c>
     </row>
     <row r="136" spans="1:12">
-      <c r="A136" s="19">
+      <c r="A136" s="15">
         <v>44538</v>
       </c>
       <c r="B136">
@@ -7525,7 +7625,7 @@
       </c>
     </row>
     <row r="137" spans="1:12">
-      <c r="A137" s="19">
+      <c r="A137" s="15">
         <v>44539</v>
       </c>
       <c r="B137">
@@ -7563,7 +7663,7 @@
       </c>
     </row>
     <row r="138" spans="1:12">
-      <c r="A138" s="19">
+      <c r="A138" s="15">
         <v>44540</v>
       </c>
       <c r="B138">
@@ -7601,7 +7701,7 @@
       </c>
     </row>
     <row r="139" spans="1:12">
-      <c r="A139" s="19">
+      <c r="A139" s="15">
         <v>44543</v>
       </c>
       <c r="B139">
@@ -7639,7 +7739,7 @@
       </c>
     </row>
     <row r="140" spans="1:12">
-      <c r="A140" s="19">
+      <c r="A140" s="15">
         <v>44544</v>
       </c>
       <c r="B140">
@@ -7677,7 +7777,7 @@
       </c>
     </row>
     <row r="141" spans="1:12">
-      <c r="A141" s="19">
+      <c r="A141" s="15">
         <v>44545</v>
       </c>
       <c r="B141">
@@ -7715,7 +7815,7 @@
       </c>
     </row>
     <row r="142" spans="1:12">
-      <c r="A142" s="19">
+      <c r="A142" s="15">
         <v>44546</v>
       </c>
       <c r="B142">
@@ -7753,7 +7853,7 @@
       </c>
     </row>
     <row r="143" spans="1:12">
-      <c r="A143" s="19">
+      <c r="A143" s="15">
         <v>44547</v>
       </c>
       <c r="B143">
@@ -7791,7 +7891,7 @@
       </c>
     </row>
     <row r="144" spans="1:12">
-      <c r="A144" s="19">
+      <c r="A144" s="15">
         <v>44550</v>
       </c>
       <c r="B144">
@@ -7829,7 +7929,7 @@
       </c>
     </row>
     <row r="145" spans="1:12">
-      <c r="A145" s="19">
+      <c r="A145" s="15">
         <v>44551</v>
       </c>
       <c r="B145">
@@ -7867,7 +7967,7 @@
       </c>
     </row>
     <row r="146" spans="1:12">
-      <c r="A146" s="19">
+      <c r="A146" s="15">
         <v>44552</v>
       </c>
       <c r="B146">
@@ -7905,7 +8005,7 @@
       </c>
     </row>
     <row r="147" spans="1:12">
-      <c r="A147" s="19">
+      <c r="A147" s="15">
         <v>44553</v>
       </c>
       <c r="B147">
@@ -7943,7 +8043,7 @@
       </c>
     </row>
     <row r="148" spans="1:12">
-      <c r="A148" s="19">
+      <c r="A148" s="15">
         <v>44557</v>
       </c>
       <c r="B148">
@@ -7981,7 +8081,7 @@
       </c>
     </row>
     <row r="149" spans="1:12">
-      <c r="A149" s="19">
+      <c r="A149" s="15">
         <v>44558</v>
       </c>
       <c r="B149">
@@ -8019,7 +8119,7 @@
       </c>
     </row>
     <row r="150" spans="1:12">
-      <c r="A150" s="19">
+      <c r="A150" s="15">
         <v>44559</v>
       </c>
       <c r="B150">
@@ -8057,7 +8157,7 @@
       </c>
     </row>
     <row r="151" spans="1:12">
-      <c r="A151" s="19">
+      <c r="A151" s="15">
         <v>44560</v>
       </c>
       <c r="B151">
@@ -8095,7 +8195,7 @@
       </c>
     </row>
     <row r="152" spans="1:12">
-      <c r="A152" s="19">
+      <c r="A152" s="15">
         <v>44561</v>
       </c>
       <c r="B152">
@@ -8133,7 +8233,7 @@
       </c>
     </row>
     <row r="153" spans="1:12">
-      <c r="A153" s="19">
+      <c r="A153" s="15">
         <v>44564</v>
       </c>
       <c r="B153">
@@ -8171,7 +8271,7 @@
       </c>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="19">
+      <c r="A154" s="15">
         <v>44565</v>
       </c>
       <c r="B154">
@@ -8209,7 +8309,7 @@
       </c>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="19">
+      <c r="A155" s="15">
         <v>44566</v>
       </c>
       <c r="B155">
@@ -8247,7 +8347,7 @@
       </c>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="19">
+      <c r="A156" s="15">
         <v>44567</v>
       </c>
       <c r="B156">
@@ -8285,7 +8385,7 @@
       </c>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="19">
+      <c r="A157" s="15">
         <v>44568</v>
       </c>
       <c r="B157">
@@ -8323,7 +8423,7 @@
       </c>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="19">
+      <c r="A158" s="15">
         <v>44571</v>
       </c>
       <c r="B158">
@@ -8361,7 +8461,7 @@
       </c>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="19">
+      <c r="A159" s="15">
         <v>44572</v>
       </c>
       <c r="B159">
@@ -8399,7 +8499,7 @@
       </c>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="19">
+      <c r="A160" s="15">
         <v>44573</v>
       </c>
       <c r="B160">
@@ -8437,7 +8537,7 @@
       </c>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="19">
+      <c r="A161" s="15">
         <v>44574</v>
       </c>
       <c r="B161">
@@ -8475,7 +8575,7 @@
       </c>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="19">
+      <c r="A162" s="15">
         <v>44575</v>
       </c>
       <c r="B162">
@@ -8513,7 +8613,7 @@
       </c>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="19">
+      <c r="A163" s="15">
         <v>44579</v>
       </c>
       <c r="B163">
@@ -8551,7 +8651,7 @@
       </c>
     </row>
     <row r="164" spans="1:12">
-      <c r="A164" s="19">
+      <c r="A164" s="15">
         <v>44580</v>
       </c>
       <c r="B164">
@@ -8589,7 +8689,7 @@
       </c>
     </row>
     <row r="165" spans="1:12">
-      <c r="A165" s="19">
+      <c r="A165" s="15">
         <v>44581</v>
       </c>
       <c r="B165">
@@ -8627,7 +8727,7 @@
       </c>
     </row>
     <row r="166" spans="1:12">
-      <c r="A166" s="19">
+      <c r="A166" s="15">
         <v>44582</v>
       </c>
       <c r="B166">
@@ -8665,7 +8765,7 @@
       </c>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="19">
+      <c r="A167" s="15">
         <v>44585</v>
       </c>
       <c r="B167">
@@ -8703,7 +8803,7 @@
       </c>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="19">
+      <c r="A168" s="15">
         <v>44586</v>
       </c>
       <c r="B168">
@@ -8741,7 +8841,7 @@
       </c>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="19">
+      <c r="A169" s="15">
         <v>44587</v>
       </c>
       <c r="B169">
@@ -8779,7 +8879,7 @@
       </c>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="19">
+      <c r="A170" s="15">
         <v>44588</v>
       </c>
       <c r="B170">
@@ -8817,7 +8917,7 @@
       </c>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="19">
+      <c r="A171" s="15">
         <v>44589</v>
       </c>
       <c r="B171">
@@ -8855,7 +8955,7 @@
       </c>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="19">
+      <c r="A172" s="15">
         <v>44592</v>
       </c>
       <c r="B172">
@@ -8893,7 +8993,7 @@
       </c>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="19">
+      <c r="A173" s="15">
         <v>44593</v>
       </c>
       <c r="B173">
@@ -8931,7 +9031,7 @@
       </c>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="19">
+      <c r="A174" s="15">
         <v>44594</v>
       </c>
       <c r="B174">
@@ -8969,7 +9069,7 @@
       </c>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="19">
+      <c r="A175" s="15">
         <v>44595</v>
       </c>
       <c r="B175">
@@ -9007,7 +9107,7 @@
       </c>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="19">
+      <c r="A176" s="15">
         <v>44596</v>
       </c>
       <c r="B176">
@@ -9045,7 +9145,7 @@
       </c>
     </row>
     <row r="177" spans="1:12">
-      <c r="A177" s="19">
+      <c r="A177" s="15">
         <v>44599</v>
       </c>
       <c r="B177">
@@ -9083,7 +9183,7 @@
       </c>
     </row>
     <row r="178" spans="1:12">
-      <c r="A178" s="19">
+      <c r="A178" s="15">
         <v>44600</v>
       </c>
       <c r="B178">
@@ -9121,7 +9221,7 @@
       </c>
     </row>
     <row r="179" spans="1:12">
-      <c r="A179" s="19">
+      <c r="A179" s="15">
         <v>44601</v>
       </c>
       <c r="B179">
@@ -9159,7 +9259,7 @@
       </c>
     </row>
     <row r="180" spans="1:12">
-      <c r="A180" s="19">
+      <c r="A180" s="15">
         <v>44602</v>
       </c>
       <c r="B180">
@@ -9197,7 +9297,7 @@
       </c>
     </row>
     <row r="181" spans="1:12">
-      <c r="A181" s="19">
+      <c r="A181" s="15">
         <v>44603</v>
       </c>
       <c r="B181">
@@ -9235,7 +9335,7 @@
       </c>
     </row>
     <row r="182" spans="1:12">
-      <c r="A182" s="19">
+      <c r="A182" s="15">
         <v>44606</v>
       </c>
       <c r="B182">
@@ -9273,7 +9373,7 @@
       </c>
     </row>
     <row r="183" spans="1:12">
-      <c r="A183" s="19">
+      <c r="A183" s="15">
         <v>44607</v>
       </c>
       <c r="B183">
@@ -9311,7 +9411,7 @@
       </c>
     </row>
     <row r="184" spans="1:12">
-      <c r="A184" s="19">
+      <c r="A184" s="15">
         <v>44608</v>
       </c>
       <c r="B184">
@@ -9349,7 +9449,7 @@
       </c>
     </row>
     <row r="185" spans="1:12">
-      <c r="A185" s="19">
+      <c r="A185" s="15">
         <v>44609</v>
       </c>
       <c r="B185">
@@ -9387,7 +9487,7 @@
       </c>
     </row>
     <row r="186" spans="1:12">
-      <c r="A186" s="19">
+      <c r="A186" s="15">
         <v>44610</v>
       </c>
       <c r="B186">
@@ -9425,7 +9525,7 @@
       </c>
     </row>
     <row r="187" spans="1:12">
-      <c r="A187" s="19">
+      <c r="A187" s="15">
         <v>44614</v>
       </c>
       <c r="B187">
@@ -9463,7 +9563,7 @@
       </c>
     </row>
     <row r="188" spans="1:12">
-      <c r="A188" s="19">
+      <c r="A188" s="15">
         <v>44615</v>
       </c>
       <c r="B188">
@@ -9501,7 +9601,7 @@
       </c>
     </row>
     <row r="189" spans="1:12">
-      <c r="A189" s="19">
+      <c r="A189" s="15">
         <v>44616</v>
       </c>
       <c r="B189">
@@ -9539,7 +9639,7 @@
       </c>
     </row>
     <row r="190" spans="1:12">
-      <c r="A190" s="19">
+      <c r="A190" s="15">
         <v>44617</v>
       </c>
       <c r="B190">
@@ -9577,7 +9677,7 @@
       </c>
     </row>
     <row r="191" spans="1:12">
-      <c r="A191" s="19">
+      <c r="A191" s="15">
         <v>44620</v>
       </c>
       <c r="B191">
@@ -9615,7 +9715,7 @@
       </c>
     </row>
     <row r="192" spans="1:12">
-      <c r="A192" s="19">
+      <c r="A192" s="15">
         <v>44621</v>
       </c>
       <c r="B192">
@@ -9653,7 +9753,7 @@
       </c>
     </row>
     <row r="193" spans="1:12">
-      <c r="A193" s="19">
+      <c r="A193" s="15">
         <v>44622</v>
       </c>
       <c r="B193">
@@ -9691,7 +9791,7 @@
       </c>
     </row>
     <row r="194" spans="1:12">
-      <c r="A194" s="19">
+      <c r="A194" s="15">
         <v>44623</v>
       </c>
       <c r="B194">
@@ -9729,7 +9829,7 @@
       </c>
     </row>
     <row r="195" spans="1:12">
-      <c r="A195" s="19">
+      <c r="A195" s="15">
         <v>44624</v>
       </c>
       <c r="B195">
@@ -9767,7 +9867,7 @@
       </c>
     </row>
     <row r="196" spans="1:12">
-      <c r="A196" s="19">
+      <c r="A196" s="15">
         <v>44627</v>
       </c>
       <c r="B196">
@@ -9805,7 +9905,7 @@
       </c>
     </row>
     <row r="197" spans="1:12">
-      <c r="A197" s="19">
+      <c r="A197" s="15">
         <v>44628</v>
       </c>
       <c r="B197">
@@ -9843,7 +9943,7 @@
       </c>
     </row>
     <row r="198" spans="1:12">
-      <c r="A198" s="19">
+      <c r="A198" s="15">
         <v>44629</v>
       </c>
       <c r="B198">
@@ -9881,7 +9981,7 @@
       </c>
     </row>
     <row r="199" spans="1:12">
-      <c r="A199" s="19">
+      <c r="A199" s="15">
         <v>44630</v>
       </c>
       <c r="B199">
@@ -9919,7 +10019,7 @@
       </c>
     </row>
     <row r="200" spans="1:12">
-      <c r="A200" s="19">
+      <c r="A200" s="15">
         <v>44631</v>
       </c>
       <c r="B200">
@@ -9957,7 +10057,7 @@
       </c>
     </row>
     <row r="201" spans="1:12">
-      <c r="A201" s="19">
+      <c r="A201" s="15">
         <v>44634</v>
       </c>
       <c r="B201">
@@ -9995,7 +10095,7 @@
       </c>
     </row>
     <row r="202" spans="1:12">
-      <c r="A202" s="19">
+      <c r="A202" s="15">
         <v>44635</v>
       </c>
       <c r="B202">
@@ -10033,7 +10133,7 @@
       </c>
     </row>
     <row r="203" spans="1:12">
-      <c r="A203" s="19">
+      <c r="A203" s="15">
         <v>44636</v>
       </c>
       <c r="B203">
@@ -10071,7 +10171,7 @@
       </c>
     </row>
     <row r="204" spans="1:12">
-      <c r="A204" s="19">
+      <c r="A204" s="15">
         <v>44637</v>
       </c>
       <c r="B204">
@@ -10109,7 +10209,7 @@
       </c>
     </row>
     <row r="205" spans="1:12">
-      <c r="A205" s="19">
+      <c r="A205" s="15">
         <v>44638</v>
       </c>
       <c r="B205">
@@ -10147,7 +10247,7 @@
       </c>
     </row>
     <row r="206" spans="1:12">
-      <c r="A206" s="19">
+      <c r="A206" s="15">
         <v>44641</v>
       </c>
       <c r="B206">
@@ -10185,7 +10285,7 @@
       </c>
     </row>
     <row r="207" spans="1:12">
-      <c r="A207" s="19">
+      <c r="A207" s="15">
         <v>44642</v>
       </c>
       <c r="B207">
@@ -10223,7 +10323,7 @@
       </c>
     </row>
     <row r="208" spans="1:12">
-      <c r="A208" s="19">
+      <c r="A208" s="15">
         <v>44643</v>
       </c>
       <c r="B208">
@@ -10261,7 +10361,7 @@
       </c>
     </row>
     <row r="209" spans="1:12">
-      <c r="A209" s="19">
+      <c r="A209" s="15">
         <v>44644</v>
       </c>
       <c r="B209">
@@ -10299,7 +10399,7 @@
       </c>
     </row>
     <row r="210" spans="1:12">
-      <c r="A210" s="19">
+      <c r="A210" s="15">
         <v>44645</v>
       </c>
       <c r="B210">
@@ -10337,7 +10437,7 @@
       </c>
     </row>
     <row r="211" spans="1:12">
-      <c r="A211" s="19">
+      <c r="A211" s="15">
         <v>44648</v>
       </c>
       <c r="B211">
@@ -10375,7 +10475,7 @@
       </c>
     </row>
     <row r="212" spans="1:12">
-      <c r="A212" s="19">
+      <c r="A212" s="15">
         <v>44649</v>
       </c>
       <c r="B212">
@@ -10413,7 +10513,7 @@
       </c>
     </row>
     <row r="213" spans="1:12">
-      <c r="A213" s="19">
+      <c r="A213" s="15">
         <v>44650</v>
       </c>
       <c r="B213">
@@ -10451,7 +10551,7 @@
       </c>
     </row>
     <row r="214" spans="1:12">
-      <c r="A214" s="19">
+      <c r="A214" s="15">
         <v>44651</v>
       </c>
       <c r="B214">
@@ -10489,7 +10589,7 @@
       </c>
     </row>
     <row r="215" spans="1:12">
-      <c r="A215" s="19">
+      <c r="A215" s="15">
         <v>44652</v>
       </c>
       <c r="B215">
@@ -10527,7 +10627,7 @@
       </c>
     </row>
     <row r="216" spans="1:12">
-      <c r="A216" s="19">
+      <c r="A216" s="15">
         <v>44655</v>
       </c>
       <c r="B216">
@@ -10565,7 +10665,7 @@
       </c>
     </row>
     <row r="217" spans="1:12">
-      <c r="A217" s="19">
+      <c r="A217" s="15">
         <v>44656</v>
       </c>
       <c r="B217">
@@ -10603,7 +10703,7 @@
       </c>
     </row>
     <row r="218" spans="1:12">
-      <c r="A218" s="19">
+      <c r="A218" s="15">
         <v>44657</v>
       </c>
       <c r="B218">
@@ -10641,7 +10741,7 @@
       </c>
     </row>
     <row r="219" spans="1:12">
-      <c r="A219" s="19">
+      <c r="A219" s="15">
         <v>44658</v>
       </c>
       <c r="B219">
@@ -10679,7 +10779,7 @@
       </c>
     </row>
     <row r="220" spans="1:12">
-      <c r="A220" s="19">
+      <c r="A220" s="15">
         <v>44659</v>
       </c>
       <c r="B220">
@@ -10717,7 +10817,7 @@
       </c>
     </row>
     <row r="221" spans="1:12">
-      <c r="A221" s="19">
+      <c r="A221" s="15">
         <v>44662</v>
       </c>
       <c r="B221">
@@ -10755,7 +10855,7 @@
       </c>
     </row>
     <row r="222" spans="1:12">
-      <c r="A222" s="19">
+      <c r="A222" s="15">
         <v>44663</v>
       </c>
       <c r="B222">
@@ -10793,7 +10893,7 @@
       </c>
     </row>
     <row r="223" spans="1:12">
-      <c r="A223" s="19">
+      <c r="A223" s="15">
         <v>44664</v>
       </c>
       <c r="B223">
@@ -10831,7 +10931,7 @@
       </c>
     </row>
     <row r="224" spans="1:12">
-      <c r="A224" s="19">
+      <c r="A224" s="15">
         <v>44665</v>
       </c>
       <c r="B224">
@@ -10869,7 +10969,7 @@
       </c>
     </row>
     <row r="225" spans="1:12">
-      <c r="A225" s="19">
+      <c r="A225" s="15">
         <v>44669</v>
       </c>
       <c r="B225">
@@ -10907,7 +11007,7 @@
       </c>
     </row>
     <row r="226" spans="1:12">
-      <c r="A226" s="19">
+      <c r="A226" s="15">
         <v>44670</v>
       </c>
       <c r="B226">
@@ -10945,7 +11045,7 @@
       </c>
     </row>
     <row r="227" spans="1:12">
-      <c r="A227" s="19">
+      <c r="A227" s="15">
         <v>44671</v>
       </c>
       <c r="B227">
@@ -10983,7 +11083,7 @@
       </c>
     </row>
     <row r="228" spans="1:12">
-      <c r="A228" s="19">
+      <c r="A228" s="15">
         <v>44672</v>
       </c>
       <c r="B228">
@@ -11021,7 +11121,7 @@
       </c>
     </row>
     <row r="229" spans="1:12">
-      <c r="A229" s="19">
+      <c r="A229" s="15">
         <v>44673</v>
       </c>
       <c r="B229">
@@ -11059,7 +11159,7 @@
       </c>
     </row>
     <row r="230" spans="1:12">
-      <c r="A230" s="19">
+      <c r="A230" s="15">
         <v>44676</v>
       </c>
       <c r="B230">
@@ -11097,7 +11197,7 @@
       </c>
     </row>
     <row r="231" spans="1:12">
-      <c r="A231" s="19">
+      <c r="A231" s="15">
         <v>44677</v>
       </c>
       <c r="B231">
@@ -11135,7 +11235,7 @@
       </c>
     </row>
     <row r="232" spans="1:12">
-      <c r="A232" s="19">
+      <c r="A232" s="15">
         <v>44678</v>
       </c>
       <c r="B232">
@@ -11173,7 +11273,7 @@
       </c>
     </row>
     <row r="233" spans="1:12">
-      <c r="A233" s="19">
+      <c r="A233" s="15">
         <v>44679</v>
       </c>
       <c r="B233">
@@ -11211,7 +11311,7 @@
       </c>
     </row>
     <row r="234" spans="1:12">
-      <c r="A234" s="19">
+      <c r="A234" s="15">
         <v>44680</v>
       </c>
       <c r="B234">
@@ -11249,7 +11349,7 @@
       </c>
     </row>
     <row r="235" spans="1:12">
-      <c r="A235" s="19">
+      <c r="A235" s="15">
         <v>44683</v>
       </c>
       <c r="B235">
@@ -11287,7 +11387,7 @@
       </c>
     </row>
     <row r="236" spans="1:12">
-      <c r="A236" s="19">
+      <c r="A236" s="15">
         <v>44684</v>
       </c>
       <c r="B236">
@@ -11325,7 +11425,7 @@
       </c>
     </row>
     <row r="237" spans="1:12">
-      <c r="A237" s="19">
+      <c r="A237" s="15">
         <v>44685</v>
       </c>
       <c r="B237">
@@ -11363,7 +11463,7 @@
       </c>
     </row>
     <row r="238" spans="1:12">
-      <c r="A238" s="19">
+      <c r="A238" s="15">
         <v>44686</v>
       </c>
       <c r="B238">
@@ -11401,7 +11501,7 @@
       </c>
     </row>
     <row r="239" spans="1:12">
-      <c r="A239" s="19">
+      <c r="A239" s="15">
         <v>44687</v>
       </c>
       <c r="B239">
@@ -11439,7 +11539,7 @@
       </c>
     </row>
     <row r="240" spans="1:12">
-      <c r="A240" s="19">
+      <c r="A240" s="15">
         <v>44690</v>
       </c>
       <c r="B240">
@@ -11477,7 +11577,7 @@
       </c>
     </row>
     <row r="241" spans="1:12">
-      <c r="A241" s="19">
+      <c r="A241" s="15">
         <v>44691</v>
       </c>
       <c r="B241">
@@ -11515,7 +11615,7 @@
       </c>
     </row>
     <row r="242" spans="1:12">
-      <c r="A242" s="19">
+      <c r="A242" s="15">
         <v>44692</v>
       </c>
       <c r="B242">
@@ -11553,7 +11653,7 @@
       </c>
     </row>
     <row r="243" spans="1:12">
-      <c r="A243" s="19">
+      <c r="A243" s="15">
         <v>44693</v>
       </c>
       <c r="B243">
@@ -11591,7 +11691,7 @@
       </c>
     </row>
     <row r="244" spans="1:12">
-      <c r="A244" s="19">
+      <c r="A244" s="15">
         <v>44694</v>
       </c>
       <c r="B244">
@@ -11629,7 +11729,7 @@
       </c>
     </row>
     <row r="245" spans="1:12">
-      <c r="A245" s="19">
+      <c r="A245" s="15">
         <v>44697</v>
       </c>
       <c r="B245">
@@ -11667,7 +11767,7 @@
       </c>
     </row>
     <row r="246" spans="1:12">
-      <c r="A246" s="19">
+      <c r="A246" s="15">
         <v>44698</v>
       </c>
       <c r="B246">
@@ -11705,7 +11805,7 @@
       </c>
     </row>
     <row r="247" spans="1:12">
-      <c r="A247" s="19">
+      <c r="A247" s="15">
         <v>44699</v>
       </c>
       <c r="B247">
@@ -11743,7 +11843,7 @@
       </c>
     </row>
     <row r="248" spans="1:12">
-      <c r="A248" s="19">
+      <c r="A248" s="15">
         <v>44700</v>
       </c>
       <c r="B248">
@@ -11781,7 +11881,7 @@
       </c>
     </row>
     <row r="249" spans="1:12">
-      <c r="A249" s="19">
+      <c r="A249" s="15">
         <v>44701</v>
       </c>
       <c r="B249">
@@ -11819,7 +11919,7 @@
       </c>
     </row>
     <row r="250" spans="1:12">
-      <c r="A250" s="19">
+      <c r="A250" s="15">
         <v>44704</v>
       </c>
       <c r="B250">
@@ -11857,7 +11957,7 @@
       </c>
     </row>
     <row r="251" spans="1:12">
-      <c r="A251" s="19">
+      <c r="A251" s="15">
         <v>44705</v>
       </c>
       <c r="B251">
@@ -11895,7 +11995,7 @@
       </c>
     </row>
     <row r="252" spans="1:12">
-      <c r="A252" s="19">
+      <c r="A252" s="15">
         <v>44706</v>
       </c>
       <c r="B252">
@@ -11933,7 +12033,7 @@
       </c>
     </row>
     <row r="253" spans="1:12">
-      <c r="A253" s="19">
+      <c r="A253" s="15">
         <v>44707</v>
       </c>
       <c r="B253">
@@ -11971,7 +12071,7 @@
       </c>
     </row>
     <row r="254" spans="1:12">
-      <c r="A254" s="19">
+      <c r="A254" s="15">
         <v>44708</v>
       </c>
       <c r="B254">
@@ -12009,7 +12109,7 @@
       </c>
     </row>
     <row r="255" spans="1:12">
-      <c r="A255" s="19">
+      <c r="A255" s="15">
         <v>44712</v>
       </c>
       <c r="B255">
@@ -12045,6 +12145,12 @@
       <c r="L255">
         <v>99.069999694824205</v>
       </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" s="15"/>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
@@ -12111,7 +12217,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="21">
+      <c r="A2" s="17">
         <v>44712</v>
       </c>
       <c r="B2">
@@ -12176,207 +12282,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="21">
+      <c r="A2" s="17">
         <v>44712</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="16">
         <v>-5.9891763000000002E-3</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="16">
         <v>2.4093812799999999E-2</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="16">
         <v>1.6338675399999999E-2</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="16">
         <v>4.6040693000000002E-3</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="16">
         <v>1.07882464E-2</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="16">
         <v>-2.2091117899999999E-2</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="16">
         <v>-7.4759207999999999E-3</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="16">
         <v>5.3286059999999996E-3</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="16">
         <v>4.6131439099999998E-2</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="16">
         <v>-3.2463983199999998E-2</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="16">
         <v>-4.6853979499999997E-2</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="21">
+      <c r="A3" s="17">
         <v>44712</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="16">
         <v>-9.2688066400000005E-2</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="16">
         <v>1.6683366000000001E-3</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="16">
         <v>-5.5881302000000001E-2</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="16">
         <v>-8.7411132000000002E-2</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="16">
         <v>-7.3283176199999994E-2</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="16">
         <v>-0.15696716499999999</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="16">
         <v>-5.9996227200000002E-2</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="16">
         <v>-1.2790695100000001E-2</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="16">
         <v>0.20653532569999999</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="16">
         <v>-3.9658562000000001E-2</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="16">
         <v>-3.3840464100000002E-2</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="21">
+      <c r="A4" s="17">
         <v>44712</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="16">
         <v>-0.20256615929999999</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="16">
         <v>4.11127362E-2</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="16">
         <v>-8.6753371199999998E-2</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="16">
         <v>-0.1128277982</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="16">
         <v>-0.1172377345</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="16">
         <v>-0.2204965941</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="16">
         <v>-0.1184693139</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="16">
         <v>-2.2640067699999999E-2</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="16">
         <v>0.4784394206</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="16">
         <v>3.5332500500000003E-2</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="16">
         <v>-7.1856832699999998E-2</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="21">
+      <c r="A5" s="17">
         <v>44712</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="16">
         <v>-0.14221400240000001</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="16">
         <v>3.5200569899999999E-2</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="16">
         <v>-0.14060580089999999</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="16">
         <v>-0.1858034999</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="16">
         <v>-0.12144138140000001</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="16">
         <v>-0.15218632709999999</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="16">
         <v>-0.11253249529999999</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="16">
         <v>-1.8670778700000001E-2</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="16">
         <v>0.54838702399999995</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="16">
         <v>-3.8334237600000001E-2</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="16">
         <v>-1.0511603999999999E-3</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="16" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Portfolio Optimization Tool.xlsx
+++ b/Portfolio Optimization Tool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanlupinski/PycharmProjects/Finance/Portfolio Optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3646C935-7794-0E43-B145-822590871BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C873D3E-7CF0-D14D-9DA2-F760F3830ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Performance Data" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Portfolio!$B$2:$P$16</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Portfolio!$B$4:$F$15</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Portfolio!$F$4:$F$15</definedName>
   </definedNames>
@@ -255,7 +256,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,12 +295,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9999"/>
-        <bgColor rgb="FFFF9999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -330,12 +325,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF999A"/>
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF33FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFF9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -385,11 +398,146 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -400,7 +548,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -410,14 +558,81 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,65 +655,121 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="6" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="6" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -514,7 +785,27 @@
     <cellStyle name="Untitled6" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Untitled7" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -535,6 +826,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF954E9F"/>
       <color rgb="FFFF999A"/>
     </mruColors>
   </colors>
@@ -1263,8 +1555,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>585611</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1302,8 +1594,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="241300" y="3429000"/>
-              <a:ext cx="13411200" cy="4470400"/>
+              <a:off x="241300" y="3467100"/>
+              <a:ext cx="13412611" cy="4470400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1635,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1656,760 +1948,760 @@
     <col min="17" max="17" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="14.5" customHeight="1"/>
-    <row r="2" spans="2:16">
-      <c r="G2" s="22" t="s">
+    <row r="1" spans="2:16" ht="14.5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:16" ht="17" thickBot="1">
+      <c r="G2" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24">
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47">
         <f>INDEX('Price Data'!$A$2:$A$265,COUNT('Price Data'!$A$2:$A$265))</f>
         <v>44712</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="48">
         <f>INDEX('Price Data'!$L$2:$L$255,COUNT('Price Data'!$L$2:$L$255))</f>
         <v>99.069999694824205</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:16">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="5" t="s">
+      <c r="L3" s="40"/>
+      <c r="M3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="21"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="44"/>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="2">
         <v>0.05</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:E14" si="0">IF(P4="buy",0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="31">
         <f t="shared" ref="F4:F15" si="1">D4+E4</f>
         <v>0.05</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="24">
         <f>'Performance Data'!$B$2</f>
         <v>-5.9891763000000002E-3</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="6">
         <f>'Performance Data'!$B$3</f>
         <v>-9.2688066400000005E-2</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="6">
         <f>'Performance Data'!$B$4</f>
         <v>-0.20256615929999999</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="6">
         <f>'Performance Data'!$B$5</f>
         <v>-0.14221400240000001</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="18">
         <f t="shared" ref="K4:K14" si="2">AVERAGE(G4:J4)</f>
         <v>-0.11086435110000001</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="7">
         <f t="shared" ref="L4:L14" si="3">_xlfn.RANK.EQ(K4,$K$4:$K$14,0)</f>
         <v>10</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="21">
         <f>INDEX('Price Data'!$B$2:$B$265,COUNT('Price Data'!$B$2:$B$265))</f>
         <v>146.05000305175699</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="22">
         <f>'200D SMA'!$B$2</f>
         <v>170.661000213623</v>
       </c>
-      <c r="O4" s="10" t="str">
+      <c r="O4" s="13" t="str">
         <f t="shared" ref="O4:O14" si="4">IF(M4&gt;N4,"yes","no")</f>
         <v>no</v>
       </c>
-      <c r="P4" s="12" t="str">
+      <c r="P4" s="14" t="str">
         <f t="shared" ref="P4:P14" si="5">IF(L4&gt;5,"n/a",IF(O4="yes","buy","n/a"))</f>
         <v>n/a</v>
       </c>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="2">
         <v>0.05</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="31">
         <f t="shared" si="1"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="24">
         <f>'Performance Data'!$C$2</f>
         <v>2.4093812799999999E-2</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <f>'Performance Data'!$C$3</f>
         <v>1.6683366000000001E-3</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="6">
         <f>'Performance Data'!$C$4</f>
         <v>4.11127362E-2</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="6">
         <f>'Performance Data'!$C$5</f>
         <v>3.5200569899999999E-2</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="18">
         <f t="shared" si="2"/>
         <v>2.5518863874999999E-2</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="21">
         <f>INDEX('Price Data'!$C$2:$C$265,COUNT('Price Data'!$C$2:$C$265))</f>
         <v>144.08999633789</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="22">
         <f>'200D SMA'!$C$2</f>
         <v>143.467700042724</v>
       </c>
-      <c r="O5" s="13" t="str">
+      <c r="O5" s="15" t="str">
         <f t="shared" si="4"/>
         <v>yes</v>
       </c>
-      <c r="P5" s="12" t="str">
+      <c r="P5" s="14" t="str">
         <f t="shared" si="5"/>
         <v>buy</v>
       </c>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="2">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="31">
         <f t="shared" si="1"/>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="24">
         <f>'Performance Data'!$D$2</f>
         <v>1.6338675399999999E-2</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <f>'Performance Data'!$D$3</f>
         <v>-5.5881302000000001E-2</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="6">
         <f>'Performance Data'!$D$4</f>
         <v>-8.6753371199999998E-2</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="6">
         <f>'Performance Data'!$D$5</f>
         <v>-0.14060580089999999</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="18">
         <f t="shared" si="2"/>
         <v>-6.6725449674999993E-2</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="7">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="21">
         <f>INDEX('Price Data'!$D$2:$D$265,COUNT('Price Data'!$D$2:$D$265))</f>
         <v>54.740001678466797</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="22">
         <f>'200D SMA'!$D$2</f>
         <v>59.593499927520703</v>
       </c>
-      <c r="O6" s="13" t="str">
+      <c r="O6" s="15" t="str">
         <f t="shared" si="4"/>
         <v>no</v>
       </c>
-      <c r="P6" s="12" t="str">
+      <c r="P6" s="14" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="2">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="31">
         <f t="shared" si="1"/>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="24">
         <f>'Performance Data'!$E$2</f>
         <v>4.6040693000000002E-3</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <f>'Performance Data'!$E$3</f>
         <v>-8.7411132000000002E-2</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <f>'Performance Data'!$E$4</f>
         <v>-0.1128277982</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="6">
         <f>'Performance Data'!$E$5</f>
         <v>-0.1858034999</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="18">
         <f t="shared" si="2"/>
         <v>-9.5359590199999997E-2</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="7">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="21">
         <f>INDEX('Price Data'!$E$2:$E$265,COUNT('Price Data'!$E$2:$E$265))</f>
         <v>43.639999389648402</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="22">
         <f>'200D SMA'!$E$2</f>
         <v>48.427849941253598</v>
       </c>
-      <c r="O7" s="13" t="str">
+      <c r="O7" s="15" t="str">
         <f t="shared" si="4"/>
         <v>no</v>
       </c>
-      <c r="P7" s="12" t="str">
+      <c r="P7" s="14" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="2">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="31">
         <f t="shared" si="1"/>
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="24">
         <f>'Performance Data'!$F$2</f>
         <v>1.07882464E-2</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="6">
         <f>'Performance Data'!$F$3</f>
         <v>-7.3283176199999994E-2</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="6">
         <f>'Performance Data'!$F$4</f>
         <v>-0.1172377345</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="6">
         <f>'Performance Data'!$F$5</f>
         <v>-0.12144138140000001</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="18">
         <f t="shared" si="2"/>
         <v>-7.5293511425000001E-2</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="7">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="21">
         <f>INDEX('Price Data'!$F$2:$F$265,COUNT('Price Data'!$F$2:$F$265))</f>
         <v>82.449996948242102</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="22">
         <f>'200D SMA'!$F$2</f>
         <v>90.086999969482406</v>
       </c>
-      <c r="O8" s="13" t="str">
+      <c r="O8" s="15" t="str">
         <f t="shared" si="4"/>
         <v>no</v>
       </c>
-      <c r="P8" s="12" t="str">
+      <c r="P8" s="14" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="2">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="31">
         <f t="shared" si="1"/>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="24">
         <f>'Performance Data'!$G$2</f>
         <v>-2.2091117899999999E-2</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="6">
         <f>'Performance Data'!$G$3</f>
         <v>-0.15696716499999999</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="6">
         <f>'Performance Data'!$G$4</f>
         <v>-0.2204965941</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="6">
         <f>'Performance Data'!$G$5</f>
         <v>-0.15218632709999999</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="18">
         <f t="shared" si="2"/>
         <v>-0.13793530102499998</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="7">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="21">
         <f>INDEX('Price Data'!$G$2:$G$265,COUNT('Price Data'!$G$2:$G$265))</f>
         <v>71.269996643066406</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="22">
         <f>'200D SMA'!$G$2</f>
         <v>84.335749969482407</v>
       </c>
-      <c r="O9" s="13" t="str">
+      <c r="O9" s="15" t="str">
         <f t="shared" si="4"/>
         <v>no</v>
       </c>
-      <c r="P9" s="12" t="str">
+      <c r="P9" s="14" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="2">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="31">
         <f t="shared" si="1"/>
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="24">
         <f>'Performance Data'!$H$2</f>
         <v>-7.4759207999999999E-3</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <f>'Performance Data'!$H$3</f>
         <v>-5.9996227200000002E-2</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="6">
         <f>'Performance Data'!$H$4</f>
         <v>-0.1184693139</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="6">
         <f>'Performance Data'!$H$5</f>
         <v>-0.11253249529999999</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="18">
         <f t="shared" si="2"/>
         <v>-7.4618489299999993E-2</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="7">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="21">
         <f>INDEX('Price Data'!$H$2:$H$265,COUNT('Price Data'!$H$2:$H$265))</f>
         <v>50.450000762939403</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="22">
         <f>'200D SMA'!$H$2</f>
         <v>54.796000022888101</v>
       </c>
-      <c r="O10" s="13" t="str">
+      <c r="O10" s="15" t="str">
         <f t="shared" si="4"/>
         <v>no</v>
       </c>
-      <c r="P10" s="12" t="str">
+      <c r="P10" s="14" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="31">
         <f t="shared" si="1"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="24">
         <f>'Performance Data'!$I$2</f>
         <v>5.3286059999999996E-3</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="6">
         <f>'Performance Data'!$I$3</f>
         <v>-1.2790695100000001E-2</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="6">
         <f>'Performance Data'!$I$4</f>
         <v>-2.2640067699999999E-2</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="6">
         <f>'Performance Data'!$I$5</f>
         <v>-1.8670778700000001E-2</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="18">
         <f t="shared" si="2"/>
         <v>-1.2193233875000001E-2</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="7">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="21">
         <f>INDEX('Price Data'!$I$2:$I$265,COUNT('Price Data'!$I$2:$I$265))</f>
         <v>50.939998626708899</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="22">
         <f>'200D SMA'!$I$2</f>
         <v>51.608049964904701</v>
       </c>
-      <c r="O11" s="13" t="str">
+      <c r="O11" s="15" t="str">
         <f t="shared" si="4"/>
         <v>no</v>
       </c>
-      <c r="P11" s="12" t="str">
+      <c r="P11" s="14" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="31">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="24">
         <f>'Performance Data'!$J$2</f>
         <v>4.6131439099999998E-2</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="6">
         <f>'Performance Data'!$J$3</f>
         <v>0.20653532569999999</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="6">
         <f>'Performance Data'!$J$4</f>
         <v>0.4784394206</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="6">
         <f>'Performance Data'!$J$5</f>
         <v>0.54838702399999995</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="18">
         <f t="shared" si="2"/>
         <v>0.31987330235</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="21">
         <f>INDEX('Price Data'!$J$2:$J$265,COUNT('Price Data'!$J$2:$J$265))</f>
         <v>28.799999237060501</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="22">
         <f>'200D SMA'!$J$2</f>
         <v>22.896499977111802</v>
       </c>
-      <c r="O12" s="13" t="str">
+      <c r="O12" s="15" t="str">
         <f t="shared" si="4"/>
         <v>yes</v>
       </c>
-      <c r="P12" s="12" t="str">
+      <c r="P12" s="14" t="str">
         <f t="shared" si="5"/>
         <v>buy</v>
       </c>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="31">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="24">
         <f>'Performance Data'!$K$2</f>
         <v>-3.2463983199999998E-2</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="6">
         <f>'Performance Data'!$K$3</f>
         <v>-3.9658562000000001E-2</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="6">
         <f>'Performance Data'!$K$4</f>
         <v>3.5332500500000003E-2</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="6">
         <f>'Performance Data'!$K$5</f>
         <v>-3.8334237600000001E-2</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="18">
         <f t="shared" si="2"/>
         <v>-1.8781070574999999E-2</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="21">
         <f>INDEX('Price Data'!$K$2:$K$265,COUNT('Price Data'!$K$2:$K$265))</f>
         <v>34.869998931884702</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="22">
         <f>'200D SMA'!$K$2</f>
         <v>34.975750102996798</v>
       </c>
-      <c r="O13" s="13" t="str">
+      <c r="O13" s="15" t="str">
         <f t="shared" si="4"/>
         <v>no</v>
       </c>
-      <c r="P13" s="12" t="str">
+      <c r="P13" s="14" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="2:16" ht="17" thickBot="1">
+      <c r="B14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="2">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="31">
         <f t="shared" si="1"/>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="25">
         <f>'Performance Data'!$L$2</f>
         <v>-4.6853979499999997E-2</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="19">
         <f>'Performance Data'!$L$3</f>
         <v>-3.3840464100000002E-2</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="19">
         <f>'Performance Data'!$L$4</f>
         <v>-7.1856832699999998E-2</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="19">
         <f>'Performance Data'!$L$5</f>
         <v>-1.0511603999999999E-3</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="20">
         <f t="shared" si="2"/>
         <v>-3.8400609174999996E-2</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="8">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="49">
         <f>INDEX('Price Data'!$L$2:$L$265,COUNT('Price Data'!$L$2:$L$265))</f>
         <v>99.069999694824205</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="23">
         <f>'200D SMA'!$L$2</f>
         <v>106.527500190734</v>
       </c>
-      <c r="O14" s="10" t="str">
+      <c r="O14" s="16" t="str">
         <f t="shared" si="4"/>
         <v>no</v>
       </c>
-      <c r="P14" s="12" t="str">
+      <c r="P14" s="17" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="2">
         <f>0.5-SUM(E4:E14)</f>
         <v>0.3</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="31">
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="2:16" ht="17" thickBot="1">
+      <c r="B16" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="7">
+      <c r="C16" s="33"/>
+      <c r="D16" s="34">
         <f>SUM(D4:D15)</f>
         <v>0.50000000000000011</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="34">
         <f>SUM(E4:E15)</f>
         <v>0.5</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="35">
         <f>SUM(F4:F15)</f>
         <v>1</v>
       </c>
@@ -2423,13 +2715,35 @@
     <mergeCell ref="J2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="L2 L4:L14">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="14" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P14">
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="15" stopIfTrue="1" operator="equal">
       <formula>"buy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M14">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
+      <formula>$N4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M14">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
+      <formula>$N4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:K14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
@@ -2446,7 +2760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L261"/>
   <sheetViews>
-    <sheetView topLeftCell="A227" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -2495,7 +2809,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="15">
+      <c r="A2" s="3">
         <v>44344</v>
       </c>
       <c r="B2">
@@ -2533,7 +2847,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="15">
+      <c r="A3" s="3">
         <v>44348</v>
       </c>
       <c r="B3">
@@ -2571,7 +2885,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="15">
+      <c r="A4" s="3">
         <v>44349</v>
       </c>
       <c r="B4">
@@ -2609,7 +2923,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="15">
+      <c r="A5" s="3">
         <v>44350</v>
       </c>
       <c r="B5">
@@ -2647,7 +2961,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="15">
+      <c r="A6" s="3">
         <v>44351</v>
       </c>
       <c r="B6">
@@ -2685,7 +2999,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="15">
+      <c r="A7" s="3">
         <v>44354</v>
       </c>
       <c r="B7">
@@ -2723,7 +3037,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="15">
+      <c r="A8" s="3">
         <v>44355</v>
       </c>
       <c r="B8">
@@ -2761,7 +3075,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="15">
+      <c r="A9" s="3">
         <v>44356</v>
       </c>
       <c r="B9">
@@ -2799,7 +3113,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="15">
+      <c r="A10" s="3">
         <v>44357</v>
       </c>
       <c r="B10">
@@ -2837,7 +3151,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="15">
+      <c r="A11" s="3">
         <v>44358</v>
       </c>
       <c r="B11">
@@ -2875,7 +3189,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="15">
+      <c r="A12" s="3">
         <v>44361</v>
       </c>
       <c r="B12">
@@ -2913,7 +3227,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="15">
+      <c r="A13" s="3">
         <v>44362</v>
       </c>
       <c r="B13">
@@ -2951,7 +3265,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="15">
+      <c r="A14" s="3">
         <v>44363</v>
       </c>
       <c r="B14">
@@ -2989,7 +3303,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="15">
+      <c r="A15" s="3">
         <v>44364</v>
       </c>
       <c r="B15">
@@ -3027,7 +3341,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="15">
+      <c r="A16" s="3">
         <v>44365</v>
       </c>
       <c r="B16">
@@ -3065,7 +3379,7 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="15">
+      <c r="A17" s="3">
         <v>44368</v>
       </c>
       <c r="B17">
@@ -3103,7 +3417,7 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="15">
+      <c r="A18" s="3">
         <v>44369</v>
       </c>
       <c r="B18">
@@ -3141,7 +3455,7 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="15">
+      <c r="A19" s="3">
         <v>44370</v>
       </c>
       <c r="B19">
@@ -3179,7 +3493,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="15">
+      <c r="A20" s="3">
         <v>44371</v>
       </c>
       <c r="B20">
@@ -3217,7 +3531,7 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="15">
+      <c r="A21" s="3">
         <v>44372</v>
       </c>
       <c r="B21">
@@ -3255,7 +3569,7 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="15">
+      <c r="A22" s="3">
         <v>44375</v>
       </c>
       <c r="B22">
@@ -3293,7 +3607,7 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="15">
+      <c r="A23" s="3">
         <v>44376</v>
       </c>
       <c r="B23">
@@ -3331,7 +3645,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="15">
+      <c r="A24" s="3">
         <v>44377</v>
       </c>
       <c r="B24">
@@ -3369,7 +3683,7 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="15">
+      <c r="A25" s="3">
         <v>44378</v>
       </c>
       <c r="B25">
@@ -3407,7 +3721,7 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="15">
+      <c r="A26" s="3">
         <v>44379</v>
       </c>
       <c r="B26">
@@ -3445,7 +3759,7 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="15">
+      <c r="A27" s="3">
         <v>44383</v>
       </c>
       <c r="B27">
@@ -3483,7 +3797,7 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="15">
+      <c r="A28" s="3">
         <v>44384</v>
       </c>
       <c r="B28">
@@ -3521,7 +3835,7 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="15">
+      <c r="A29" s="3">
         <v>44385</v>
       </c>
       <c r="B29">
@@ -3559,7 +3873,7 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="15">
+      <c r="A30" s="3">
         <v>44386</v>
       </c>
       <c r="B30">
@@ -3597,7 +3911,7 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="15">
+      <c r="A31" s="3">
         <v>44389</v>
       </c>
       <c r="B31">
@@ -3635,7 +3949,7 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="15">
+      <c r="A32" s="3">
         <v>44390</v>
       </c>
       <c r="B32">
@@ -3673,7 +3987,7 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="15">
+      <c r="A33" s="3">
         <v>44391</v>
       </c>
       <c r="B33">
@@ -3711,7 +4025,7 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="15">
+      <c r="A34" s="3">
         <v>44392</v>
       </c>
       <c r="B34">
@@ -3749,7 +4063,7 @@
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="15">
+      <c r="A35" s="3">
         <v>44393</v>
       </c>
       <c r="B35">
@@ -3787,7 +4101,7 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="15">
+      <c r="A36" s="3">
         <v>44396</v>
       </c>
       <c r="B36">
@@ -3825,7 +4139,7 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="15">
+      <c r="A37" s="3">
         <v>44397</v>
       </c>
       <c r="B37">
@@ -3863,7 +4177,7 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="15">
+      <c r="A38" s="3">
         <v>44398</v>
       </c>
       <c r="B38">
@@ -3901,7 +4215,7 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="15">
+      <c r="A39" s="3">
         <v>44399</v>
       </c>
       <c r="B39">
@@ -3939,7 +4253,7 @@
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="15">
+      <c r="A40" s="3">
         <v>44400</v>
       </c>
       <c r="B40">
@@ -3977,7 +4291,7 @@
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="15">
+      <c r="A41" s="3">
         <v>44403</v>
       </c>
       <c r="B41">
@@ -4015,7 +4329,7 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="15">
+      <c r="A42" s="3">
         <v>44404</v>
       </c>
       <c r="B42">
@@ -4053,7 +4367,7 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="15">
+      <c r="A43" s="3">
         <v>44405</v>
       </c>
       <c r="B43">
@@ -4091,7 +4405,7 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="15">
+      <c r="A44" s="3">
         <v>44406</v>
       </c>
       <c r="B44">
@@ -4129,7 +4443,7 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="15">
+      <c r="A45" s="3">
         <v>44407</v>
       </c>
       <c r="B45">
@@ -4167,7 +4481,7 @@
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="15">
+      <c r="A46" s="3">
         <v>44410</v>
       </c>
       <c r="B46">
@@ -4205,7 +4519,7 @@
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="15">
+      <c r="A47" s="3">
         <v>44411</v>
       </c>
       <c r="B47">
@@ -4243,7 +4557,7 @@
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="15">
+      <c r="A48" s="3">
         <v>44412</v>
       </c>
       <c r="B48">
@@ -4281,7 +4595,7 @@
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="15">
+      <c r="A49" s="3">
         <v>44413</v>
       </c>
       <c r="B49">
@@ -4319,7 +4633,7 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="15">
+      <c r="A50" s="3">
         <v>44414</v>
       </c>
       <c r="B50">
@@ -4357,7 +4671,7 @@
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="15">
+      <c r="A51" s="3">
         <v>44417</v>
       </c>
       <c r="B51">
@@ -4395,7 +4709,7 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="15">
+      <c r="A52" s="3">
         <v>44418</v>
       </c>
       <c r="B52">
@@ -4433,7 +4747,7 @@
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="15">
+      <c r="A53" s="3">
         <v>44419</v>
       </c>
       <c r="B53">
@@ -4471,7 +4785,7 @@
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="15">
+      <c r="A54" s="3">
         <v>44420</v>
       </c>
       <c r="B54">
@@ -4509,7 +4823,7 @@
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="15">
+      <c r="A55" s="3">
         <v>44421</v>
       </c>
       <c r="B55">
@@ -4547,7 +4861,7 @@
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="15">
+      <c r="A56" s="3">
         <v>44424</v>
       </c>
       <c r="B56">
@@ -4585,7 +4899,7 @@
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="15">
+      <c r="A57" s="3">
         <v>44425</v>
       </c>
       <c r="B57">
@@ -4623,7 +4937,7 @@
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="15">
+      <c r="A58" s="3">
         <v>44426</v>
       </c>
       <c r="B58">
@@ -4661,7 +4975,7 @@
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="15">
+      <c r="A59" s="3">
         <v>44427</v>
       </c>
       <c r="B59">
@@ -4699,7 +5013,7 @@
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="15">
+      <c r="A60" s="3">
         <v>44428</v>
       </c>
       <c r="B60">
@@ -4737,7 +5051,7 @@
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="15">
+      <c r="A61" s="3">
         <v>44431</v>
       </c>
       <c r="B61">
@@ -4775,7 +5089,7 @@
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="15">
+      <c r="A62" s="3">
         <v>44432</v>
       </c>
       <c r="B62">
@@ -4813,7 +5127,7 @@
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="15">
+      <c r="A63" s="3">
         <v>44433</v>
       </c>
       <c r="B63">
@@ -4851,7 +5165,7 @@
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="15">
+      <c r="A64" s="3">
         <v>44434</v>
       </c>
       <c r="B64">
@@ -4889,7 +5203,7 @@
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="15">
+      <c r="A65" s="3">
         <v>44435</v>
       </c>
       <c r="B65">
@@ -4927,7 +5241,7 @@
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="15">
+      <c r="A66" s="3">
         <v>44438</v>
       </c>
       <c r="B66">
@@ -4965,7 +5279,7 @@
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="15">
+      <c r="A67" s="3">
         <v>44439</v>
       </c>
       <c r="B67">
@@ -5003,7 +5317,7 @@
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="15">
+      <c r="A68" s="3">
         <v>44440</v>
       </c>
       <c r="B68">
@@ -5041,7 +5355,7 @@
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="15">
+      <c r="A69" s="3">
         <v>44441</v>
       </c>
       <c r="B69">
@@ -5079,7 +5393,7 @@
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="15">
+      <c r="A70" s="3">
         <v>44442</v>
       </c>
       <c r="B70">
@@ -5117,7 +5431,7 @@
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="15">
+      <c r="A71" s="3">
         <v>44446</v>
       </c>
       <c r="B71">
@@ -5155,7 +5469,7 @@
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="15">
+      <c r="A72" s="3">
         <v>44447</v>
       </c>
       <c r="B72">
@@ -5193,7 +5507,7 @@
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="15">
+      <c r="A73" s="3">
         <v>44448</v>
       </c>
       <c r="B73">
@@ -5231,7 +5545,7 @@
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="15">
+      <c r="A74" s="3">
         <v>44449</v>
       </c>
       <c r="B74">
@@ -5269,7 +5583,7 @@
       </c>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="15">
+      <c r="A75" s="3">
         <v>44452</v>
       </c>
       <c r="B75">
@@ -5307,7 +5621,7 @@
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="15">
+      <c r="A76" s="3">
         <v>44453</v>
       </c>
       <c r="B76">
@@ -5345,7 +5659,7 @@
       </c>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="15">
+      <c r="A77" s="3">
         <v>44454</v>
       </c>
       <c r="B77">
@@ -5383,7 +5697,7 @@
       </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="15">
+      <c r="A78" s="3">
         <v>44455</v>
       </c>
       <c r="B78">
@@ -5421,7 +5735,7 @@
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="15">
+      <c r="A79" s="3">
         <v>44456</v>
       </c>
       <c r="B79">
@@ -5459,7 +5773,7 @@
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="15">
+      <c r="A80" s="3">
         <v>44459</v>
       </c>
       <c r="B80">
@@ -5497,7 +5811,7 @@
       </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="15">
+      <c r="A81" s="3">
         <v>44460</v>
       </c>
       <c r="B81">
@@ -5535,7 +5849,7 @@
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="15">
+      <c r="A82" s="3">
         <v>44461</v>
       </c>
       <c r="B82">
@@ -5573,7 +5887,7 @@
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="15">
+      <c r="A83" s="3">
         <v>44462</v>
       </c>
       <c r="B83">
@@ -5611,7 +5925,7 @@
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="15">
+      <c r="A84" s="3">
         <v>44463</v>
       </c>
       <c r="B84">
@@ -5649,7 +5963,7 @@
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="15">
+      <c r="A85" s="3">
         <v>44466</v>
       </c>
       <c r="B85">
@@ -5687,7 +6001,7 @@
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="15">
+      <c r="A86" s="3">
         <v>44467</v>
       </c>
       <c r="B86">
@@ -5725,7 +6039,7 @@
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="15">
+      <c r="A87" s="3">
         <v>44468</v>
       </c>
       <c r="B87">
@@ -5763,7 +6077,7 @@
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="15">
+      <c r="A88" s="3">
         <v>44469</v>
       </c>
       <c r="B88">
@@ -5801,7 +6115,7 @@
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="15">
+      <c r="A89" s="3">
         <v>44470</v>
       </c>
       <c r="B89">
@@ -5839,7 +6153,7 @@
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="15">
+      <c r="A90" s="3">
         <v>44473</v>
       </c>
       <c r="B90">
@@ -5877,7 +6191,7 @@
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="15">
+      <c r="A91" s="3">
         <v>44474</v>
       </c>
       <c r="B91">
@@ -5915,7 +6229,7 @@
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="15">
+      <c r="A92" s="3">
         <v>44475</v>
       </c>
       <c r="B92">
@@ -5953,7 +6267,7 @@
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="15">
+      <c r="A93" s="3">
         <v>44476</v>
       </c>
       <c r="B93">
@@ -5991,7 +6305,7 @@
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="15">
+      <c r="A94" s="3">
         <v>44477</v>
       </c>
       <c r="B94">
@@ -6029,7 +6343,7 @@
       </c>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="15">
+      <c r="A95" s="3">
         <v>44480</v>
       </c>
       <c r="B95">
@@ -6067,7 +6381,7 @@
       </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="15">
+      <c r="A96" s="3">
         <v>44481</v>
       </c>
       <c r="B96">
@@ -6105,7 +6419,7 @@
       </c>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="15">
+      <c r="A97" s="3">
         <v>44482</v>
       </c>
       <c r="B97">
@@ -6143,7 +6457,7 @@
       </c>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="15">
+      <c r="A98" s="3">
         <v>44483</v>
       </c>
       <c r="B98">
@@ -6181,7 +6495,7 @@
       </c>
     </row>
     <row r="99" spans="1:12">
-      <c r="A99" s="15">
+      <c r="A99" s="3">
         <v>44484</v>
       </c>
       <c r="B99">
@@ -6219,7 +6533,7 @@
       </c>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="15">
+      <c r="A100" s="3">
         <v>44487</v>
       </c>
       <c r="B100">
@@ -6257,7 +6571,7 @@
       </c>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101" s="15">
+      <c r="A101" s="3">
         <v>44488</v>
       </c>
       <c r="B101">
@@ -6295,7 +6609,7 @@
       </c>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="15">
+      <c r="A102" s="3">
         <v>44489</v>
       </c>
       <c r="B102">
@@ -6333,7 +6647,7 @@
       </c>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="15">
+      <c r="A103" s="3">
         <v>44490</v>
       </c>
       <c r="B103">
@@ -6371,7 +6685,7 @@
       </c>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="15">
+      <c r="A104" s="3">
         <v>44491</v>
       </c>
       <c r="B104">
@@ -6409,7 +6723,7 @@
       </c>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="15">
+      <c r="A105" s="3">
         <v>44494</v>
       </c>
       <c r="B105">
@@ -6447,7 +6761,7 @@
       </c>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="15">
+      <c r="A106" s="3">
         <v>44495</v>
       </c>
       <c r="B106">
@@ -6485,7 +6799,7 @@
       </c>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="15">
+      <c r="A107" s="3">
         <v>44496</v>
       </c>
       <c r="B107">
@@ -6523,7 +6837,7 @@
       </c>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="15">
+      <c r="A108" s="3">
         <v>44497</v>
       </c>
       <c r="B108">
@@ -6561,7 +6875,7 @@
       </c>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="15">
+      <c r="A109" s="3">
         <v>44498</v>
       </c>
       <c r="B109">
@@ -6599,7 +6913,7 @@
       </c>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="15">
+      <c r="A110" s="3">
         <v>44501</v>
       </c>
       <c r="B110">
@@ -6637,7 +6951,7 @@
       </c>
     </row>
     <row r="111" spans="1:12">
-      <c r="A111" s="15">
+      <c r="A111" s="3">
         <v>44502</v>
       </c>
       <c r="B111">
@@ -6675,7 +6989,7 @@
       </c>
     </row>
     <row r="112" spans="1:12">
-      <c r="A112" s="15">
+      <c r="A112" s="3">
         <v>44503</v>
       </c>
       <c r="B112">
@@ -6713,7 +7027,7 @@
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="15">
+      <c r="A113" s="3">
         <v>44504</v>
       </c>
       <c r="B113">
@@ -6751,7 +7065,7 @@
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="15">
+      <c r="A114" s="3">
         <v>44505</v>
       </c>
       <c r="B114">
@@ -6789,7 +7103,7 @@
       </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="A115" s="15">
+      <c r="A115" s="3">
         <v>44508</v>
       </c>
       <c r="B115">
@@ -6827,7 +7141,7 @@
       </c>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="15">
+      <c r="A116" s="3">
         <v>44509</v>
       </c>
       <c r="B116">
@@ -6865,7 +7179,7 @@
       </c>
     </row>
     <row r="117" spans="1:12">
-      <c r="A117" s="15">
+      <c r="A117" s="3">
         <v>44510</v>
       </c>
       <c r="B117">
@@ -6903,7 +7217,7 @@
       </c>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="15">
+      <c r="A118" s="3">
         <v>44511</v>
       </c>
       <c r="B118">
@@ -6941,7 +7255,7 @@
       </c>
     </row>
     <row r="119" spans="1:12">
-      <c r="A119" s="15">
+      <c r="A119" s="3">
         <v>44512</v>
       </c>
       <c r="B119">
@@ -6979,7 +7293,7 @@
       </c>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="15">
+      <c r="A120" s="3">
         <v>44515</v>
       </c>
       <c r="B120">
@@ -7017,7 +7331,7 @@
       </c>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="15">
+      <c r="A121" s="3">
         <v>44516</v>
       </c>
       <c r="B121">
@@ -7055,7 +7369,7 @@
       </c>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="15">
+      <c r="A122" s="3">
         <v>44517</v>
       </c>
       <c r="B122">
@@ -7093,7 +7407,7 @@
       </c>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="15">
+      <c r="A123" s="3">
         <v>44518</v>
       </c>
       <c r="B123">
@@ -7131,7 +7445,7 @@
       </c>
     </row>
     <row r="124" spans="1:12">
-      <c r="A124" s="15">
+      <c r="A124" s="3">
         <v>44519</v>
       </c>
       <c r="B124">
@@ -7169,7 +7483,7 @@
       </c>
     </row>
     <row r="125" spans="1:12">
-      <c r="A125" s="15">
+      <c r="A125" s="3">
         <v>44522</v>
       </c>
       <c r="B125">
@@ -7207,7 +7521,7 @@
       </c>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="15">
+      <c r="A126" s="3">
         <v>44523</v>
       </c>
       <c r="B126">
@@ -7245,7 +7559,7 @@
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="A127" s="15">
+      <c r="A127" s="3">
         <v>44524</v>
       </c>
       <c r="B127">
@@ -7283,7 +7597,7 @@
       </c>
     </row>
     <row r="128" spans="1:12">
-      <c r="A128" s="15">
+      <c r="A128" s="3">
         <v>44526</v>
       </c>
       <c r="B128">
@@ -7321,7 +7635,7 @@
       </c>
     </row>
     <row r="129" spans="1:12">
-      <c r="A129" s="15">
+      <c r="A129" s="3">
         <v>44529</v>
       </c>
       <c r="B129">
@@ -7359,7 +7673,7 @@
       </c>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="15">
+      <c r="A130" s="3">
         <v>44530</v>
       </c>
       <c r="B130">
@@ -7397,7 +7711,7 @@
       </c>
     </row>
     <row r="131" spans="1:12">
-      <c r="A131" s="15">
+      <c r="A131" s="3">
         <v>44531</v>
       </c>
       <c r="B131">
@@ -7435,7 +7749,7 @@
       </c>
     </row>
     <row r="132" spans="1:12">
-      <c r="A132" s="15">
+      <c r="A132" s="3">
         <v>44532</v>
       </c>
       <c r="B132">
@@ -7473,7 +7787,7 @@
       </c>
     </row>
     <row r="133" spans="1:12">
-      <c r="A133" s="15">
+      <c r="A133" s="3">
         <v>44533</v>
       </c>
       <c r="B133">
@@ -7511,7 +7825,7 @@
       </c>
     </row>
     <row r="134" spans="1:12">
-      <c r="A134" s="15">
+      <c r="A134" s="3">
         <v>44536</v>
       </c>
       <c r="B134">
@@ -7549,7 +7863,7 @@
       </c>
     </row>
     <row r="135" spans="1:12">
-      <c r="A135" s="15">
+      <c r="A135" s="3">
         <v>44537</v>
       </c>
       <c r="B135">
@@ -7587,7 +7901,7 @@
       </c>
     </row>
     <row r="136" spans="1:12">
-      <c r="A136" s="15">
+      <c r="A136" s="3">
         <v>44538</v>
       </c>
       <c r="B136">
@@ -7625,7 +7939,7 @@
       </c>
     </row>
     <row r="137" spans="1:12">
-      <c r="A137" s="15">
+      <c r="A137" s="3">
         <v>44539</v>
       </c>
       <c r="B137">
@@ -7663,7 +7977,7 @@
       </c>
     </row>
     <row r="138" spans="1:12">
-      <c r="A138" s="15">
+      <c r="A138" s="3">
         <v>44540</v>
       </c>
       <c r="B138">
@@ -7701,7 +8015,7 @@
       </c>
     </row>
     <row r="139" spans="1:12">
-      <c r="A139" s="15">
+      <c r="A139" s="3">
         <v>44543</v>
       </c>
       <c r="B139">
@@ -7739,7 +8053,7 @@
       </c>
     </row>
     <row r="140" spans="1:12">
-      <c r="A140" s="15">
+      <c r="A140" s="3">
         <v>44544</v>
       </c>
       <c r="B140">
@@ -7777,7 +8091,7 @@
       </c>
     </row>
     <row r="141" spans="1:12">
-      <c r="A141" s="15">
+      <c r="A141" s="3">
         <v>44545</v>
       </c>
       <c r="B141">
@@ -7815,7 +8129,7 @@
       </c>
     </row>
     <row r="142" spans="1:12">
-      <c r="A142" s="15">
+      <c r="A142" s="3">
         <v>44546</v>
       </c>
       <c r="B142">
@@ -7853,7 +8167,7 @@
       </c>
     </row>
     <row r="143" spans="1:12">
-      <c r="A143" s="15">
+      <c r="A143" s="3">
         <v>44547</v>
       </c>
       <c r="B143">
@@ -7891,7 +8205,7 @@
       </c>
     </row>
     <row r="144" spans="1:12">
-      <c r="A144" s="15">
+      <c r="A144" s="3">
         <v>44550</v>
       </c>
       <c r="B144">
@@ -7929,7 +8243,7 @@
       </c>
     </row>
     <row r="145" spans="1:12">
-      <c r="A145" s="15">
+      <c r="A145" s="3">
         <v>44551</v>
       </c>
       <c r="B145">
@@ -7967,7 +8281,7 @@
       </c>
     </row>
     <row r="146" spans="1:12">
-      <c r="A146" s="15">
+      <c r="A146" s="3">
         <v>44552</v>
       </c>
       <c r="B146">
@@ -8005,7 +8319,7 @@
       </c>
     </row>
     <row r="147" spans="1:12">
-      <c r="A147" s="15">
+      <c r="A147" s="3">
         <v>44553</v>
       </c>
       <c r="B147">
@@ -8043,7 +8357,7 @@
       </c>
     </row>
     <row r="148" spans="1:12">
-      <c r="A148" s="15">
+      <c r="A148" s="3">
         <v>44557</v>
       </c>
       <c r="B148">
@@ -8081,7 +8395,7 @@
       </c>
     </row>
     <row r="149" spans="1:12">
-      <c r="A149" s="15">
+      <c r="A149" s="3">
         <v>44558</v>
       </c>
       <c r="B149">
@@ -8119,7 +8433,7 @@
       </c>
     </row>
     <row r="150" spans="1:12">
-      <c r="A150" s="15">
+      <c r="A150" s="3">
         <v>44559</v>
       </c>
       <c r="B150">
@@ -8157,7 +8471,7 @@
       </c>
     </row>
     <row r="151" spans="1:12">
-      <c r="A151" s="15">
+      <c r="A151" s="3">
         <v>44560</v>
       </c>
       <c r="B151">
@@ -8195,7 +8509,7 @@
       </c>
     </row>
     <row r="152" spans="1:12">
-      <c r="A152" s="15">
+      <c r="A152" s="3">
         <v>44561</v>
       </c>
       <c r="B152">
@@ -8233,7 +8547,7 @@
       </c>
     </row>
     <row r="153" spans="1:12">
-      <c r="A153" s="15">
+      <c r="A153" s="3">
         <v>44564</v>
       </c>
       <c r="B153">
@@ -8271,7 +8585,7 @@
       </c>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="15">
+      <c r="A154" s="3">
         <v>44565</v>
       </c>
       <c r="B154">
@@ -8309,7 +8623,7 @@
       </c>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="15">
+      <c r="A155" s="3">
         <v>44566</v>
       </c>
       <c r="B155">
@@ -8347,7 +8661,7 @@
       </c>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="15">
+      <c r="A156" s="3">
         <v>44567</v>
       </c>
       <c r="B156">
@@ -8385,7 +8699,7 @@
       </c>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="15">
+      <c r="A157" s="3">
         <v>44568</v>
       </c>
       <c r="B157">
@@ -8423,7 +8737,7 @@
       </c>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="15">
+      <c r="A158" s="3">
         <v>44571</v>
       </c>
       <c r="B158">
@@ -8461,7 +8775,7 @@
       </c>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="15">
+      <c r="A159" s="3">
         <v>44572</v>
       </c>
       <c r="B159">
@@ -8499,7 +8813,7 @@
       </c>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="15">
+      <c r="A160" s="3">
         <v>44573</v>
       </c>
       <c r="B160">
@@ -8537,7 +8851,7 @@
       </c>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="15">
+      <c r="A161" s="3">
         <v>44574</v>
       </c>
       <c r="B161">
@@ -8575,7 +8889,7 @@
       </c>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="15">
+      <c r="A162" s="3">
         <v>44575</v>
       </c>
       <c r="B162">
@@ -8613,7 +8927,7 @@
       </c>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="15">
+      <c r="A163" s="3">
         <v>44579</v>
       </c>
       <c r="B163">
@@ -8651,7 +8965,7 @@
       </c>
     </row>
     <row r="164" spans="1:12">
-      <c r="A164" s="15">
+      <c r="A164" s="3">
         <v>44580</v>
       </c>
       <c r="B164">
@@ -8689,7 +9003,7 @@
       </c>
     </row>
     <row r="165" spans="1:12">
-      <c r="A165" s="15">
+      <c r="A165" s="3">
         <v>44581</v>
       </c>
       <c r="B165">
@@ -8727,7 +9041,7 @@
       </c>
     </row>
     <row r="166" spans="1:12">
-      <c r="A166" s="15">
+      <c r="A166" s="3">
         <v>44582</v>
       </c>
       <c r="B166">
@@ -8765,7 +9079,7 @@
       </c>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="15">
+      <c r="A167" s="3">
         <v>44585</v>
       </c>
       <c r="B167">
@@ -8803,7 +9117,7 @@
       </c>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="15">
+      <c r="A168" s="3">
         <v>44586</v>
       </c>
       <c r="B168">
@@ -8841,7 +9155,7 @@
       </c>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="15">
+      <c r="A169" s="3">
         <v>44587</v>
       </c>
       <c r="B169">
@@ -8879,7 +9193,7 @@
       </c>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="15">
+      <c r="A170" s="3">
         <v>44588</v>
       </c>
       <c r="B170">
@@ -8917,7 +9231,7 @@
       </c>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="15">
+      <c r="A171" s="3">
         <v>44589</v>
       </c>
       <c r="B171">
@@ -8955,7 +9269,7 @@
       </c>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="15">
+      <c r="A172" s="3">
         <v>44592</v>
       </c>
       <c r="B172">
@@ -8993,7 +9307,7 @@
       </c>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="15">
+      <c r="A173" s="3">
         <v>44593</v>
       </c>
       <c r="B173">
@@ -9031,7 +9345,7 @@
       </c>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="15">
+      <c r="A174" s="3">
         <v>44594</v>
       </c>
       <c r="B174">
@@ -9069,7 +9383,7 @@
       </c>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="15">
+      <c r="A175" s="3">
         <v>44595</v>
       </c>
       <c r="B175">
@@ -9107,7 +9421,7 @@
       </c>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="15">
+      <c r="A176" s="3">
         <v>44596</v>
       </c>
       <c r="B176">
@@ -9145,7 +9459,7 @@
       </c>
     </row>
     <row r="177" spans="1:12">
-      <c r="A177" s="15">
+      <c r="A177" s="3">
         <v>44599</v>
       </c>
       <c r="B177">
@@ -9183,7 +9497,7 @@
       </c>
     </row>
     <row r="178" spans="1:12">
-      <c r="A178" s="15">
+      <c r="A178" s="3">
         <v>44600</v>
       </c>
       <c r="B178">
@@ -9221,7 +9535,7 @@
       </c>
     </row>
     <row r="179" spans="1:12">
-      <c r="A179" s="15">
+      <c r="A179" s="3">
         <v>44601</v>
       </c>
       <c r="B179">
@@ -9259,7 +9573,7 @@
       </c>
     </row>
     <row r="180" spans="1:12">
-      <c r="A180" s="15">
+      <c r="A180" s="3">
         <v>44602</v>
       </c>
       <c r="B180">
@@ -9297,7 +9611,7 @@
       </c>
     </row>
     <row r="181" spans="1:12">
-      <c r="A181" s="15">
+      <c r="A181" s="3">
         <v>44603</v>
       </c>
       <c r="B181">
@@ -9335,7 +9649,7 @@
       </c>
     </row>
     <row r="182" spans="1:12">
-      <c r="A182" s="15">
+      <c r="A182" s="3">
         <v>44606</v>
       </c>
       <c r="B182">
@@ -9373,7 +9687,7 @@
       </c>
     </row>
     <row r="183" spans="1:12">
-      <c r="A183" s="15">
+      <c r="A183" s="3">
         <v>44607</v>
       </c>
       <c r="B183">
@@ -9411,7 +9725,7 @@
       </c>
     </row>
     <row r="184" spans="1:12">
-      <c r="A184" s="15">
+      <c r="A184" s="3">
         <v>44608</v>
       </c>
       <c r="B184">
@@ -9449,7 +9763,7 @@
       </c>
     </row>
     <row r="185" spans="1:12">
-      <c r="A185" s="15">
+      <c r="A185" s="3">
         <v>44609</v>
       </c>
       <c r="B185">
@@ -9487,7 +9801,7 @@
       </c>
     </row>
     <row r="186" spans="1:12">
-      <c r="A186" s="15">
+      <c r="A186" s="3">
         <v>44610</v>
       </c>
       <c r="B186">
@@ -9525,7 +9839,7 @@
       </c>
     </row>
     <row r="187" spans="1:12">
-      <c r="A187" s="15">
+      <c r="A187" s="3">
         <v>44614</v>
       </c>
       <c r="B187">
@@ -9563,7 +9877,7 @@
       </c>
     </row>
     <row r="188" spans="1:12">
-      <c r="A188" s="15">
+      <c r="A188" s="3">
         <v>44615</v>
       </c>
       <c r="B188">
@@ -9601,7 +9915,7 @@
       </c>
     </row>
     <row r="189" spans="1:12">
-      <c r="A189" s="15">
+      <c r="A189" s="3">
         <v>44616</v>
       </c>
       <c r="B189">
@@ -9639,7 +9953,7 @@
       </c>
     </row>
     <row r="190" spans="1:12">
-      <c r="A190" s="15">
+      <c r="A190" s="3">
         <v>44617</v>
       </c>
       <c r="B190">
@@ -9677,7 +9991,7 @@
       </c>
     </row>
     <row r="191" spans="1:12">
-      <c r="A191" s="15">
+      <c r="A191" s="3">
         <v>44620</v>
       </c>
       <c r="B191">
@@ -9715,7 +10029,7 @@
       </c>
     </row>
     <row r="192" spans="1:12">
-      <c r="A192" s="15">
+      <c r="A192" s="3">
         <v>44621</v>
       </c>
       <c r="B192">
@@ -9753,7 +10067,7 @@
       </c>
     </row>
     <row r="193" spans="1:12">
-      <c r="A193" s="15">
+      <c r="A193" s="3">
         <v>44622</v>
       </c>
       <c r="B193">
@@ -9791,7 +10105,7 @@
       </c>
     </row>
     <row r="194" spans="1:12">
-      <c r="A194" s="15">
+      <c r="A194" s="3">
         <v>44623</v>
       </c>
       <c r="B194">
@@ -9829,7 +10143,7 @@
       </c>
     </row>
     <row r="195" spans="1:12">
-      <c r="A195" s="15">
+      <c r="A195" s="3">
         <v>44624</v>
       </c>
       <c r="B195">
@@ -9867,7 +10181,7 @@
       </c>
     </row>
     <row r="196" spans="1:12">
-      <c r="A196" s="15">
+      <c r="A196" s="3">
         <v>44627</v>
       </c>
       <c r="B196">
@@ -9905,7 +10219,7 @@
       </c>
     </row>
     <row r="197" spans="1:12">
-      <c r="A197" s="15">
+      <c r="A197" s="3">
         <v>44628</v>
       </c>
       <c r="B197">
@@ -9943,7 +10257,7 @@
       </c>
     </row>
     <row r="198" spans="1:12">
-      <c r="A198" s="15">
+      <c r="A198" s="3">
         <v>44629</v>
       </c>
       <c r="B198">
@@ -9981,7 +10295,7 @@
       </c>
     </row>
     <row r="199" spans="1:12">
-      <c r="A199" s="15">
+      <c r="A199" s="3">
         <v>44630</v>
       </c>
       <c r="B199">
@@ -10019,7 +10333,7 @@
       </c>
     </row>
     <row r="200" spans="1:12">
-      <c r="A200" s="15">
+      <c r="A200" s="3">
         <v>44631</v>
       </c>
       <c r="B200">
@@ -10057,7 +10371,7 @@
       </c>
     </row>
     <row r="201" spans="1:12">
-      <c r="A201" s="15">
+      <c r="A201" s="3">
         <v>44634</v>
       </c>
       <c r="B201">
@@ -10095,7 +10409,7 @@
       </c>
     </row>
     <row r="202" spans="1:12">
-      <c r="A202" s="15">
+      <c r="A202" s="3">
         <v>44635</v>
       </c>
       <c r="B202">
@@ -10133,7 +10447,7 @@
       </c>
     </row>
     <row r="203" spans="1:12">
-      <c r="A203" s="15">
+      <c r="A203" s="3">
         <v>44636</v>
       </c>
       <c r="B203">
@@ -10171,7 +10485,7 @@
       </c>
     </row>
     <row r="204" spans="1:12">
-      <c r="A204" s="15">
+      <c r="A204" s="3">
         <v>44637</v>
       </c>
       <c r="B204">
@@ -10209,7 +10523,7 @@
       </c>
     </row>
     <row r="205" spans="1:12">
-      <c r="A205" s="15">
+      <c r="A205" s="3">
         <v>44638</v>
       </c>
       <c r="B205">
@@ -10247,7 +10561,7 @@
       </c>
     </row>
     <row r="206" spans="1:12">
-      <c r="A206" s="15">
+      <c r="A206" s="3">
         <v>44641</v>
       </c>
       <c r="B206">
@@ -10285,7 +10599,7 @@
       </c>
     </row>
     <row r="207" spans="1:12">
-      <c r="A207" s="15">
+      <c r="A207" s="3">
         <v>44642</v>
       </c>
       <c r="B207">
@@ -10323,7 +10637,7 @@
       </c>
     </row>
     <row r="208" spans="1:12">
-      <c r="A208" s="15">
+      <c r="A208" s="3">
         <v>44643</v>
       </c>
       <c r="B208">
@@ -10361,7 +10675,7 @@
       </c>
     </row>
     <row r="209" spans="1:12">
-      <c r="A209" s="15">
+      <c r="A209" s="3">
         <v>44644</v>
       </c>
       <c r="B209">
@@ -10399,7 +10713,7 @@
       </c>
     </row>
     <row r="210" spans="1:12">
-      <c r="A210" s="15">
+      <c r="A210" s="3">
         <v>44645</v>
       </c>
       <c r="B210">
@@ -10437,7 +10751,7 @@
       </c>
     </row>
     <row r="211" spans="1:12">
-      <c r="A211" s="15">
+      <c r="A211" s="3">
         <v>44648</v>
       </c>
       <c r="B211">
@@ -10475,7 +10789,7 @@
       </c>
     </row>
     <row r="212" spans="1:12">
-      <c r="A212" s="15">
+      <c r="A212" s="3">
         <v>44649</v>
       </c>
       <c r="B212">
@@ -10513,7 +10827,7 @@
       </c>
     </row>
     <row r="213" spans="1:12">
-      <c r="A213" s="15">
+      <c r="A213" s="3">
         <v>44650</v>
       </c>
       <c r="B213">
@@ -10551,7 +10865,7 @@
       </c>
     </row>
     <row r="214" spans="1:12">
-      <c r="A214" s="15">
+      <c r="A214" s="3">
         <v>44651</v>
       </c>
       <c r="B214">
@@ -10589,7 +10903,7 @@
       </c>
     </row>
     <row r="215" spans="1:12">
-      <c r="A215" s="15">
+      <c r="A215" s="3">
         <v>44652</v>
       </c>
       <c r="B215">
@@ -10627,7 +10941,7 @@
       </c>
     </row>
     <row r="216" spans="1:12">
-      <c r="A216" s="15">
+      <c r="A216" s="3">
         <v>44655</v>
       </c>
       <c r="B216">
@@ -10665,7 +10979,7 @@
       </c>
     </row>
     <row r="217" spans="1:12">
-      <c r="A217" s="15">
+      <c r="A217" s="3">
         <v>44656</v>
       </c>
       <c r="B217">
@@ -10703,7 +11017,7 @@
       </c>
     </row>
     <row r="218" spans="1:12">
-      <c r="A218" s="15">
+      <c r="A218" s="3">
         <v>44657</v>
       </c>
       <c r="B218">
@@ -10741,7 +11055,7 @@
       </c>
     </row>
     <row r="219" spans="1:12">
-      <c r="A219" s="15">
+      <c r="A219" s="3">
         <v>44658</v>
       </c>
       <c r="B219">
@@ -10779,7 +11093,7 @@
       </c>
     </row>
     <row r="220" spans="1:12">
-      <c r="A220" s="15">
+      <c r="A220" s="3">
         <v>44659</v>
       </c>
       <c r="B220">
@@ -10817,7 +11131,7 @@
       </c>
     </row>
     <row r="221" spans="1:12">
-      <c r="A221" s="15">
+      <c r="A221" s="3">
         <v>44662</v>
       </c>
       <c r="B221">
@@ -10855,7 +11169,7 @@
       </c>
     </row>
     <row r="222" spans="1:12">
-      <c r="A222" s="15">
+      <c r="A222" s="3">
         <v>44663</v>
       </c>
       <c r="B222">
@@ -10893,7 +11207,7 @@
       </c>
     </row>
     <row r="223" spans="1:12">
-      <c r="A223" s="15">
+      <c r="A223" s="3">
         <v>44664</v>
       </c>
       <c r="B223">
@@ -10931,7 +11245,7 @@
       </c>
     </row>
     <row r="224" spans="1:12">
-      <c r="A224" s="15">
+      <c r="A224" s="3">
         <v>44665</v>
       </c>
       <c r="B224">
@@ -10969,7 +11283,7 @@
       </c>
     </row>
     <row r="225" spans="1:12">
-      <c r="A225" s="15">
+      <c r="A225" s="3">
         <v>44669</v>
       </c>
       <c r="B225">
@@ -11007,7 +11321,7 @@
       </c>
     </row>
     <row r="226" spans="1:12">
-      <c r="A226" s="15">
+      <c r="A226" s="3">
         <v>44670</v>
       </c>
       <c r="B226">
@@ -11045,7 +11359,7 @@
       </c>
     </row>
     <row r="227" spans="1:12">
-      <c r="A227" s="15">
+      <c r="A227" s="3">
         <v>44671</v>
       </c>
       <c r="B227">
@@ -11083,7 +11397,7 @@
       </c>
     </row>
     <row r="228" spans="1:12">
-      <c r="A228" s="15">
+      <c r="A228" s="3">
         <v>44672</v>
       </c>
       <c r="B228">
@@ -11121,7 +11435,7 @@
       </c>
     </row>
     <row r="229" spans="1:12">
-      <c r="A229" s="15">
+      <c r="A229" s="3">
         <v>44673</v>
       </c>
       <c r="B229">
@@ -11159,7 +11473,7 @@
       </c>
     </row>
     <row r="230" spans="1:12">
-      <c r="A230" s="15">
+      <c r="A230" s="3">
         <v>44676</v>
       </c>
       <c r="B230">
@@ -11197,7 +11511,7 @@
       </c>
     </row>
     <row r="231" spans="1:12">
-      <c r="A231" s="15">
+      <c r="A231" s="3">
         <v>44677</v>
       </c>
       <c r="B231">
@@ -11235,7 +11549,7 @@
       </c>
     </row>
     <row r="232" spans="1:12">
-      <c r="A232" s="15">
+      <c r="A232" s="3">
         <v>44678</v>
       </c>
       <c r="B232">
@@ -11273,7 +11587,7 @@
       </c>
     </row>
     <row r="233" spans="1:12">
-      <c r="A233" s="15">
+      <c r="A233" s="3">
         <v>44679</v>
       </c>
       <c r="B233">
@@ -11311,7 +11625,7 @@
       </c>
     </row>
     <row r="234" spans="1:12">
-      <c r="A234" s="15">
+      <c r="A234" s="3">
         <v>44680</v>
       </c>
       <c r="B234">
@@ -11349,7 +11663,7 @@
       </c>
     </row>
     <row r="235" spans="1:12">
-      <c r="A235" s="15">
+      <c r="A235" s="3">
         <v>44683</v>
       </c>
       <c r="B235">
@@ -11387,7 +11701,7 @@
       </c>
     </row>
     <row r="236" spans="1:12">
-      <c r="A236" s="15">
+      <c r="A236" s="3">
         <v>44684</v>
       </c>
       <c r="B236">
@@ -11425,7 +11739,7 @@
       </c>
     </row>
     <row r="237" spans="1:12">
-      <c r="A237" s="15">
+      <c r="A237" s="3">
         <v>44685</v>
       </c>
       <c r="B237">
@@ -11463,7 +11777,7 @@
       </c>
     </row>
     <row r="238" spans="1:12">
-      <c r="A238" s="15">
+      <c r="A238" s="3">
         <v>44686</v>
       </c>
       <c r="B238">
@@ -11501,7 +11815,7 @@
       </c>
     </row>
     <row r="239" spans="1:12">
-      <c r="A239" s="15">
+      <c r="A239" s="3">
         <v>44687</v>
       </c>
       <c r="B239">
@@ -11539,7 +11853,7 @@
       </c>
     </row>
     <row r="240" spans="1:12">
-      <c r="A240" s="15">
+      <c r="A240" s="3">
         <v>44690</v>
       </c>
       <c r="B240">
@@ -11577,7 +11891,7 @@
       </c>
     </row>
     <row r="241" spans="1:12">
-      <c r="A241" s="15">
+      <c r="A241" s="3">
         <v>44691</v>
       </c>
       <c r="B241">
@@ -11615,7 +11929,7 @@
       </c>
     </row>
     <row r="242" spans="1:12">
-      <c r="A242" s="15">
+      <c r="A242" s="3">
         <v>44692</v>
       </c>
       <c r="B242">
@@ -11653,7 +11967,7 @@
       </c>
     </row>
     <row r="243" spans="1:12">
-      <c r="A243" s="15">
+      <c r="A243" s="3">
         <v>44693</v>
       </c>
       <c r="B243">
@@ -11691,7 +12005,7 @@
       </c>
     </row>
     <row r="244" spans="1:12">
-      <c r="A244" s="15">
+      <c r="A244" s="3">
         <v>44694</v>
       </c>
       <c r="B244">
@@ -11729,7 +12043,7 @@
       </c>
     </row>
     <row r="245" spans="1:12">
-      <c r="A245" s="15">
+      <c r="A245" s="3">
         <v>44697</v>
       </c>
       <c r="B245">
@@ -11767,7 +12081,7 @@
       </c>
     </row>
     <row r="246" spans="1:12">
-      <c r="A246" s="15">
+      <c r="A246" s="3">
         <v>44698</v>
       </c>
       <c r="B246">
@@ -11805,7 +12119,7 @@
       </c>
     </row>
     <row r="247" spans="1:12">
-      <c r="A247" s="15">
+      <c r="A247" s="3">
         <v>44699</v>
       </c>
       <c r="B247">
@@ -11843,7 +12157,7 @@
       </c>
     </row>
     <row r="248" spans="1:12">
-      <c r="A248" s="15">
+      <c r="A248" s="3">
         <v>44700</v>
       </c>
       <c r="B248">
@@ -11881,7 +12195,7 @@
       </c>
     </row>
     <row r="249" spans="1:12">
-      <c r="A249" s="15">
+      <c r="A249" s="3">
         <v>44701</v>
       </c>
       <c r="B249">
@@ -11919,7 +12233,7 @@
       </c>
     </row>
     <row r="250" spans="1:12">
-      <c r="A250" s="15">
+      <c r="A250" s="3">
         <v>44704</v>
       </c>
       <c r="B250">
@@ -11957,7 +12271,7 @@
       </c>
     </row>
     <row r="251" spans="1:12">
-      <c r="A251" s="15">
+      <c r="A251" s="3">
         <v>44705</v>
       </c>
       <c r="B251">
@@ -11995,7 +12309,7 @@
       </c>
     </row>
     <row r="252" spans="1:12">
-      <c r="A252" s="15">
+      <c r="A252" s="3">
         <v>44706</v>
       </c>
       <c r="B252">
@@ -12033,7 +12347,7 @@
       </c>
     </row>
     <row r="253" spans="1:12">
-      <c r="A253" s="15">
+      <c r="A253" s="3">
         <v>44707</v>
       </c>
       <c r="B253">
@@ -12071,7 +12385,7 @@
       </c>
     </row>
     <row r="254" spans="1:12">
-      <c r="A254" s="15">
+      <c r="A254" s="3">
         <v>44708</v>
       </c>
       <c r="B254">
@@ -12109,7 +12423,7 @@
       </c>
     </row>
     <row r="255" spans="1:12">
-      <c r="A255" s="15">
+      <c r="A255" s="3">
         <v>44712</v>
       </c>
       <c r="B255">
@@ -12147,10 +12461,10 @@
       </c>
     </row>
     <row r="260" spans="2:2">
-      <c r="B260" s="15"/>
+      <c r="B260" s="3"/>
     </row>
     <row r="261" spans="2:2">
-      <c r="B261" s="15"/>
+      <c r="B261" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
@@ -12217,7 +12531,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="17">
+      <c r="A2" s="5">
         <v>44712</v>
       </c>
       <c r="B2">
@@ -12282,207 +12596,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="17">
+      <c r="A2" s="5">
         <v>44712</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="4">
         <v>-5.9891763000000002E-3</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="4">
         <v>2.4093812799999999E-2</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="4">
         <v>1.6338675399999999E-2</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="4">
         <v>4.6040693000000002E-3</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="4">
         <v>1.07882464E-2</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="4">
         <v>-2.2091117899999999E-2</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="4">
         <v>-7.4759207999999999E-3</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="4">
         <v>5.3286059999999996E-3</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="4">
         <v>4.6131439099999998E-2</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="4">
         <v>-3.2463983199999998E-2</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="4">
         <v>-4.6853979499999997E-2</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="17">
+      <c r="A3" s="5">
         <v>44712</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="4">
         <v>-9.2688066400000005E-2</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="4">
         <v>1.6683366000000001E-3</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="4">
         <v>-5.5881302000000001E-2</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="4">
         <v>-8.7411132000000002E-2</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="4">
         <v>-7.3283176199999994E-2</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="4">
         <v>-0.15696716499999999</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="4">
         <v>-5.9996227200000002E-2</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="4">
         <v>-1.2790695100000001E-2</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="4">
         <v>0.20653532569999999</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="4">
         <v>-3.9658562000000001E-2</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="4">
         <v>-3.3840464100000002E-2</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="17">
+      <c r="A4" s="5">
         <v>44712</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="4">
         <v>-0.20256615929999999</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="4">
         <v>4.11127362E-2</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="4">
         <v>-8.6753371199999998E-2</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="4">
         <v>-0.1128277982</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="4">
         <v>-0.1172377345</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="4">
         <v>-0.2204965941</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="4">
         <v>-0.1184693139</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="4">
         <v>-2.2640067699999999E-2</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="4">
         <v>0.4784394206</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="4">
         <v>3.5332500500000003E-2</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="4">
         <v>-7.1856832699999998E-2</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="17">
+      <c r="A5" s="5">
         <v>44712</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="4">
         <v>-0.14221400240000001</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="4">
         <v>3.5200569899999999E-2</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="4">
         <v>-0.14060580089999999</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="4">
         <v>-0.1858034999</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="4">
         <v>-0.12144138140000001</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="4">
         <v>-0.15218632709999999</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="4">
         <v>-0.11253249529999999</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="4">
         <v>-1.8670778700000001E-2</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="4">
         <v>0.54838702399999995</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="4">
         <v>-3.8334237600000001E-2</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="4">
         <v>-1.0511603999999999E-3</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="4" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Portfolio Optimization Tool.xlsx
+++ b/Portfolio Optimization Tool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanlupinski/PycharmProjects/Finance/Portfolio Optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C873D3E-7CF0-D14D-9DA2-F760F3830ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7C2D77-B9C9-5749-96C5-F6A2A3A87EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
@@ -348,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -609,19 +609,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -655,7 +642,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -701,24 +688,15 @@
     <xf numFmtId="10" fontId="6" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="6" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="6" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,6 +717,7 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -769,7 +748,6 @@
     <xf numFmtId="165" fontId="8" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -785,7 +763,475 @@
     <cellStyle name="Untitled6" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Untitled7" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1927,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1950,20 +2396,20 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:16" ht="17" thickBot="1">
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45">
         <f>INDEX('Price Data'!$A$2:$A$265,COUNT('Price Data'!$A$2:$A$265))</f>
         <v>44712</v>
       </c>
-      <c r="K2" s="48">
+      <c r="K2" s="46">
         <f>INDEX('Price Data'!$L$2:$L$255,COUNT('Price Data'!$L$2:$L$255))</f>
         <v>99.069999694824205</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="37" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="9" t="s">
@@ -1972,56 +2418,56 @@
       <c r="N2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="41" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:16">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="40"/>
+      <c r="L3" s="38"/>
       <c r="M3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="44"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="42"/>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2034,11 +2480,11 @@
         <f t="shared" ref="E4:E14" si="0">IF(P4="buy",0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <f t="shared" ref="F4:F15" si="1">D4+E4</f>
         <v>0.05</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="22">
         <f>'Performance Data'!$B$2</f>
         <v>-5.9891763000000002E-3</v>
       </c>
@@ -2062,11 +2508,11 @@
         <f t="shared" ref="L4:L14" si="3">_xlfn.RANK.EQ(K4,$K$4:$K$14,0)</f>
         <v>10</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="19">
         <f>INDEX('Price Data'!$B$2:$B$265,COUNT('Price Data'!$B$2:$B$265))</f>
         <v>146.05000305175699</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="20">
         <f>'200D SMA'!$B$2</f>
         <v>170.661000213623</v>
       </c>
@@ -2080,7 +2526,7 @@
       </c>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2093,11 +2539,11 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="28">
         <f t="shared" si="1"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="22">
         <f>'Performance Data'!$C$2</f>
         <v>2.4093812799999999E-2</v>
       </c>
@@ -2121,11 +2567,11 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="19">
         <f>INDEX('Price Data'!$C$2:$C$265,COUNT('Price Data'!$C$2:$C$265))</f>
         <v>144.08999633789</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="20">
         <f>'200D SMA'!$C$2</f>
         <v>143.467700042724</v>
       </c>
@@ -2139,7 +2585,7 @@
       </c>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="27" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2152,11 +2598,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="28">
         <f t="shared" si="1"/>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="22">
         <f>'Performance Data'!$D$2</f>
         <v>1.6338675399999999E-2</v>
       </c>
@@ -2180,11 +2626,11 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="19">
         <f>INDEX('Price Data'!$D$2:$D$265,COUNT('Price Data'!$D$2:$D$265))</f>
         <v>54.740001678466797</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="20">
         <f>'200D SMA'!$D$2</f>
         <v>59.593499927520703</v>
       </c>
@@ -2198,7 +2644,7 @@
       </c>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="27" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2211,11 +2657,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="28">
         <f t="shared" si="1"/>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="22">
         <f>'Performance Data'!$E$2</f>
         <v>4.6040693000000002E-3</v>
       </c>
@@ -2239,11 +2685,11 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="19">
         <f>INDEX('Price Data'!$E$2:$E$265,COUNT('Price Data'!$E$2:$E$265))</f>
         <v>43.639999389648402</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="20">
         <f>'200D SMA'!$E$2</f>
         <v>48.427849941253598</v>
       </c>
@@ -2257,7 +2703,7 @@
       </c>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2270,11 +2716,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="28">
         <f t="shared" si="1"/>
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="22">
         <f>'Performance Data'!$F$2</f>
         <v>1.07882464E-2</v>
       </c>
@@ -2298,11 +2744,11 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="19">
         <f>INDEX('Price Data'!$F$2:$F$265,COUNT('Price Data'!$F$2:$F$265))</f>
         <v>82.449996948242102</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="20">
         <f>'200D SMA'!$F$2</f>
         <v>90.086999969482406</v>
       </c>
@@ -2316,7 +2762,7 @@
       </c>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2329,11 +2775,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="28">
         <f t="shared" si="1"/>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="22">
         <f>'Performance Data'!$G$2</f>
         <v>-2.2091117899999999E-2</v>
       </c>
@@ -2357,11 +2803,11 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="19">
         <f>INDEX('Price Data'!$G$2:$G$265,COUNT('Price Data'!$G$2:$G$265))</f>
         <v>71.269996643066406</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="20">
         <f>'200D SMA'!$G$2</f>
         <v>84.335749969482407</v>
       </c>
@@ -2375,7 +2821,7 @@
       </c>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="27" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2388,11 +2834,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="28">
         <f t="shared" si="1"/>
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="22">
         <f>'Performance Data'!$H$2</f>
         <v>-7.4759207999999999E-3</v>
       </c>
@@ -2416,11 +2862,11 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="19">
         <f>INDEX('Price Data'!$H$2:$H$265,COUNT('Price Data'!$H$2:$H$265))</f>
         <v>50.450000762939403</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="20">
         <f>'200D SMA'!$H$2</f>
         <v>54.796000022888101</v>
       </c>
@@ -2434,7 +2880,7 @@
       </c>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2447,11 +2893,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="28">
         <f t="shared" si="1"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="22">
         <f>'Performance Data'!$I$2</f>
         <v>5.3286059999999996E-3</v>
       </c>
@@ -2475,11 +2921,11 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="19">
         <f>INDEX('Price Data'!$I$2:$I$265,COUNT('Price Data'!$I$2:$I$265))</f>
         <v>50.939998626708899</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="20">
         <f>'200D SMA'!$I$2</f>
         <v>51.608049964904701</v>
       </c>
@@ -2493,7 +2939,7 @@
       </c>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2506,11 +2952,11 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="28">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="22">
         <f>'Performance Data'!$J$2</f>
         <v>4.6131439099999998E-2</v>
       </c>
@@ -2534,11 +2980,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="19">
         <f>INDEX('Price Data'!$J$2:$J$265,COUNT('Price Data'!$J$2:$J$265))</f>
         <v>28.799999237060501</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="20">
         <f>'200D SMA'!$J$2</f>
         <v>22.896499977111802</v>
       </c>
@@ -2552,7 +2998,7 @@
       </c>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="27" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2565,11 +3011,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="28">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="22">
         <f>'Performance Data'!$K$2</f>
         <v>-3.2463983199999998E-2</v>
       </c>
@@ -2593,11 +3039,11 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="19">
         <f>INDEX('Price Data'!$K$2:$K$265,COUNT('Price Data'!$K$2:$K$265))</f>
         <v>34.869998931884702</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="20">
         <f>'200D SMA'!$K$2</f>
         <v>34.975750102996798</v>
       </c>
@@ -2611,7 +3057,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" ht="17" thickBot="1">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2624,27 +3070,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="28">
         <f t="shared" si="1"/>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="22">
         <f>'Performance Data'!$L$2</f>
         <v>-4.6853979499999997E-2</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="6">
         <f>'Performance Data'!$L$3</f>
         <v>-3.3840464100000002E-2</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="6">
         <f>'Performance Data'!$L$4</f>
         <v>-7.1856832699999998E-2</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="6">
         <f>'Performance Data'!$L$5</f>
         <v>-1.0511603999999999E-3</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="18">
         <f t="shared" si="2"/>
         <v>-3.8400609174999996E-2</v>
       </c>
@@ -2652,11 +3098,11 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="M14" s="49">
+      <c r="M14" s="36">
         <f>INDEX('Price Data'!$L$2:$L$265,COUNT('Price Data'!$L$2:$L$265))</f>
         <v>99.069999694824205</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="21">
         <f>'200D SMA'!$L$2</f>
         <v>106.527500190734</v>
       </c>
@@ -2670,7 +3116,7 @@
       </c>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2683,25 +3129,25 @@
         <f>0.5-SUM(E4:E14)</f>
         <v>0.3</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="28">
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="17" thickBot="1">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34">
+      <c r="C16" s="30"/>
+      <c r="D16" s="31">
         <f>SUM(D4:D15)</f>
         <v>0.50000000000000011</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="31">
         <f>SUM(E4:E15)</f>
         <v>0.5</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="32">
         <f>SUM(F4:F15)</f>
         <v>1</v>
       </c>
@@ -2715,31 +3161,31 @@
     <mergeCell ref="J2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="L2 L4:L14">
-    <cfRule type="cellIs" dxfId="3" priority="14" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="38" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P14">
-    <cfRule type="cellIs" dxfId="2" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="39" stopIfTrue="1" operator="equal">
       <formula>"buy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M14">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="30" operator="greaterThan">
       <formula>$N4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M14">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="29" operator="lessThan">
       <formula>$N4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:K14">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="90"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>

--- a/Portfolio Optimization Tool.xlsx
+++ b/Portfolio Optimization Tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanlupinski/PycharmProjects/Finance/Portfolio Optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF00A9D-23A2-7244-B9E6-76BDA8F8B616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFBA319-B2A8-3842-AFAD-6B5A80E97309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -747,6 +747,7 @@
     <xf numFmtId="10" fontId="6" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -777,7 +778,6 @@
     <xf numFmtId="165" fontId="7" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2057,9 +2057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -2080,20 +2078,20 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:16" ht="17" thickBot="1">
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48">
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49">
         <f>INDEX('Price Data'!$A$2:$A$265,COUNT('Price Data'!$A$2:$A$265))</f>
         <v>44742</v>
       </c>
-      <c r="K2" s="49">
+      <c r="K2" s="50">
         <f>INDEX('Price Data'!$L$2:$L$255,COUNT('Price Data'!$L$2:$L$255))</f>
         <v>91.099998474121094</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="41" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="34" t="s">
@@ -2102,10 +2100,10 @@
       <c r="N2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="45" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2140,15 +2138,15 @@
       <c r="K3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="41"/>
+      <c r="L3" s="42"/>
       <c r="M3" s="35" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="43"/>
-      <c r="P3" s="45"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="46"/>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="20" t="s">
@@ -2999,7 +2997,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="50">
+      <c r="A2" s="40">
         <v>44377</v>
       </c>
       <c r="B2">
@@ -3037,7 +3035,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="50">
+      <c r="A3" s="40">
         <v>44378</v>
       </c>
       <c r="B3">
@@ -3075,7 +3073,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="50">
+      <c r="A4" s="40">
         <v>44379</v>
       </c>
       <c r="B4">
@@ -3113,7 +3111,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="50">
+      <c r="A5" s="40">
         <v>44383</v>
       </c>
       <c r="B5">
@@ -3151,7 +3149,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="50">
+      <c r="A6" s="40">
         <v>44384</v>
       </c>
       <c r="B6">
@@ -3189,7 +3187,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="50">
+      <c r="A7" s="40">
         <v>44385</v>
       </c>
       <c r="B7">
@@ -3227,7 +3225,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="50">
+      <c r="A8" s="40">
         <v>44386</v>
       </c>
       <c r="B8">
@@ -3265,7 +3263,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="50">
+      <c r="A9" s="40">
         <v>44389</v>
       </c>
       <c r="B9">
@@ -3303,7 +3301,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="50">
+      <c r="A10" s="40">
         <v>44390</v>
       </c>
       <c r="B10">
@@ -3341,7 +3339,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="50">
+      <c r="A11" s="40">
         <v>44391</v>
       </c>
       <c r="B11">
@@ -3379,7 +3377,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="50">
+      <c r="A12" s="40">
         <v>44392</v>
       </c>
       <c r="B12">
@@ -3417,7 +3415,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="50">
+      <c r="A13" s="40">
         <v>44393</v>
       </c>
       <c r="B13">
@@ -3455,7 +3453,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="50">
+      <c r="A14" s="40">
         <v>44396</v>
       </c>
       <c r="B14">
@@ -3493,7 +3491,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="50">
+      <c r="A15" s="40">
         <v>44397</v>
       </c>
       <c r="B15">
@@ -3531,7 +3529,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="50">
+      <c r="A16" s="40">
         <v>44398</v>
       </c>
       <c r="B16">
@@ -3569,7 +3567,7 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="50">
+      <c r="A17" s="40">
         <v>44399</v>
       </c>
       <c r="B17">
@@ -3607,7 +3605,7 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="50">
+      <c r="A18" s="40">
         <v>44400</v>
       </c>
       <c r="B18">
@@ -3645,7 +3643,7 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="50">
+      <c r="A19" s="40">
         <v>44403</v>
       </c>
       <c r="B19">
@@ -3683,7 +3681,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="50">
+      <c r="A20" s="40">
         <v>44404</v>
       </c>
       <c r="B20">
@@ -3721,7 +3719,7 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="50">
+      <c r="A21" s="40">
         <v>44405</v>
       </c>
       <c r="B21">
@@ -3759,7 +3757,7 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="50">
+      <c r="A22" s="40">
         <v>44406</v>
       </c>
       <c r="B22">
@@ -3797,7 +3795,7 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="50">
+      <c r="A23" s="40">
         <v>44407</v>
       </c>
       <c r="B23">
@@ -3835,7 +3833,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="50">
+      <c r="A24" s="40">
         <v>44410</v>
       </c>
       <c r="B24">
@@ -3873,7 +3871,7 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="50">
+      <c r="A25" s="40">
         <v>44411</v>
       </c>
       <c r="B25">
@@ -3911,7 +3909,7 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="50">
+      <c r="A26" s="40">
         <v>44412</v>
       </c>
       <c r="B26">
@@ -3949,7 +3947,7 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="50">
+      <c r="A27" s="40">
         <v>44413</v>
       </c>
       <c r="B27">
@@ -3987,7 +3985,7 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="50">
+      <c r="A28" s="40">
         <v>44414</v>
       </c>
       <c r="B28">
@@ -4025,7 +4023,7 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="50">
+      <c r="A29" s="40">
         <v>44417</v>
       </c>
       <c r="B29">
@@ -4063,7 +4061,7 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="50">
+      <c r="A30" s="40">
         <v>44418</v>
       </c>
       <c r="B30">
@@ -4101,7 +4099,7 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="50">
+      <c r="A31" s="40">
         <v>44419</v>
       </c>
       <c r="B31">
@@ -4139,7 +4137,7 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="50">
+      <c r="A32" s="40">
         <v>44420</v>
       </c>
       <c r="B32">
@@ -4177,7 +4175,7 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="50">
+      <c r="A33" s="40">
         <v>44421</v>
       </c>
       <c r="B33">
@@ -4215,7 +4213,7 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="50">
+      <c r="A34" s="40">
         <v>44424</v>
       </c>
       <c r="B34">
@@ -4253,7 +4251,7 @@
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="50">
+      <c r="A35" s="40">
         <v>44425</v>
       </c>
       <c r="B35">
@@ -4291,7 +4289,7 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="50">
+      <c r="A36" s="40">
         <v>44426</v>
       </c>
       <c r="B36">
@@ -4329,7 +4327,7 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="50">
+      <c r="A37" s="40">
         <v>44427</v>
       </c>
       <c r="B37">
@@ -4367,7 +4365,7 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="50">
+      <c r="A38" s="40">
         <v>44428</v>
       </c>
       <c r="B38">
@@ -4405,7 +4403,7 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="50">
+      <c r="A39" s="40">
         <v>44431</v>
       </c>
       <c r="B39">
@@ -4443,7 +4441,7 @@
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="50">
+      <c r="A40" s="40">
         <v>44432</v>
       </c>
       <c r="B40">
@@ -4481,7 +4479,7 @@
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="50">
+      <c r="A41" s="40">
         <v>44433</v>
       </c>
       <c r="B41">
@@ -4519,7 +4517,7 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="50">
+      <c r="A42" s="40">
         <v>44434</v>
       </c>
       <c r="B42">
@@ -4557,7 +4555,7 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="50">
+      <c r="A43" s="40">
         <v>44435</v>
       </c>
       <c r="B43">
@@ -4595,7 +4593,7 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="50">
+      <c r="A44" s="40">
         <v>44438</v>
       </c>
       <c r="B44">
@@ -4633,7 +4631,7 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="50">
+      <c r="A45" s="40">
         <v>44439</v>
       </c>
       <c r="B45">
@@ -4671,7 +4669,7 @@
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="50">
+      <c r="A46" s="40">
         <v>44440</v>
       </c>
       <c r="B46">
@@ -4709,7 +4707,7 @@
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="50">
+      <c r="A47" s="40">
         <v>44441</v>
       </c>
       <c r="B47">
@@ -4747,7 +4745,7 @@
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="50">
+      <c r="A48" s="40">
         <v>44442</v>
       </c>
       <c r="B48">
@@ -4785,7 +4783,7 @@
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="50">
+      <c r="A49" s="40">
         <v>44446</v>
       </c>
       <c r="B49">
@@ -4823,7 +4821,7 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="50">
+      <c r="A50" s="40">
         <v>44447</v>
       </c>
       <c r="B50">
@@ -4861,7 +4859,7 @@
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="50">
+      <c r="A51" s="40">
         <v>44448</v>
       </c>
       <c r="B51">
@@ -4899,7 +4897,7 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="50">
+      <c r="A52" s="40">
         <v>44449</v>
       </c>
       <c r="B52">
@@ -4937,7 +4935,7 @@
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="50">
+      <c r="A53" s="40">
         <v>44452</v>
       </c>
       <c r="B53">
@@ -4975,7 +4973,7 @@
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="50">
+      <c r="A54" s="40">
         <v>44453</v>
       </c>
       <c r="B54">
@@ -5013,7 +5011,7 @@
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="50">
+      <c r="A55" s="40">
         <v>44454</v>
       </c>
       <c r="B55">
@@ -5051,7 +5049,7 @@
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="50">
+      <c r="A56" s="40">
         <v>44455</v>
       </c>
       <c r="B56">
@@ -5089,7 +5087,7 @@
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="50">
+      <c r="A57" s="40">
         <v>44456</v>
       </c>
       <c r="B57">
@@ -5127,7 +5125,7 @@
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="50">
+      <c r="A58" s="40">
         <v>44459</v>
       </c>
       <c r="B58">
@@ -5165,7 +5163,7 @@
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="50">
+      <c r="A59" s="40">
         <v>44460</v>
       </c>
       <c r="B59">
@@ -5203,7 +5201,7 @@
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="50">
+      <c r="A60" s="40">
         <v>44461</v>
       </c>
       <c r="B60">
@@ -5241,7 +5239,7 @@
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="50">
+      <c r="A61" s="40">
         <v>44462</v>
       </c>
       <c r="B61">
@@ -5279,7 +5277,7 @@
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="50">
+      <c r="A62" s="40">
         <v>44463</v>
       </c>
       <c r="B62">
@@ -5317,7 +5315,7 @@
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="50">
+      <c r="A63" s="40">
         <v>44466</v>
       </c>
       <c r="B63">
@@ -5355,7 +5353,7 @@
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="50">
+      <c r="A64" s="40">
         <v>44467</v>
       </c>
       <c r="B64">
@@ -5393,7 +5391,7 @@
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="50">
+      <c r="A65" s="40">
         <v>44468</v>
       </c>
       <c r="B65">
@@ -5431,7 +5429,7 @@
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="50">
+      <c r="A66" s="40">
         <v>44469</v>
       </c>
       <c r="B66">
@@ -5469,7 +5467,7 @@
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="50">
+      <c r="A67" s="40">
         <v>44470</v>
       </c>
       <c r="B67">
@@ -5507,7 +5505,7 @@
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="50">
+      <c r="A68" s="40">
         <v>44473</v>
       </c>
       <c r="B68">
@@ -5545,7 +5543,7 @@
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="50">
+      <c r="A69" s="40">
         <v>44474</v>
       </c>
       <c r="B69">
@@ -5583,7 +5581,7 @@
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="50">
+      <c r="A70" s="40">
         <v>44475</v>
       </c>
       <c r="B70">
@@ -5621,7 +5619,7 @@
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="50">
+      <c r="A71" s="40">
         <v>44476</v>
       </c>
       <c r="B71">
@@ -5659,7 +5657,7 @@
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="50">
+      <c r="A72" s="40">
         <v>44477</v>
       </c>
       <c r="B72">
@@ -5697,7 +5695,7 @@
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="50">
+      <c r="A73" s="40">
         <v>44480</v>
       </c>
       <c r="B73">
@@ -5735,7 +5733,7 @@
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="50">
+      <c r="A74" s="40">
         <v>44481</v>
       </c>
       <c r="B74">
@@ -5773,7 +5771,7 @@
       </c>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="50">
+      <c r="A75" s="40">
         <v>44482</v>
       </c>
       <c r="B75">
@@ -5811,7 +5809,7 @@
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="50">
+      <c r="A76" s="40">
         <v>44483</v>
       </c>
       <c r="B76">
@@ -5849,7 +5847,7 @@
       </c>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="50">
+      <c r="A77" s="40">
         <v>44484</v>
       </c>
       <c r="B77">
@@ -5887,7 +5885,7 @@
       </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="50">
+      <c r="A78" s="40">
         <v>44487</v>
       </c>
       <c r="B78">
@@ -5925,7 +5923,7 @@
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="50">
+      <c r="A79" s="40">
         <v>44488</v>
       </c>
       <c r="B79">
@@ -5963,7 +5961,7 @@
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="50">
+      <c r="A80" s="40">
         <v>44489</v>
       </c>
       <c r="B80">
@@ -6001,7 +5999,7 @@
       </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="50">
+      <c r="A81" s="40">
         <v>44490</v>
       </c>
       <c r="B81">
@@ -6039,7 +6037,7 @@
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="50">
+      <c r="A82" s="40">
         <v>44491</v>
       </c>
       <c r="B82">
@@ -6077,7 +6075,7 @@
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="50">
+      <c r="A83" s="40">
         <v>44494</v>
       </c>
       <c r="B83">
@@ -6115,7 +6113,7 @@
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="50">
+      <c r="A84" s="40">
         <v>44495</v>
       </c>
       <c r="B84">
@@ -6153,7 +6151,7 @@
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="50">
+      <c r="A85" s="40">
         <v>44496</v>
       </c>
       <c r="B85">
@@ -6191,7 +6189,7 @@
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="50">
+      <c r="A86" s="40">
         <v>44497</v>
       </c>
       <c r="B86">
@@ -6229,7 +6227,7 @@
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="50">
+      <c r="A87" s="40">
         <v>44498</v>
       </c>
       <c r="B87">
@@ -6267,7 +6265,7 @@
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="50">
+      <c r="A88" s="40">
         <v>44501</v>
       </c>
       <c r="B88">
@@ -6305,7 +6303,7 @@
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="50">
+      <c r="A89" s="40">
         <v>44502</v>
       </c>
       <c r="B89">
@@ -6343,7 +6341,7 @@
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="50">
+      <c r="A90" s="40">
         <v>44503</v>
       </c>
       <c r="B90">
@@ -6381,7 +6379,7 @@
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="50">
+      <c r="A91" s="40">
         <v>44504</v>
       </c>
       <c r="B91">
@@ -6419,7 +6417,7 @@
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="50">
+      <c r="A92" s="40">
         <v>44505</v>
       </c>
       <c r="B92">
@@ -6457,7 +6455,7 @@
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="50">
+      <c r="A93" s="40">
         <v>44508</v>
       </c>
       <c r="B93">
@@ -6495,7 +6493,7 @@
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="50">
+      <c r="A94" s="40">
         <v>44509</v>
       </c>
       <c r="B94">
@@ -6533,7 +6531,7 @@
       </c>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="50">
+      <c r="A95" s="40">
         <v>44510</v>
       </c>
       <c r="B95">
@@ -6571,7 +6569,7 @@
       </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="50">
+      <c r="A96" s="40">
         <v>44511</v>
       </c>
       <c r="B96">
@@ -6609,7 +6607,7 @@
       </c>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="50">
+      <c r="A97" s="40">
         <v>44512</v>
       </c>
       <c r="B97">
@@ -6647,7 +6645,7 @@
       </c>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="50">
+      <c r="A98" s="40">
         <v>44515</v>
       </c>
       <c r="B98">
@@ -6685,7 +6683,7 @@
       </c>
     </row>
     <row r="99" spans="1:12">
-      <c r="A99" s="50">
+      <c r="A99" s="40">
         <v>44516</v>
       </c>
       <c r="B99">
@@ -6723,7 +6721,7 @@
       </c>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="50">
+      <c r="A100" s="40">
         <v>44517</v>
       </c>
       <c r="B100">
@@ -6761,7 +6759,7 @@
       </c>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101" s="50">
+      <c r="A101" s="40">
         <v>44518</v>
       </c>
       <c r="B101">
@@ -6799,7 +6797,7 @@
       </c>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="50">
+      <c r="A102" s="40">
         <v>44519</v>
       </c>
       <c r="B102">
@@ -6837,7 +6835,7 @@
       </c>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="50">
+      <c r="A103" s="40">
         <v>44522</v>
       </c>
       <c r="B103">
@@ -6875,7 +6873,7 @@
       </c>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="50">
+      <c r="A104" s="40">
         <v>44523</v>
       </c>
       <c r="B104">
@@ -6913,7 +6911,7 @@
       </c>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="50">
+      <c r="A105" s="40">
         <v>44524</v>
       </c>
       <c r="B105">
@@ -6951,7 +6949,7 @@
       </c>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="50">
+      <c r="A106" s="40">
         <v>44526</v>
       </c>
       <c r="B106">
@@ -6989,7 +6987,7 @@
       </c>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="50">
+      <c r="A107" s="40">
         <v>44529</v>
       </c>
       <c r="B107">
@@ -7027,7 +7025,7 @@
       </c>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="50">
+      <c r="A108" s="40">
         <v>44530</v>
       </c>
       <c r="B108">
@@ -7065,7 +7063,7 @@
       </c>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="50">
+      <c r="A109" s="40">
         <v>44531</v>
       </c>
       <c r="B109">
@@ -7103,7 +7101,7 @@
       </c>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="50">
+      <c r="A110" s="40">
         <v>44532</v>
       </c>
       <c r="B110">
@@ -7141,7 +7139,7 @@
       </c>
     </row>
     <row r="111" spans="1:12">
-      <c r="A111" s="50">
+      <c r="A111" s="40">
         <v>44533</v>
       </c>
       <c r="B111">
@@ -7179,7 +7177,7 @@
       </c>
     </row>
     <row r="112" spans="1:12">
-      <c r="A112" s="50">
+      <c r="A112" s="40">
         <v>44536</v>
       </c>
       <c r="B112">
@@ -7217,7 +7215,7 @@
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="50">
+      <c r="A113" s="40">
         <v>44537</v>
       </c>
       <c r="B113">
@@ -7255,7 +7253,7 @@
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="50">
+      <c r="A114" s="40">
         <v>44538</v>
       </c>
       <c r="B114">
@@ -7293,7 +7291,7 @@
       </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="A115" s="50">
+      <c r="A115" s="40">
         <v>44539</v>
       </c>
       <c r="B115">
@@ -7331,7 +7329,7 @@
       </c>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="50">
+      <c r="A116" s="40">
         <v>44540</v>
       </c>
       <c r="B116">
@@ -7369,7 +7367,7 @@
       </c>
     </row>
     <row r="117" spans="1:12">
-      <c r="A117" s="50">
+      <c r="A117" s="40">
         <v>44543</v>
       </c>
       <c r="B117">
@@ -7407,7 +7405,7 @@
       </c>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="50">
+      <c r="A118" s="40">
         <v>44544</v>
       </c>
       <c r="B118">
@@ -7445,7 +7443,7 @@
       </c>
     </row>
     <row r="119" spans="1:12">
-      <c r="A119" s="50">
+      <c r="A119" s="40">
         <v>44545</v>
       </c>
       <c r="B119">
@@ -7483,7 +7481,7 @@
       </c>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="50">
+      <c r="A120" s="40">
         <v>44546</v>
       </c>
       <c r="B120">
@@ -7521,7 +7519,7 @@
       </c>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="50">
+      <c r="A121" s="40">
         <v>44547</v>
       </c>
       <c r="B121">
@@ -7559,7 +7557,7 @@
       </c>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="50">
+      <c r="A122" s="40">
         <v>44550</v>
       </c>
       <c r="B122">
@@ -7597,7 +7595,7 @@
       </c>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="50">
+      <c r="A123" s="40">
         <v>44551</v>
       </c>
       <c r="B123">
@@ -7635,7 +7633,7 @@
       </c>
     </row>
     <row r="124" spans="1:12">
-      <c r="A124" s="50">
+      <c r="A124" s="40">
         <v>44552</v>
       </c>
       <c r="B124">
@@ -7673,7 +7671,7 @@
       </c>
     </row>
     <row r="125" spans="1:12">
-      <c r="A125" s="50">
+      <c r="A125" s="40">
         <v>44553</v>
       </c>
       <c r="B125">
@@ -7711,7 +7709,7 @@
       </c>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="50">
+      <c r="A126" s="40">
         <v>44557</v>
       </c>
       <c r="B126">
@@ -7749,7 +7747,7 @@
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="A127" s="50">
+      <c r="A127" s="40">
         <v>44558</v>
       </c>
       <c r="B127">
@@ -7787,7 +7785,7 @@
       </c>
     </row>
     <row r="128" spans="1:12">
-      <c r="A128" s="50">
+      <c r="A128" s="40">
         <v>44559</v>
       </c>
       <c r="B128">
@@ -7825,7 +7823,7 @@
       </c>
     </row>
     <row r="129" spans="1:12">
-      <c r="A129" s="50">
+      <c r="A129" s="40">
         <v>44560</v>
       </c>
       <c r="B129">
@@ -7863,7 +7861,7 @@
       </c>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="50">
+      <c r="A130" s="40">
         <v>44561</v>
       </c>
       <c r="B130">
@@ -7901,7 +7899,7 @@
       </c>
     </row>
     <row r="131" spans="1:12">
-      <c r="A131" s="50">
+      <c r="A131" s="40">
         <v>44564</v>
       </c>
       <c r="B131">
@@ -7939,7 +7937,7 @@
       </c>
     </row>
     <row r="132" spans="1:12">
-      <c r="A132" s="50">
+      <c r="A132" s="40">
         <v>44565</v>
       </c>
       <c r="B132">
@@ -7977,7 +7975,7 @@
       </c>
     </row>
     <row r="133" spans="1:12">
-      <c r="A133" s="50">
+      <c r="A133" s="40">
         <v>44566</v>
       </c>
       <c r="B133">
@@ -8015,7 +8013,7 @@
       </c>
     </row>
     <row r="134" spans="1:12">
-      <c r="A134" s="50">
+      <c r="A134" s="40">
         <v>44567</v>
       </c>
       <c r="B134">
@@ -8053,7 +8051,7 @@
       </c>
     </row>
     <row r="135" spans="1:12">
-      <c r="A135" s="50">
+      <c r="A135" s="40">
         <v>44568</v>
       </c>
       <c r="B135">
@@ -8091,7 +8089,7 @@
       </c>
     </row>
     <row r="136" spans="1:12">
-      <c r="A136" s="50">
+      <c r="A136" s="40">
         <v>44571</v>
       </c>
       <c r="B136">
@@ -8129,7 +8127,7 @@
       </c>
     </row>
     <row r="137" spans="1:12">
-      <c r="A137" s="50">
+      <c r="A137" s="40">
         <v>44572</v>
       </c>
       <c r="B137">
@@ -8167,7 +8165,7 @@
       </c>
     </row>
     <row r="138" spans="1:12">
-      <c r="A138" s="50">
+      <c r="A138" s="40">
         <v>44573</v>
       </c>
       <c r="B138">
@@ -8205,7 +8203,7 @@
       </c>
     </row>
     <row r="139" spans="1:12">
-      <c r="A139" s="50">
+      <c r="A139" s="40">
         <v>44574</v>
       </c>
       <c r="B139">
@@ -8243,7 +8241,7 @@
       </c>
     </row>
     <row r="140" spans="1:12">
-      <c r="A140" s="50">
+      <c r="A140" s="40">
         <v>44575</v>
       </c>
       <c r="B140">
@@ -8281,7 +8279,7 @@
       </c>
     </row>
     <row r="141" spans="1:12">
-      <c r="A141" s="50">
+      <c r="A141" s="40">
         <v>44579</v>
       </c>
       <c r="B141">
@@ -8319,7 +8317,7 @@
       </c>
     </row>
     <row r="142" spans="1:12">
-      <c r="A142" s="50">
+      <c r="A142" s="40">
         <v>44580</v>
       </c>
       <c r="B142">
@@ -8357,7 +8355,7 @@
       </c>
     </row>
     <row r="143" spans="1:12">
-      <c r="A143" s="50">
+      <c r="A143" s="40">
         <v>44581</v>
       </c>
       <c r="B143">
@@ -8395,7 +8393,7 @@
       </c>
     </row>
     <row r="144" spans="1:12">
-      <c r="A144" s="50">
+      <c r="A144" s="40">
         <v>44582</v>
       </c>
       <c r="B144">
@@ -8433,7 +8431,7 @@
       </c>
     </row>
     <row r="145" spans="1:12">
-      <c r="A145" s="50">
+      <c r="A145" s="40">
         <v>44585</v>
       </c>
       <c r="B145">
@@ -8471,7 +8469,7 @@
       </c>
     </row>
     <row r="146" spans="1:12">
-      <c r="A146" s="50">
+      <c r="A146" s="40">
         <v>44586</v>
       </c>
       <c r="B146">
@@ -8509,7 +8507,7 @@
       </c>
     </row>
     <row r="147" spans="1:12">
-      <c r="A147" s="50">
+      <c r="A147" s="40">
         <v>44587</v>
       </c>
       <c r="B147">
@@ -8547,7 +8545,7 @@
       </c>
     </row>
     <row r="148" spans="1:12">
-      <c r="A148" s="50">
+      <c r="A148" s="40">
         <v>44588</v>
       </c>
       <c r="B148">
@@ -8585,7 +8583,7 @@
       </c>
     </row>
     <row r="149" spans="1:12">
-      <c r="A149" s="50">
+      <c r="A149" s="40">
         <v>44589</v>
       </c>
       <c r="B149">
@@ -8623,7 +8621,7 @@
       </c>
     </row>
     <row r="150" spans="1:12">
-      <c r="A150" s="50">
+      <c r="A150" s="40">
         <v>44592</v>
       </c>
       <c r="B150">
@@ -8661,7 +8659,7 @@
       </c>
     </row>
     <row r="151" spans="1:12">
-      <c r="A151" s="50">
+      <c r="A151" s="40">
         <v>44593</v>
       </c>
       <c r="B151">
@@ -8699,7 +8697,7 @@
       </c>
     </row>
     <row r="152" spans="1:12">
-      <c r="A152" s="50">
+      <c r="A152" s="40">
         <v>44594</v>
       </c>
       <c r="B152">
@@ -8737,7 +8735,7 @@
       </c>
     </row>
     <row r="153" spans="1:12">
-      <c r="A153" s="50">
+      <c r="A153" s="40">
         <v>44595</v>
       </c>
       <c r="B153">
@@ -8775,7 +8773,7 @@
       </c>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="50">
+      <c r="A154" s="40">
         <v>44596</v>
       </c>
       <c r="B154">
@@ -8813,7 +8811,7 @@
       </c>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="50">
+      <c r="A155" s="40">
         <v>44599</v>
       </c>
       <c r="B155">
@@ -8851,7 +8849,7 @@
       </c>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="50">
+      <c r="A156" s="40">
         <v>44600</v>
       </c>
       <c r="B156">
@@ -8889,7 +8887,7 @@
       </c>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="50">
+      <c r="A157" s="40">
         <v>44601</v>
       </c>
       <c r="B157">
@@ -8927,7 +8925,7 @@
       </c>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="50">
+      <c r="A158" s="40">
         <v>44602</v>
       </c>
       <c r="B158">
@@ -8965,7 +8963,7 @@
       </c>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="50">
+      <c r="A159" s="40">
         <v>44603</v>
       </c>
       <c r="B159">
@@ -9003,7 +9001,7 @@
       </c>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="50">
+      <c r="A160" s="40">
         <v>44606</v>
       </c>
       <c r="B160">
@@ -9041,7 +9039,7 @@
       </c>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="50">
+      <c r="A161" s="40">
         <v>44607</v>
       </c>
       <c r="B161">
@@ -9079,7 +9077,7 @@
       </c>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="50">
+      <c r="A162" s="40">
         <v>44608</v>
       </c>
       <c r="B162">
@@ -9117,7 +9115,7 @@
       </c>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="50">
+      <c r="A163" s="40">
         <v>44609</v>
       </c>
       <c r="B163">
@@ -9155,7 +9153,7 @@
       </c>
     </row>
     <row r="164" spans="1:12">
-      <c r="A164" s="50">
+      <c r="A164" s="40">
         <v>44610</v>
       </c>
       <c r="B164">
@@ -9193,7 +9191,7 @@
       </c>
     </row>
     <row r="165" spans="1:12">
-      <c r="A165" s="50">
+      <c r="A165" s="40">
         <v>44614</v>
       </c>
       <c r="B165">
@@ -9231,7 +9229,7 @@
       </c>
     </row>
     <row r="166" spans="1:12">
-      <c r="A166" s="50">
+      <c r="A166" s="40">
         <v>44615</v>
       </c>
       <c r="B166">
@@ -9269,7 +9267,7 @@
       </c>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="50">
+      <c r="A167" s="40">
         <v>44616</v>
       </c>
       <c r="B167">
@@ -9307,7 +9305,7 @@
       </c>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="50">
+      <c r="A168" s="40">
         <v>44617</v>
       </c>
       <c r="B168">
@@ -9345,7 +9343,7 @@
       </c>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="50">
+      <c r="A169" s="40">
         <v>44620</v>
       </c>
       <c r="B169">
@@ -9383,7 +9381,7 @@
       </c>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="50">
+      <c r="A170" s="40">
         <v>44621</v>
       </c>
       <c r="B170">
@@ -9421,7 +9419,7 @@
       </c>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="50">
+      <c r="A171" s="40">
         <v>44622</v>
       </c>
       <c r="B171">
@@ -9459,7 +9457,7 @@
       </c>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="50">
+      <c r="A172" s="40">
         <v>44623</v>
       </c>
       <c r="B172">
@@ -9497,7 +9495,7 @@
       </c>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="50">
+      <c r="A173" s="40">
         <v>44624</v>
       </c>
       <c r="B173">
@@ -9535,7 +9533,7 @@
       </c>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="50">
+      <c r="A174" s="40">
         <v>44627</v>
       </c>
       <c r="B174">
@@ -9573,7 +9571,7 @@
       </c>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="50">
+      <c r="A175" s="40">
         <v>44628</v>
       </c>
       <c r="B175">
@@ -9611,7 +9609,7 @@
       </c>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="50">
+      <c r="A176" s="40">
         <v>44629</v>
       </c>
       <c r="B176">
@@ -9649,7 +9647,7 @@
       </c>
     </row>
     <row r="177" spans="1:12">
-      <c r="A177" s="50">
+      <c r="A177" s="40">
         <v>44630</v>
       </c>
       <c r="B177">
@@ -9687,7 +9685,7 @@
       </c>
     </row>
     <row r="178" spans="1:12">
-      <c r="A178" s="50">
+      <c r="A178" s="40">
         <v>44631</v>
       </c>
       <c r="B178">
@@ -9725,7 +9723,7 @@
       </c>
     </row>
     <row r="179" spans="1:12">
-      <c r="A179" s="50">
+      <c r="A179" s="40">
         <v>44634</v>
       </c>
       <c r="B179">
@@ -9763,7 +9761,7 @@
       </c>
     </row>
     <row r="180" spans="1:12">
-      <c r="A180" s="50">
+      <c r="A180" s="40">
         <v>44635</v>
       </c>
       <c r="B180">
@@ -9801,7 +9799,7 @@
       </c>
     </row>
     <row r="181" spans="1:12">
-      <c r="A181" s="50">
+      <c r="A181" s="40">
         <v>44636</v>
       </c>
       <c r="B181">
@@ -9839,7 +9837,7 @@
       </c>
     </row>
     <row r="182" spans="1:12">
-      <c r="A182" s="50">
+      <c r="A182" s="40">
         <v>44637</v>
       </c>
       <c r="B182">
@@ -9877,7 +9875,7 @@
       </c>
     </row>
     <row r="183" spans="1:12">
-      <c r="A183" s="50">
+      <c r="A183" s="40">
         <v>44638</v>
       </c>
       <c r="B183">
@@ -9915,7 +9913,7 @@
       </c>
     </row>
     <row r="184" spans="1:12">
-      <c r="A184" s="50">
+      <c r="A184" s="40">
         <v>44641</v>
       </c>
       <c r="B184">
@@ -9953,7 +9951,7 @@
       </c>
     </row>
     <row r="185" spans="1:12">
-      <c r="A185" s="50">
+      <c r="A185" s="40">
         <v>44642</v>
       </c>
       <c r="B185">
@@ -9991,7 +9989,7 @@
       </c>
     </row>
     <row r="186" spans="1:12">
-      <c r="A186" s="50">
+      <c r="A186" s="40">
         <v>44643</v>
       </c>
       <c r="B186">
@@ -10029,7 +10027,7 @@
       </c>
     </row>
     <row r="187" spans="1:12">
-      <c r="A187" s="50">
+      <c r="A187" s="40">
         <v>44644</v>
       </c>
       <c r="B187">
@@ -10067,7 +10065,7 @@
       </c>
     </row>
     <row r="188" spans="1:12">
-      <c r="A188" s="50">
+      <c r="A188" s="40">
         <v>44645</v>
       </c>
       <c r="B188">
@@ -10105,7 +10103,7 @@
       </c>
     </row>
     <row r="189" spans="1:12">
-      <c r="A189" s="50">
+      <c r="A189" s="40">
         <v>44648</v>
       </c>
       <c r="B189">
@@ -10143,7 +10141,7 @@
       </c>
     </row>
     <row r="190" spans="1:12">
-      <c r="A190" s="50">
+      <c r="A190" s="40">
         <v>44649</v>
       </c>
       <c r="B190">
@@ -10181,7 +10179,7 @@
       </c>
     </row>
     <row r="191" spans="1:12">
-      <c r="A191" s="50">
+      <c r="A191" s="40">
         <v>44650</v>
       </c>
       <c r="B191">
@@ -10219,7 +10217,7 @@
       </c>
     </row>
     <row r="192" spans="1:12">
-      <c r="A192" s="50">
+      <c r="A192" s="40">
         <v>44651</v>
       </c>
       <c r="B192">
@@ -10257,7 +10255,7 @@
       </c>
     </row>
     <row r="193" spans="1:12">
-      <c r="A193" s="50">
+      <c r="A193" s="40">
         <v>44652</v>
       </c>
       <c r="B193">
@@ -10295,7 +10293,7 @@
       </c>
     </row>
     <row r="194" spans="1:12">
-      <c r="A194" s="50">
+      <c r="A194" s="40">
         <v>44655</v>
       </c>
       <c r="B194">
@@ -10333,7 +10331,7 @@
       </c>
     </row>
     <row r="195" spans="1:12">
-      <c r="A195" s="50">
+      <c r="A195" s="40">
         <v>44656</v>
       </c>
       <c r="B195">
@@ -10371,7 +10369,7 @@
       </c>
     </row>
     <row r="196" spans="1:12">
-      <c r="A196" s="50">
+      <c r="A196" s="40">
         <v>44657</v>
       </c>
       <c r="B196">
@@ -10409,7 +10407,7 @@
       </c>
     </row>
     <row r="197" spans="1:12">
-      <c r="A197" s="50">
+      <c r="A197" s="40">
         <v>44658</v>
       </c>
       <c r="B197">
@@ -10447,7 +10445,7 @@
       </c>
     </row>
     <row r="198" spans="1:12">
-      <c r="A198" s="50">
+      <c r="A198" s="40">
         <v>44659</v>
       </c>
       <c r="B198">
@@ -10485,7 +10483,7 @@
       </c>
     </row>
     <row r="199" spans="1:12">
-      <c r="A199" s="50">
+      <c r="A199" s="40">
         <v>44662</v>
       </c>
       <c r="B199">
@@ -10523,7 +10521,7 @@
       </c>
     </row>
     <row r="200" spans="1:12">
-      <c r="A200" s="50">
+      <c r="A200" s="40">
         <v>44663</v>
       </c>
       <c r="B200">
@@ -10561,7 +10559,7 @@
       </c>
     </row>
     <row r="201" spans="1:12">
-      <c r="A201" s="50">
+      <c r="A201" s="40">
         <v>44664</v>
       </c>
       <c r="B201">
@@ -10599,7 +10597,7 @@
       </c>
     </row>
     <row r="202" spans="1:12">
-      <c r="A202" s="50">
+      <c r="A202" s="40">
         <v>44665</v>
       </c>
       <c r="B202">
@@ -10637,7 +10635,7 @@
       </c>
     </row>
     <row r="203" spans="1:12">
-      <c r="A203" s="50">
+      <c r="A203" s="40">
         <v>44669</v>
       </c>
       <c r="B203">
@@ -10675,7 +10673,7 @@
       </c>
     </row>
     <row r="204" spans="1:12">
-      <c r="A204" s="50">
+      <c r="A204" s="40">
         <v>44670</v>
       </c>
       <c r="B204">
@@ -10713,7 +10711,7 @@
       </c>
     </row>
     <row r="205" spans="1:12">
-      <c r="A205" s="50">
+      <c r="A205" s="40">
         <v>44671</v>
       </c>
       <c r="B205">
@@ -10751,7 +10749,7 @@
       </c>
     </row>
     <row r="206" spans="1:12">
-      <c r="A206" s="50">
+      <c r="A206" s="40">
         <v>44672</v>
       </c>
       <c r="B206">
@@ -10789,7 +10787,7 @@
       </c>
     </row>
     <row r="207" spans="1:12">
-      <c r="A207" s="50">
+      <c r="A207" s="40">
         <v>44673</v>
       </c>
       <c r="B207">
@@ -10827,7 +10825,7 @@
       </c>
     </row>
     <row r="208" spans="1:12">
-      <c r="A208" s="50">
+      <c r="A208" s="40">
         <v>44676</v>
       </c>
       <c r="B208">
@@ -10865,7 +10863,7 @@
       </c>
     </row>
     <row r="209" spans="1:12">
-      <c r="A209" s="50">
+      <c r="A209" s="40">
         <v>44677</v>
       </c>
       <c r="B209">
@@ -10903,7 +10901,7 @@
       </c>
     </row>
     <row r="210" spans="1:12">
-      <c r="A210" s="50">
+      <c r="A210" s="40">
         <v>44678</v>
       </c>
       <c r="B210">
@@ -10941,7 +10939,7 @@
       </c>
     </row>
     <row r="211" spans="1:12">
-      <c r="A211" s="50">
+      <c r="A211" s="40">
         <v>44679</v>
       </c>
       <c r="B211">
@@ -10979,7 +10977,7 @@
       </c>
     </row>
     <row r="212" spans="1:12">
-      <c r="A212" s="50">
+      <c r="A212" s="40">
         <v>44680</v>
       </c>
       <c r="B212">
@@ -11017,7 +11015,7 @@
       </c>
     </row>
     <row r="213" spans="1:12">
-      <c r="A213" s="50">
+      <c r="A213" s="40">
         <v>44683</v>
       </c>
       <c r="B213">
@@ -11055,7 +11053,7 @@
       </c>
     </row>
     <row r="214" spans="1:12">
-      <c r="A214" s="50">
+      <c r="A214" s="40">
         <v>44684</v>
       </c>
       <c r="B214">
@@ -11093,7 +11091,7 @@
       </c>
     </row>
     <row r="215" spans="1:12">
-      <c r="A215" s="50">
+      <c r="A215" s="40">
         <v>44685</v>
       </c>
       <c r="B215">
@@ -11131,7 +11129,7 @@
       </c>
     </row>
     <row r="216" spans="1:12">
-      <c r="A216" s="50">
+      <c r="A216" s="40">
         <v>44686</v>
       </c>
       <c r="B216">
@@ -11169,7 +11167,7 @@
       </c>
     </row>
     <row r="217" spans="1:12">
-      <c r="A217" s="50">
+      <c r="A217" s="40">
         <v>44687</v>
       </c>
       <c r="B217">
@@ -11207,7 +11205,7 @@
       </c>
     </row>
     <row r="218" spans="1:12">
-      <c r="A218" s="50">
+      <c r="A218" s="40">
         <v>44690</v>
       </c>
       <c r="B218">
@@ -11245,7 +11243,7 @@
       </c>
     </row>
     <row r="219" spans="1:12">
-      <c r="A219" s="50">
+      <c r="A219" s="40">
         <v>44691</v>
       </c>
       <c r="B219">
@@ -11283,7 +11281,7 @@
       </c>
     </row>
     <row r="220" spans="1:12">
-      <c r="A220" s="50">
+      <c r="A220" s="40">
         <v>44692</v>
       </c>
       <c r="B220">
@@ -11321,7 +11319,7 @@
       </c>
     </row>
     <row r="221" spans="1:12">
-      <c r="A221" s="50">
+      <c r="A221" s="40">
         <v>44693</v>
       </c>
       <c r="B221">
@@ -11359,7 +11357,7 @@
       </c>
     </row>
     <row r="222" spans="1:12">
-      <c r="A222" s="50">
+      <c r="A222" s="40">
         <v>44694</v>
       </c>
       <c r="B222">
@@ -11397,7 +11395,7 @@
       </c>
     </row>
     <row r="223" spans="1:12">
-      <c r="A223" s="50">
+      <c r="A223" s="40">
         <v>44697</v>
       </c>
       <c r="B223">
@@ -11435,7 +11433,7 @@
       </c>
     </row>
     <row r="224" spans="1:12">
-      <c r="A224" s="50">
+      <c r="A224" s="40">
         <v>44698</v>
       </c>
       <c r="B224">
@@ -11473,7 +11471,7 @@
       </c>
     </row>
     <row r="225" spans="1:12">
-      <c r="A225" s="50">
+      <c r="A225" s="40">
         <v>44699</v>
       </c>
       <c r="B225">
@@ -11511,7 +11509,7 @@
       </c>
     </row>
     <row r="226" spans="1:12">
-      <c r="A226" s="50">
+      <c r="A226" s="40">
         <v>44700</v>
       </c>
       <c r="B226">
@@ -11549,7 +11547,7 @@
       </c>
     </row>
     <row r="227" spans="1:12">
-      <c r="A227" s="50">
+      <c r="A227" s="40">
         <v>44701</v>
       </c>
       <c r="B227">
@@ -11587,7 +11585,7 @@
       </c>
     </row>
     <row r="228" spans="1:12">
-      <c r="A228" s="50">
+      <c r="A228" s="40">
         <v>44704</v>
       </c>
       <c r="B228">
@@ -11625,7 +11623,7 @@
       </c>
     </row>
     <row r="229" spans="1:12">
-      <c r="A229" s="50">
+      <c r="A229" s="40">
         <v>44705</v>
       </c>
       <c r="B229">
@@ -11663,7 +11661,7 @@
       </c>
     </row>
     <row r="230" spans="1:12">
-      <c r="A230" s="50">
+      <c r="A230" s="40">
         <v>44706</v>
       </c>
       <c r="B230">
@@ -11701,7 +11699,7 @@
       </c>
     </row>
     <row r="231" spans="1:12">
-      <c r="A231" s="50">
+      <c r="A231" s="40">
         <v>44707</v>
       </c>
       <c r="B231">
@@ -11739,7 +11737,7 @@
       </c>
     </row>
     <row r="232" spans="1:12">
-      <c r="A232" s="50">
+      <c r="A232" s="40">
         <v>44708</v>
       </c>
       <c r="B232">
@@ -11777,7 +11775,7 @@
       </c>
     </row>
     <row r="233" spans="1:12">
-      <c r="A233" s="50">
+      <c r="A233" s="40">
         <v>44712</v>
       </c>
       <c r="B233">
@@ -11815,7 +11813,7 @@
       </c>
     </row>
     <row r="234" spans="1:12">
-      <c r="A234" s="50">
+      <c r="A234" s="40">
         <v>44713</v>
       </c>
       <c r="B234">
@@ -11853,7 +11851,7 @@
       </c>
     </row>
     <row r="235" spans="1:12">
-      <c r="A235" s="50">
+      <c r="A235" s="40">
         <v>44714</v>
       </c>
       <c r="B235">
@@ -11891,7 +11889,7 @@
       </c>
     </row>
     <row r="236" spans="1:12">
-      <c r="A236" s="50">
+      <c r="A236" s="40">
         <v>44715</v>
       </c>
       <c r="B236">
@@ -11929,7 +11927,7 @@
       </c>
     </row>
     <row r="237" spans="1:12">
-      <c r="A237" s="50">
+      <c r="A237" s="40">
         <v>44718</v>
       </c>
       <c r="B237">
@@ -11967,7 +11965,7 @@
       </c>
     </row>
     <row r="238" spans="1:12">
-      <c r="A238" s="50">
+      <c r="A238" s="40">
         <v>44719</v>
       </c>
       <c r="B238">
@@ -12005,7 +12003,7 @@
       </c>
     </row>
     <row r="239" spans="1:12">
-      <c r="A239" s="50">
+      <c r="A239" s="40">
         <v>44720</v>
       </c>
       <c r="B239">
@@ -12043,7 +12041,7 @@
       </c>
     </row>
     <row r="240" spans="1:12">
-      <c r="A240" s="50">
+      <c r="A240" s="40">
         <v>44721</v>
       </c>
       <c r="B240">
@@ -12081,7 +12079,7 @@
       </c>
     </row>
     <row r="241" spans="1:12">
-      <c r="A241" s="50">
+      <c r="A241" s="40">
         <v>44722</v>
       </c>
       <c r="B241">
@@ -12119,7 +12117,7 @@
       </c>
     </row>
     <row r="242" spans="1:12">
-      <c r="A242" s="50">
+      <c r="A242" s="40">
         <v>44725</v>
       </c>
       <c r="B242">
@@ -12157,7 +12155,7 @@
       </c>
     </row>
     <row r="243" spans="1:12">
-      <c r="A243" s="50">
+      <c r="A243" s="40">
         <v>44726</v>
       </c>
       <c r="B243">
@@ -12195,7 +12193,7 @@
       </c>
     </row>
     <row r="244" spans="1:12">
-      <c r="A244" s="50">
+      <c r="A244" s="40">
         <v>44727</v>
       </c>
       <c r="B244">
@@ -12233,7 +12231,7 @@
       </c>
     </row>
     <row r="245" spans="1:12">
-      <c r="A245" s="50">
+      <c r="A245" s="40">
         <v>44728</v>
       </c>
       <c r="B245">
@@ -12271,7 +12269,7 @@
       </c>
     </row>
     <row r="246" spans="1:12">
-      <c r="A246" s="50">
+      <c r="A246" s="40">
         <v>44729</v>
       </c>
       <c r="B246">
@@ -12309,7 +12307,7 @@
       </c>
     </row>
     <row r="247" spans="1:12">
-      <c r="A247" s="50">
+      <c r="A247" s="40">
         <v>44733</v>
       </c>
       <c r="B247">
@@ -12347,7 +12345,7 @@
       </c>
     </row>
     <row r="248" spans="1:12">
-      <c r="A248" s="50">
+      <c r="A248" s="40">
         <v>44734</v>
       </c>
       <c r="B248">
@@ -12385,7 +12383,7 @@
       </c>
     </row>
     <row r="249" spans="1:12">
-      <c r="A249" s="50">
+      <c r="A249" s="40">
         <v>44735</v>
       </c>
       <c r="B249">
@@ -12423,7 +12421,7 @@
       </c>
     </row>
     <row r="250" spans="1:12">
-      <c r="A250" s="50">
+      <c r="A250" s="40">
         <v>44736</v>
       </c>
       <c r="B250">
@@ -12461,7 +12459,7 @@
       </c>
     </row>
     <row r="251" spans="1:12">
-      <c r="A251" s="50">
+      <c r="A251" s="40">
         <v>44739</v>
       </c>
       <c r="B251">
@@ -12499,7 +12497,7 @@
       </c>
     </row>
     <row r="252" spans="1:12">
-      <c r="A252" s="50">
+      <c r="A252" s="40">
         <v>44740</v>
       </c>
       <c r="B252">
@@ -12537,7 +12535,7 @@
       </c>
     </row>
     <row r="253" spans="1:12">
-      <c r="A253" s="50">
+      <c r="A253" s="40">
         <v>44741</v>
       </c>
       <c r="B253">
@@ -12575,7 +12573,7 @@
       </c>
     </row>
     <row r="254" spans="1:12">
-      <c r="A254" s="50">
+      <c r="A254" s="40">
         <v>44742</v>
       </c>
       <c r="B254">
@@ -12686,7 +12684,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="50">
+      <c r="A2" s="40">
         <v>44742</v>
       </c>
       <c r="B2">
@@ -12790,7 +12788,7 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="50">
+      <c r="A2" s="40">
         <v>44742</v>
       </c>
       <c r="B2">
@@ -12831,7 +12829,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="50">
+      <c r="A3" s="40">
         <v>44742</v>
       </c>
       <c r="B3">
@@ -12872,7 +12870,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="50">
+      <c r="A4" s="40">
         <v>44742</v>
       </c>
       <c r="B4">
@@ -12913,7 +12911,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="50">
+      <c r="A5" s="40">
         <v>44742</v>
       </c>
       <c r="B5">

--- a/Portfolio Optimization Tool.xlsx
+++ b/Portfolio Optimization Tool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanlupinski/PycharmProjects/Finance/Portfolio Optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFBA319-B2A8-3842-AFAD-6B5A80E97309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB96B85-69E7-9044-80C5-3DC752523378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2057,7 +2057,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>

--- a/Portfolio Optimization Tool.xlsx
+++ b/Portfolio Optimization Tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanlupinski/PycharmProjects/Finance/Portfolio Optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4045ECFA-93B4-AE42-B191-E6217A9C9926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0B1897-24D5-9F40-850A-728631A57183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Portfolio Optimization Tool.xlsx
+++ b/Portfolio Optimization Tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanlupinski/PycharmProjects/Finance/Portfolio Optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB96B85-69E7-9044-80C5-3DC752523378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E736EB70-6DFC-AD4F-A337-AFE5CFFCDCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Portfolio!$B$2:$P$16</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Portfolio!$B$4:$F$15</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Portfolio!$F$4:$F$15</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Portfolio!$B$4:$F$15</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Portfolio!$F$4:$F$15</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Portfolio!$B$4:$F$15</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Portfolio!$F$4:$F$15</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Portfolio!$B$4:$F$15</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Portfolio!$F$4:$F$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -976,10 +982,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2057,9 +2063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>

--- a/Portfolio Optimization Tool.xlsx
+++ b/Portfolio Optimization Tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanlupinski/PycharmProjects/Finance/Portfolio Optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E736EB70-6DFC-AD4F-A337-AFE5CFFCDCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC46DEB5-F81B-AC48-BD6F-18B80414A51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Portfolio!$B$2:$P$16</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Portfolio!$B$4:$F$15</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Portfolio!$F$4:$F$15</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Portfolio!$B$4:$F$15</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Portfolio!$F$4:$F$15</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Portfolio!$B$4:$F$15</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Portfolio!$F$4:$F$15</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Portfolio!$B$4:$F$15</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Portfolio!$F$4:$F$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -982,10 +976,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>

--- a/Portfolio Optimization Tool.xlsx
+++ b/Portfolio Optimization Tool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanlupinski/PycharmProjects/Finance/Portfolio Optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C93EFAE-AD9A-0D46-8C15-5A7CB204DA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C314B3C-3372-2C4F-80BC-3D57E96BD5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Performance Data" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Portfolio!$B$2:$P$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Portfolio!$B$2:$Q$16</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Portfolio!$B$4:$F$15</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Portfolio!$F$4:$F$15</definedName>
   </definedNames>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>Rank</t>
   </si>
@@ -182,15 +182,37 @@
   <si>
     <t>Is Closing Price
 above 200MA?</t>
+  </si>
+  <si>
+    <t>Trinity</t>
+  </si>
+  <si>
+    <t>Trend</t>
+  </si>
+  <si>
+    <t>Portfolio Types</t>
+  </si>
+  <si>
+    <t>Total %</t>
+  </si>
+  <si>
+    <t>Total $</t>
+  </si>
+  <si>
+    <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Select Portfolio ⬇️</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -259,7 +281,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,8 +396,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -613,13 +647,149 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -627,15 +797,75 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,10 +888,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -678,7 +906,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -690,39 +918,16 @@
     <xf numFmtId="10" fontId="6" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="6" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -741,13 +946,79 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="6" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="21" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="21" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -765,18 +1036,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1015,12 +1274,6 @@
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="treemap" uniqueId="{7296CCF6-B714-B04B-B365-6100606E4805}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f/>
-              <cx:v>Portfolio</cx:v>
-            </cx:txData>
-          </cx:tx>
           <cx:dataLabels pos="ctr">
             <cx:txPr>
               <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
@@ -1054,7 +1307,7 @@
         <a:lumOff val="80000"/>
       </a:schemeClr>
     </a:solidFill>
-    <a:ln w="19050">
+    <a:ln w="38100">
       <a:solidFill>
         <a:schemeClr val="tx1"/>
       </a:solidFill>
@@ -1685,10 +1938,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>712611</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>204611</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1411</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1411</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1724,8 +1977,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="241300" y="3467100"/>
-              <a:ext cx="13539611" cy="4471811"/>
+              <a:off x="241300" y="3492500"/>
+              <a:ext cx="14555611" cy="4471811"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1758,8 +2011,18 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{43E43A81-3C0C-DA46-ACFC-0A85830D3E60}" name="Table3" displayName="Table3" ref="B43:B45" totalsRowShown="0">
+  <autoFilter ref="B43:B45" xr:uid="{43E43A81-3C0C-DA46-ACFC-0A85830D3E60}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{E6B426B8-CB9F-BA41-A55D-780FF1702C2D}" name="Portfolio Types"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2047,7 +2310,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2055,10 +2318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P16"/>
+  <dimension ref="B1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2066,795 +2329,901 @@
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="14.5" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:16" ht="17" thickBot="1">
-      <c r="G2" s="47" t="s">
+    <row r="1" spans="2:17" ht="14.5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:17" ht="17" thickBot="1">
+      <c r="H2" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="46">
         <f>INDEX('Price Data'!$A$2:$A$265,COUNT('Price Data'!$A$2:$A$265))</f>
-        <v>44771</v>
-      </c>
-      <c r="K2" s="50">
+        <v>44895</v>
+      </c>
+      <c r="L2" s="47">
         <f>INDEX('Price Data'!$L$2:$L$255,COUNT('Price Data'!$L$2:$L$255))</f>
-        <v>98.959999084472599</v>
-      </c>
-      <c r="L2" s="41" t="s">
+        <v>88.080001831054602</v>
+      </c>
+      <c r="M2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="N2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="O2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="P2" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="Q2" s="60" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:16">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="2:17">
+      <c r="B3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="29" t="s">
+      <c r="F3" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="J3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="K3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="L3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="57"/>
+      <c r="N3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="O3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="44"/>
-      <c r="P3" s="46"/>
-    </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="20" t="s">
+      <c r="P3" s="59"/>
+      <c r="Q3" s="61"/>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="38">
-        <f>IF(P4="add 10%",0.1,0)</f>
+      <c r="D4" s="28">
+        <f>IF($N$17="Trinity",0.05,0)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="21">
-        <f t="shared" ref="F4:F15" si="0">D4+E4</f>
-        <v>0.05</v>
-      </c>
-      <c r="G4" s="30">
+      <c r="E4" s="29">
+        <f>IF(Q4="n/a",0,IF(Q4="add 10%",0.1,0.2))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="30">
+        <f t="shared" ref="F4:F14" si="0">IF($N$17="Trinity",(D4+E4),E4)</f>
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="42">
+        <f t="shared" ref="G4:G15" si="1">F4*$P$17</f>
+        <v>20000</v>
+      </c>
+      <c r="H4" s="25">
         <f>'Performance Data'!$B$2</f>
-        <v>5.1697611675497197E-2</v>
-      </c>
-      <c r="H4" s="4">
+        <v>3.4678915865306199E-2</v>
+      </c>
+      <c r="I4" s="2">
         <f>'Performance Data'!$B$3</f>
-        <v>-2.14022540546665E-2</v>
-      </c>
-      <c r="I4" s="4">
+        <v>8.6795654241217796E-2</v>
+      </c>
+      <c r="J4" s="2">
         <f>'Performance Data'!$B$4</f>
-        <v>-0.12869985203280099</v>
-      </c>
-      <c r="J4" s="4">
+        <v>4.8607703338702603E-2</v>
+      </c>
+      <c r="K4" s="2">
         <f>'Performance Data'!$B$5</f>
-        <v>-0.173119133577818</v>
-      </c>
-      <c r="K4" s="12">
-        <f t="shared" ref="K4:K14" si="1">AVERAGE(G4:J4)</f>
-        <v>-6.7880906997447074E-2</v>
-      </c>
-      <c r="L4" s="5">
-        <f t="shared" ref="L4:L14" si="2">_xlfn.RANK.EQ(K4,$K$4:$K$14,0)</f>
-        <v>9</v>
-      </c>
-      <c r="M4" s="13">
+        <v>-0.15985448289607401</v>
+      </c>
+      <c r="L4" s="10">
+        <f t="shared" ref="L4:L14" si="2">AVERAGE(H4:K4)</f>
+        <v>2.5569476372881428E-3</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" ref="M4:M14" si="3">_xlfn.RANK.EQ(L4,$L$4:$L$14,0)</f>
+        <v>5</v>
+      </c>
+      <c r="N4" s="11">
         <f>INDEX('Price Data'!$B$2:$B$265,COUNT('Price Data'!$B$2:$B$265))</f>
-        <v>143.419998168945</v>
-      </c>
-      <c r="N4" s="14">
+        <v>152.759994506835</v>
+      </c>
+      <c r="O4" s="12">
         <f>'200D SMA'!$B$2</f>
-        <v>162.18560005187899</v>
-      </c>
-      <c r="O4" s="7" t="str">
-        <f t="shared" ref="O4:O14" si="3">IF(M4&gt;N4,"yes","no")</f>
+        <v>146.41060066223099</v>
+      </c>
+      <c r="P4" s="5" t="str">
+        <f t="shared" ref="P4:P14" si="4">IF(N4&gt;O4,"yes","no")</f>
+        <v>yes</v>
+      </c>
+      <c r="Q4" s="6" t="str">
+        <f t="shared" ref="Q4:Q14" si="5">IF(M4&gt;5,"n/a",IF(P4="yes", (IF($N$17="Trinity","add 10%","add 20%")),"n/a"))</f>
+        <v>add 20%</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="28">
+        <f>IF($N$17="Trinity",0.05,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="29">
+        <f t="shared" ref="E5:E14" si="6">IF(Q5="n/a",0,IF(Q5="add 10%",0.1,0.2))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="30">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="42">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="H5" s="25">
+        <f>'Performance Data'!$C$2</f>
+        <v>5.9940597226144803E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <f>'Performance Data'!$C$3</f>
+        <v>8.4544715699239298E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <f>'Performance Data'!$C$4</f>
+        <v>2.1441022772712801E-2</v>
+      </c>
+      <c r="K5" s="2">
+        <f>'Performance Data'!$C$5</f>
+        <v>7.5784923497248705E-2</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" si="2"/>
+        <v>6.0427814798836396E-2</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="11">
+        <f>INDEX('Price Data'!$C$2:$C$265,COUNT('Price Data'!$C$2:$C$265))</f>
+        <v>146.24000549316401</v>
+      </c>
+      <c r="O5" s="12">
+        <f>'200D SMA'!$C$2</f>
+        <v>138.68065002441401</v>
+      </c>
+      <c r="P5" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>yes</v>
+      </c>
+      <c r="Q5" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>add 20%</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="28">
+        <f>IF($N$17="Trinity",0.0675,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="29">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="30">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="42">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="H6" s="25">
+        <f>'Performance Data'!$D$2</f>
+        <v>0.13145852920006501</v>
+      </c>
+      <c r="I6" s="2">
+        <f>'Performance Data'!$D$3</f>
+        <v>5.1032814970732802E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <f>'Performance Data'!$D$4</f>
+        <v>-4.0745869403052401E-2</v>
+      </c>
+      <c r="K6" s="2">
+        <f>'Performance Data'!$D$5</f>
+        <v>-0.109947789888844</v>
+      </c>
+      <c r="L6" s="10">
+        <f t="shared" si="2"/>
+        <v>7.9494212197253507E-3</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N6" s="11">
+        <f>INDEX('Price Data'!$D$2:$D$265,COUNT('Price Data'!$D$2:$D$265))</f>
+        <v>51.900001525878899</v>
+      </c>
+      <c r="O6" s="12">
+        <f>'200D SMA'!$D$2</f>
+        <v>51.532799892425501</v>
+      </c>
+      <c r="P6" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>yes</v>
+      </c>
+      <c r="Q6" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>add 20%</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="28">
+        <f>IF($N$17="Trinity",0.0225,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
+        <f>'Performance Data'!$E$2</f>
+        <v>0.14301832399745801</v>
+      </c>
+      <c r="I7" s="2">
+        <f>'Performance Data'!$E$3</f>
+        <v>-1.48310380381793E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <f>'Performance Data'!$E$4</f>
+        <v>-6.4588468505597393E-2</v>
+      </c>
+      <c r="K7" s="2">
+        <f>'Performance Data'!$E$5</f>
+        <v>-0.159524880918365</v>
+      </c>
+      <c r="L7" s="10">
+        <f t="shared" si="2"/>
+        <v>-2.3981515866170925E-2</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N7" s="11">
+        <f>INDEX('Price Data'!$E$2:$E$265,COUNT('Price Data'!$E$2:$E$265))</f>
+        <v>40.520000457763601</v>
+      </c>
+      <c r="O7" s="12">
+        <f>'200D SMA'!$E$2</f>
+        <v>41.684300117492597</v>
+      </c>
+      <c r="P7" s="7" t="str">
+        <f t="shared" si="4"/>
         <v>no</v>
       </c>
-      <c r="P4" s="8" t="str">
-        <f>IF(L4&gt;5,"n/a",IF(O4="yes","add 10%","n/a"))</f>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="38">
-        <f t="shared" ref="E5:E14" si="4">IF(P5="add 10%",0.1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="21">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="G5" s="30">
-        <f>'Performance Data'!$C$2</f>
-        <v>5.0576265711183899E-2</v>
-      </c>
-      <c r="H5" s="4">
-        <f>'Performance Data'!$C$3</f>
-        <v>-8.9550821540127501E-3</v>
-      </c>
-      <c r="I5" s="4">
-        <f>'Performance Data'!$C$4</f>
-        <v>-3.67159231584719E-2</v>
-      </c>
-      <c r="J5" s="4">
-        <f>'Performance Data'!$C$5</f>
-        <v>2.1853222698748599E-2</v>
-      </c>
-      <c r="K5" s="12">
-        <f t="shared" si="1"/>
-        <v>6.689620774361962E-3</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="M5" s="13">
-        <f>INDEX('Price Data'!$C$2:$C$265,COUNT('Price Data'!$C$2:$C$265))</f>
-        <v>138.55000305175699</v>
-      </c>
-      <c r="N5" s="14">
-        <f>'200D SMA'!$C$2</f>
-        <v>142.498550109863</v>
-      </c>
-      <c r="O5" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
-      </c>
-      <c r="P5" s="8" t="str">
-        <f t="shared" ref="P5:P14" si="5">IF(L5&gt;5,"n/a",IF(O5="yes","add 10%","n/a"))</f>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="E6" s="38">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="21">
-        <f t="shared" si="0"/>
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="G6" s="30">
-        <f>'Performance Data'!$D$2</f>
-        <v>3.3827111136427203E-2</v>
-      </c>
-      <c r="H6" s="4">
-        <f>'Performance Data'!$D$3</f>
-        <v>-2.9769108526151201E-2</v>
-      </c>
-      <c r="I6" s="4">
-        <f>'Performance Data'!$D$4</f>
-        <v>-0.124685698548592</v>
-      </c>
-      <c r="J6" s="4">
-        <f>'Performance Data'!$D$5</f>
-        <v>-0.14540183522511099</v>
-      </c>
-      <c r="K6" s="12">
-        <f t="shared" si="1"/>
-        <v>-6.6507382790856745E-2</v>
-      </c>
-      <c r="L6" s="5">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="M6" s="13">
-        <f>INDEX('Price Data'!$D$2:$D$265,COUNT('Price Data'!$D$2:$D$265))</f>
-        <v>51.650001525878899</v>
-      </c>
-      <c r="N6" s="14">
-        <f>'200D SMA'!$D$2</f>
-        <v>57.180449886322002</v>
-      </c>
-      <c r="O6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
-      </c>
-      <c r="P6" s="8" t="str">
+      <c r="Q7" s="6" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="E7" s="38">
+    <row r="8" spans="2:17">
+      <c r="B8" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="28">
+        <f>IF($N$17="Trinity",0.089,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
+        <f>'Performance Data'!$F$2</f>
+        <v>4.5502900509695403E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <f>'Performance Data'!$F$3</f>
+        <v>-1.3185928149937499E-2</v>
+      </c>
+      <c r="J8" s="2">
+        <f>'Performance Data'!$F$4</f>
+        <v>-4.01839705834936E-2</v>
+      </c>
+      <c r="K8" s="2">
+        <f>'Performance Data'!$F$5</f>
+        <v>-0.137182500273305</v>
+      </c>
+      <c r="L8" s="10">
+        <f t="shared" si="2"/>
+        <v>-3.6262374624260171E-2</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="N8" s="11">
+        <f>INDEX('Price Data'!$F$2:$F$265,COUNT('Price Data'!$F$2:$F$265))</f>
+        <v>78.580001831054602</v>
+      </c>
+      <c r="O8" s="12">
+        <f>'200D SMA'!$F$2</f>
+        <v>80.832650146484298</v>
+      </c>
+      <c r="P8" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="21">
-        <f t="shared" si="0"/>
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="G7" s="30">
-        <f>'Performance Data'!$E$2</f>
-        <v>-7.9232129403324896E-3</v>
-      </c>
-      <c r="H7" s="4">
-        <f>'Performance Data'!$E$3</f>
-        <v>-4.1728609308223398E-2</v>
-      </c>
-      <c r="I7" s="4">
-        <f>'Performance Data'!$E$4</f>
-        <v>-0.159500386542652</v>
-      </c>
-      <c r="J7" s="4">
-        <f>'Performance Data'!$E$5</f>
-        <v>-0.16747407567616601</v>
-      </c>
-      <c r="K7" s="12">
-        <f t="shared" si="1"/>
-        <v>-9.4156571116843474E-2</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="M7" s="13">
-        <f>INDEX('Price Data'!$E$2:$E$265,COUNT('Price Data'!$E$2:$E$265))</f>
-        <v>41.319999694824197</v>
-      </c>
-      <c r="N7" s="14">
-        <f>'200D SMA'!$E$2</f>
-        <v>46.512600002288799</v>
-      </c>
-      <c r="O7" s="9" t="str">
-        <f t="shared" si="3"/>
         <v>no</v>
       </c>
-      <c r="P7" s="8" t="str">
+      <c r="Q8" s="6" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="E8" s="38">
+    <row r="9" spans="2:17">
+      <c r="B9" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="28">
+        <f>IF($N$17="Trinity",0.0675,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
+        <f>'Performance Data'!$G$2</f>
+        <v>6.4516131099709495E-2</v>
+      </c>
+      <c r="I9" s="2">
+        <f>'Performance Data'!$G$3</f>
+        <v>-7.5036487440123506E-2</v>
+      </c>
+      <c r="J9" s="2">
+        <f>'Performance Data'!$G$4</f>
+        <v>-0.105436821043673</v>
+      </c>
+      <c r="K9" s="2">
+        <f>'Performance Data'!$G$5</f>
+        <v>-0.29591870127962999</v>
+      </c>
+      <c r="L9" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.10296896966592925</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="N9" s="11">
+        <f>INDEX('Price Data'!$G$2:$G$265,COUNT('Price Data'!$G$2:$G$265))</f>
+        <v>63.360000610351499</v>
+      </c>
+      <c r="O9" s="12">
+        <f>'200D SMA'!$G$2</f>
+        <v>70.192349815368601</v>
+      </c>
+      <c r="P9" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="21">
-        <f t="shared" si="0"/>
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="G8" s="30">
-        <f>'Performance Data'!$F$2</f>
-        <v>3.9182319349601202E-2</v>
-      </c>
-      <c r="H8" s="4">
-        <f>'Performance Data'!$F$3</f>
-        <v>2.4150530201403699E-2</v>
-      </c>
-      <c r="I8" s="4">
-        <f>'Performance Data'!$F$4</f>
-        <v>-7.1087394875661999E-2</v>
-      </c>
-      <c r="J8" s="4">
-        <f>'Performance Data'!$F$5</f>
-        <v>-0.110153811423918</v>
-      </c>
-      <c r="K8" s="12">
-        <f t="shared" si="1"/>
-        <v>-2.9477089187143774E-2</v>
-      </c>
-      <c r="L8" s="5">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="M8" s="13">
-        <f>INDEX('Price Data'!$F$2:$F$265,COUNT('Price Data'!$F$2:$F$265))</f>
-        <v>82.959999084472599</v>
-      </c>
-      <c r="N8" s="14">
-        <f>'200D SMA'!$F$2</f>
-        <v>87.094549942016599</v>
-      </c>
-      <c r="O8" s="9" t="str">
-        <f t="shared" si="3"/>
         <v>no</v>
       </c>
-      <c r="P8" s="8" t="str">
+      <c r="Q9" s="6" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="E9" s="38">
+    <row r="10" spans="2:17">
+      <c r="B10" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="28">
+        <f>IF($N$17="Trinity",0.072,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
+        <f>'Performance Data'!$H$2</f>
+        <v>2.31539558228759E-2</v>
+      </c>
+      <c r="I10" s="2">
+        <f>'Performance Data'!$H$3</f>
+        <v>-3.0488114543258901E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <f>'Performance Data'!$H$4</f>
+        <v>-2.5159925801493701E-2</v>
+      </c>
+      <c r="K10" s="2">
+        <f>'Performance Data'!$H$5</f>
+        <v>-0.11241263936543</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" si="2"/>
+        <v>-2.9366855199593422E-2</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="11">
+        <f>INDEX('Price Data'!$H$2:$H$265,COUNT('Price Data'!$H$2:$H$265))</f>
+        <v>49.049999237060497</v>
+      </c>
+      <c r="O10" s="12">
+        <f>'200D SMA'!$H$2</f>
+        <v>50.098649902343702</v>
+      </c>
+      <c r="P10" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="21">
-        <f t="shared" si="0"/>
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="G9" s="30">
-        <f>'Performance Data'!$G$2</f>
-        <v>2.61939182019887E-2</v>
-      </c>
-      <c r="H9" s="4">
-        <f>'Performance Data'!$G$3</f>
-        <v>-8.2264263406042204E-3</v>
-      </c>
-      <c r="I9" s="4">
-        <f>'Performance Data'!$G$4</f>
-        <v>-0.156546278555556</v>
-      </c>
-      <c r="J9" s="4">
-        <f>'Performance Data'!$G$5</f>
-        <v>-0.19245607962724301</v>
-      </c>
-      <c r="K9" s="12">
-        <f t="shared" si="1"/>
-        <v>-8.2758716580353636E-2</v>
-      </c>
-      <c r="L9" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="M9" s="13">
-        <f>INDEX('Price Data'!$G$2:$G$265,COUNT('Price Data'!$G$2:$G$265))</f>
-        <v>71.849998474121094</v>
-      </c>
-      <c r="N9" s="14">
-        <f>'200D SMA'!$G$2</f>
-        <v>80.300399818420402</v>
-      </c>
-      <c r="O9" s="9" t="str">
-        <f t="shared" si="3"/>
         <v>no</v>
       </c>
-      <c r="P9" s="8" t="str">
+      <c r="Q10" s="6" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="E10" s="38">
+    <row r="11" spans="2:17">
+      <c r="B11" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="28">
+        <f>IF($N$17="Trinity",0.009,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
+        <f>'Performance Data'!$I$2</f>
+        <v>5.2356020942410098E-3</v>
+      </c>
+      <c r="I11" s="2">
+        <f>'Performance Data'!$I$3</f>
+        <v>-3.1672376527937501E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <f>'Performance Data'!$I$4</f>
+        <v>-4.4658050028896397E-2</v>
+      </c>
+      <c r="K11" s="2">
+        <f>'Performance Data'!$I$5</f>
+        <v>-3.9684588787439898E-2</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" si="2"/>
+        <v>-2.7694853312508195E-2</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="N11" s="11">
+        <f>INDEX('Price Data'!$I$2:$I$265,COUNT('Price Data'!$I$2:$I$265))</f>
+        <v>48</v>
+      </c>
+      <c r="O11" s="12">
+        <f>'200D SMA'!$I$2</f>
+        <v>49.788900070190401</v>
+      </c>
+      <c r="P11" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="21">
-        <f t="shared" si="0"/>
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="G10" s="30">
-        <f>'Performance Data'!$H$2</f>
-        <v>3.2183778055167402E-2</v>
-      </c>
-      <c r="H10" s="4">
-        <f>'Performance Data'!$H$3</f>
-        <v>7.5796123616362898E-3</v>
-      </c>
-      <c r="I10" s="4">
-        <f>'Performance Data'!$H$4</f>
-        <v>-5.64299659703595E-2</v>
-      </c>
-      <c r="J10" s="4">
-        <f>'Performance Data'!$H$5</f>
-        <v>-8.4708359168368302E-2</v>
-      </c>
-      <c r="K10" s="12">
-        <f t="shared" si="1"/>
-        <v>-2.5343733680481026E-2</v>
-      </c>
-      <c r="L10" s="5">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="M10" s="13">
-        <f>INDEX('Price Data'!$H$2:$H$265,COUNT('Price Data'!$H$2:$H$265))</f>
-        <v>51.090000152587798</v>
-      </c>
-      <c r="N10" s="14">
-        <f>'200D SMA'!$H$2</f>
-        <v>53.206200008392301</v>
-      </c>
-      <c r="O10" s="9" t="str">
-        <f t="shared" si="3"/>
         <v>no</v>
       </c>
-      <c r="P10" s="8" t="str">
+      <c r="Q11" s="6" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="E11" s="38">
+    <row r="12" spans="2:17">
+      <c r="B12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="28">
+        <f>IF($N$17="Trinity",0.025,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
+        <f>'Performance Data'!$J$2</f>
+        <v>1.47292563504568E-2</v>
+      </c>
+      <c r="I12" s="2">
+        <f>'Performance Data'!$J$3</f>
+        <v>-8.9424396724968602E-3</v>
+      </c>
+      <c r="J12" s="2">
+        <f>'Performance Data'!$J$4</f>
+        <v>-0.11493054005650701</v>
+      </c>
+      <c r="K12" s="2">
+        <f>'Performance Data'!$J$5</f>
+        <v>0.30852157957452703</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" si="2"/>
+        <v>4.9844464048994994E-2</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N12" s="11">
+        <f>INDEX('Price Data'!$J$2:$J$265,COUNT('Price Data'!$J$2:$J$265))</f>
+        <v>25.4899997711181</v>
+      </c>
+      <c r="O12" s="12">
+        <f>'200D SMA'!$J$2</f>
+        <v>26.225949945449798</v>
+      </c>
+      <c r="P12" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="21">
-        <f t="shared" si="0"/>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G11" s="30">
-        <f>'Performance Data'!$I$2</f>
-        <v>1.83069209808592E-2</v>
-      </c>
-      <c r="H11" s="4">
-        <f>'Performance Data'!$I$3</f>
-        <v>7.2537098619862503E-3</v>
-      </c>
-      <c r="I11" s="4">
-        <f>'Performance Data'!$I$4</f>
-        <v>9.1570536835843194E-3</v>
-      </c>
-      <c r="J11" s="4">
-        <f>'Performance Data'!$I$5</f>
-        <v>1.46157615352584E-2</v>
-      </c>
-      <c r="K11" s="12">
-        <f t="shared" si="1"/>
-        <v>1.2333361515422043E-2</v>
-      </c>
-      <c r="L11" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M11" s="13">
-        <f>INDEX('Price Data'!$I$2:$I$265,COUNT('Price Data'!$I$2:$I$265))</f>
-        <v>50.340000152587798</v>
-      </c>
-      <c r="N11" s="14">
-        <f>'200D SMA'!$I$2</f>
-        <v>51.124649982452297</v>
-      </c>
-      <c r="O11" s="9" t="str">
-        <f t="shared" si="3"/>
         <v>no</v>
       </c>
-      <c r="P11" s="8" t="str">
+      <c r="Q12" s="6" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E12" s="38">
+    <row r="13" spans="2:17">
+      <c r="B13" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="28">
+        <f>IF($N$17="Trinity",0.025,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
+        <f>'Performance Data'!$K$2</f>
+        <v>8.4570657540288405E-2</v>
+      </c>
+      <c r="I13" s="2">
+        <f>'Performance Data'!$K$3</f>
+        <v>3.5120130061671903E-2</v>
+      </c>
+      <c r="J13" s="2">
+        <f>'Performance Data'!$K$4</f>
+        <v>-3.64210065003015E-2</v>
+      </c>
+      <c r="K13" s="2">
+        <f>'Performance Data'!$K$5</f>
+        <v>-2.3753512568229699E-3</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="2"/>
+        <v>2.0223607461208961E-2</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N13" s="11">
+        <f>INDEX('Price Data'!$K$2:$K$265,COUNT('Price Data'!$K$2:$K$265))</f>
+        <v>33.599998474121001</v>
+      </c>
+      <c r="O13" s="12">
+        <f>'200D SMA'!$K$2</f>
+        <v>34.163800067901597</v>
+      </c>
+      <c r="P13" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="F12" s="21">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="G12" s="30">
-        <f>'Performance Data'!$J$2</f>
-        <v>-1.9894849528518499E-2</v>
-      </c>
-      <c r="H12" s="4">
-        <f>'Performance Data'!$J$3</f>
-        <v>-5.1580095927231298E-2</v>
-      </c>
-      <c r="I12" s="4">
-        <f>'Performance Data'!$J$4</f>
-        <v>0.164585215053556</v>
-      </c>
-      <c r="J12" s="4">
-        <f>'Performance Data'!$J$5</f>
-        <v>0.33897439027443799</v>
-      </c>
-      <c r="K12" s="12">
-        <f t="shared" si="1"/>
-        <v>0.10802116496806105</v>
-      </c>
-      <c r="L12" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M12" s="13">
-        <f>INDEX('Price Data'!$J$2:$J$265,COUNT('Price Data'!$J$2:$J$265))</f>
-        <v>26.110000610351499</v>
-      </c>
-      <c r="N12" s="14">
-        <f>'200D SMA'!$J$2</f>
-        <v>24.467199916839601</v>
-      </c>
-      <c r="O12" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>yes</v>
-      </c>
-      <c r="P12" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>add 10%</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E13" s="38">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="21">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G13" s="30">
-        <f>'Performance Data'!$K$2</f>
-        <v>-2.50655953345734E-2</v>
-      </c>
-      <c r="H13" s="4">
-        <f>'Performance Data'!$K$3</f>
-        <v>-7.1864597302827002E-2</v>
-      </c>
-      <c r="I13" s="4">
-        <f>'Performance Data'!$K$4</f>
-        <v>-2.2501473708242899E-2</v>
-      </c>
-      <c r="J13" s="4">
-        <f>'Performance Data'!$K$5</f>
-        <v>-3.2118071939934198E-2</v>
-      </c>
-      <c r="K13" s="12">
-        <f t="shared" si="1"/>
-        <v>-3.7887434571394374E-2</v>
-      </c>
-      <c r="L13" s="5">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="M13" s="13">
-        <f>INDEX('Price Data'!$K$2:$K$265,COUNT('Price Data'!$K$2:$K$265))</f>
-        <v>33.450000762939403</v>
-      </c>
-      <c r="N13" s="14">
-        <f>'200D SMA'!$K$2</f>
-        <v>34.989850082397403</v>
-      </c>
-      <c r="O13" s="9" t="str">
-        <f t="shared" si="3"/>
         <v>no</v>
       </c>
-      <c r="P13" s="8" t="str">
+      <c r="Q13" s="6" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="17" thickBot="1">
-      <c r="B14" s="20" t="s">
+    <row r="14" spans="2:17" ht="17" thickBot="1">
+      <c r="B14" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="2">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="E14" s="38">
+      <c r="D14" s="28">
+        <f>IF($N$17="Trinity",0.0225,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="26">
+        <f>'Performance Data'!$L$2</f>
+        <v>6.1460572039070398E-2</v>
+      </c>
+      <c r="I14" s="17">
+        <f>'Performance Data'!$L$3</f>
+        <v>-5.30050552837837E-2</v>
+      </c>
+      <c r="J14" s="17">
+        <f>'Performance Data'!$L$4</f>
+        <v>-0.10526812609798999</v>
+      </c>
+      <c r="K14" s="17">
+        <f>'Performance Data'!$L$5</f>
+        <v>-0.15717285793402</v>
+      </c>
+      <c r="L14" s="18">
+        <f t="shared" si="2"/>
+        <v>-6.3496366819180833E-2</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N14" s="16">
+        <f>INDEX('Price Data'!$L$2:$L$265,COUNT('Price Data'!$L$2:$L$265))</f>
+        <v>88.080001831054602</v>
+      </c>
+      <c r="O14" s="13">
+        <f>'200D SMA'!$L$2</f>
+        <v>94.753450126647905</v>
+      </c>
+      <c r="P14" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="21">
-        <f t="shared" si="0"/>
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="G14" s="31">
-        <f>'Performance Data'!$L$2</f>
-        <v>8.6159569987195497E-2</v>
-      </c>
-      <c r="H14" s="32">
-        <f>'Performance Data'!$L$3</f>
-        <v>-4.1847360669033301E-2</v>
-      </c>
-      <c r="I14" s="32">
-        <f>'Performance Data'!$L$4</f>
-        <v>-5.7460742866457103E-2</v>
-      </c>
-      <c r="J14" s="32">
-        <f>'Performance Data'!$L$5</f>
-        <v>-4.31583593225595E-2</v>
-      </c>
-      <c r="K14" s="33">
-        <f t="shared" si="1"/>
-        <v>-1.4076723217713602E-2</v>
-      </c>
-      <c r="L14" s="6">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="M14" s="28">
-        <f>INDEX('Price Data'!$L$2:$L$265,COUNT('Price Data'!$L$2:$L$265))</f>
-        <v>98.959999084472599</v>
-      </c>
-      <c r="N14" s="15">
-        <f>'200D SMA'!$L$2</f>
-        <v>103.860850105285</v>
-      </c>
-      <c r="O14" s="10" t="str">
-        <f t="shared" si="3"/>
         <v>no</v>
       </c>
-      <c r="P14" s="11" t="str">
+      <c r="Q14" s="9" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="20" t="s">
+    <row r="15" spans="2:17" ht="17" thickBot="1">
+      <c r="B15" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="28">
         <v>0</v>
       </c>
-      <c r="E15" s="38">
-        <f>0.5-SUM(E4:E14)</f>
-        <v>0.4</v>
-      </c>
-      <c r="F15" s="21">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" ht="17" thickBot="1">
-      <c r="B16" s="22" t="s">
+      <c r="E15" s="29">
+        <f>IF($N$17="Trinity",0.5-SUM(E4:E14), 1-SUM(E4:E14))</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="F15" s="30">
+        <f t="shared" ref="F15" si="7">D15+E15</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="G15" s="42">
+        <f t="shared" si="1"/>
+        <v>39999.999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="17" thickBot="1">
+      <c r="B16" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39">
         <f>SUM(D4:D15)</f>
-        <v>0.50000000000000011</v>
-      </c>
-      <c r="E16" s="39">
+        <v>0</v>
+      </c>
+      <c r="E16" s="40">
         <f>SUM(E4:E15)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="25">
+        <v>1</v>
+      </c>
+      <c r="F16" s="41">
         <f>SUM(F4:F15)</f>
         <v>1</v>
       </c>
+      <c r="G16" s="43">
+        <f>SUM(G4:G15)</f>
+        <v>100000</v>
+      </c>
+      <c r="N16" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="55"/>
+      <c r="P16" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q16" s="51"/>
+    </row>
+    <row r="17" spans="14:17" ht="17" thickBot="1">
+      <c r="N17" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="49"/>
+      <c r="P17" s="52">
+        <v>100000</v>
+      </c>
+      <c r="Q17" s="53"/>
+    </row>
+    <row r="43" spans="2:2" hidden="1">
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" hidden="1">
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" hidden="1">
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O2:O3"/>
+  <mergeCells count="9">
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
-  <conditionalFormatting sqref="L2">
+  <conditionalFormatting sqref="M2">
     <cfRule type="cellIs" dxfId="15" priority="61" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M14">
+  <conditionalFormatting sqref="N4:N14">
     <cfRule type="cellIs" dxfId="14" priority="53" operator="greaterThan">
-      <formula>$N4</formula>
+      <formula>$O4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:K14">
+  <conditionalFormatting sqref="H4:L14">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="percentile" val="10"/>
@@ -2866,76 +3235,81 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O14">
+  <conditionalFormatting sqref="P4:P14">
     <cfRule type="containsText" dxfId="13" priority="22" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",O4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("yes",P4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P14">
+  <conditionalFormatting sqref="Q4:Q14">
     <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="add">
-      <formula>NOT(ISERROR(SEARCH("add",P4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("add",Q4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L14">
+  <conditionalFormatting sqref="M4:M14">
     <cfRule type="cellIs" dxfId="11" priority="20" operator="lessThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
+  <conditionalFormatting sqref="O4">
     <cfRule type="cellIs" dxfId="10" priority="13" operator="lessThan">
-      <formula>$M$4</formula>
+      <formula>$N$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
+  <conditionalFormatting sqref="O5">
     <cfRule type="cellIs" dxfId="9" priority="12" operator="lessThan">
-      <formula>$M$5</formula>
+      <formula>$N$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6">
+  <conditionalFormatting sqref="O6">
     <cfRule type="cellIs" dxfId="8" priority="11" operator="lessThan">
-      <formula>$M$6</formula>
+      <formula>$N$6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
+  <conditionalFormatting sqref="O7">
     <cfRule type="cellIs" dxfId="7" priority="10" operator="lessThan">
-      <formula>$M$7</formula>
+      <formula>$N$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8">
+  <conditionalFormatting sqref="O8">
     <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
-      <formula>$M$8</formula>
+      <formula>$N$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
+  <conditionalFormatting sqref="O9">
     <cfRule type="cellIs" dxfId="5" priority="8" operator="lessThan">
-      <formula>$M$9</formula>
+      <formula>$N$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N10">
+  <conditionalFormatting sqref="O10">
     <cfRule type="cellIs" dxfId="4" priority="7" operator="lessThan">
-      <formula>$M$10</formula>
+      <formula>$N$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11">
+  <conditionalFormatting sqref="O11">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
-      <formula>$M$11</formula>
+      <formula>$N$11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12">
+  <conditionalFormatting sqref="O12">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
-      <formula>$M$12</formula>
+      <formula>$N$12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N13">
+  <conditionalFormatting sqref="O13">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
-      <formula>$M$13</formula>
+      <formula>$N$13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14">
+  <conditionalFormatting sqref="O14">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
-      <formula>$M$14</formula>
+      <formula>$N$14</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a portfolio from the drop down" sqref="N17:O17" xr:uid="{3FA2A3BC-A223-9D4A-8970-EC80826377DA}">
+      <formula1>$B$44:$B$45</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
   <pageSetup paperSize="0" scale="46" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
@@ -2943,6 +3317,9 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2951,7 +3328,7 @@
   <dimension ref="A1:L261"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3001,807 +3378,807 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="40">
-        <v>44771</v>
+      <c r="A2" s="23">
+        <v>44895</v>
       </c>
       <c r="B2">
-        <v>143.419998168945</v>
+        <v>152.759994506835</v>
       </c>
       <c r="C2">
-        <v>138.55000305175699</v>
+        <v>146.24000549316401</v>
       </c>
       <c r="D2">
-        <v>51.650001525878899</v>
+        <v>51.900001525878899</v>
       </c>
       <c r="E2">
-        <v>41.319999694824197</v>
+        <v>40.520000457763601</v>
       </c>
       <c r="F2">
-        <v>82.959999084472599</v>
+        <v>78.580001831054602</v>
       </c>
       <c r="G2">
-        <v>71.849998474121094</v>
+        <v>63.360000610351499</v>
       </c>
       <c r="H2">
-        <v>51.090000152587798</v>
+        <v>49.049999237060497</v>
       </c>
       <c r="I2">
-        <v>50.340000152587798</v>
+        <v>48</v>
       </c>
       <c r="J2">
-        <v>26.110000610351499</v>
+        <v>25.4899997711181</v>
       </c>
       <c r="K2">
-        <v>33.450000762939403</v>
+        <v>33.599998474121001</v>
       </c>
       <c r="L2">
-        <v>98.959999084472599</v>
+        <v>88.080001831054602</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="40"/>
+      <c r="A3" s="23"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="40"/>
+      <c r="A4" s="23"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="40"/>
+      <c r="A5" s="23"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="40"/>
+      <c r="A6" s="23"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="40"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="40"/>
+      <c r="A8" s="23"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="40"/>
+      <c r="A9" s="23"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="40"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="40"/>
+      <c r="A11" s="23"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="40"/>
+      <c r="A12" s="23"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="40"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="40"/>
+      <c r="A14" s="23"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="40"/>
+      <c r="A15" s="23"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="40"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="40"/>
+      <c r="A17" s="23"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="40"/>
+      <c r="A18" s="23"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="40"/>
+      <c r="A19" s="23"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="40"/>
+      <c r="A20" s="23"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="40"/>
+      <c r="A21" s="23"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="40"/>
+      <c r="A22" s="23"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="40"/>
+      <c r="A23" s="23"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="40"/>
+      <c r="A24" s="23"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="40"/>
+      <c r="A25" s="23"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="40"/>
+      <c r="A26" s="23"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="40"/>
+      <c r="A27" s="23"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="40"/>
+      <c r="A28" s="23"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="40"/>
+      <c r="A29" s="23"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="40"/>
+      <c r="A30" s="23"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="40"/>
+      <c r="A31" s="23"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="40"/>
+      <c r="A32" s="23"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="40"/>
+      <c r="A33" s="23"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="40"/>
+      <c r="A34" s="23"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="40"/>
+      <c r="A35" s="23"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="40"/>
+      <c r="A36" s="23"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="40"/>
+      <c r="A37" s="23"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="40"/>
+      <c r="A38" s="23"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="40"/>
+      <c r="A39" s="23"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="40"/>
+      <c r="A40" s="23"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="40"/>
+      <c r="A41" s="23"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="40"/>
+      <c r="A42" s="23"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="40"/>
+      <c r="A43" s="23"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="40"/>
+      <c r="A44" s="23"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="40"/>
+      <c r="A45" s="23"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="40"/>
+      <c r="A46" s="23"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="40"/>
+      <c r="A47" s="23"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="40"/>
+      <c r="A48" s="23"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="40"/>
+      <c r="A49" s="23"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="40"/>
+      <c r="A50" s="23"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="40"/>
+      <c r="A51" s="23"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="40"/>
+      <c r="A52" s="23"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="40"/>
+      <c r="A53" s="23"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="40"/>
+      <c r="A54" s="23"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="40"/>
+      <c r="A55" s="23"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="40"/>
+      <c r="A56" s="23"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="40"/>
+      <c r="A57" s="23"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="40"/>
+      <c r="A58" s="23"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="40"/>
+      <c r="A59" s="23"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="40"/>
+      <c r="A60" s="23"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="40"/>
+      <c r="A61" s="23"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="40"/>
+      <c r="A62" s="23"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="40"/>
+      <c r="A63" s="23"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="40"/>
+      <c r="A64" s="23"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="40"/>
+      <c r="A65" s="23"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="40"/>
+      <c r="A66" s="23"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="40"/>
+      <c r="A67" s="23"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="40"/>
+      <c r="A68" s="23"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="40"/>
+      <c r="A69" s="23"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="40"/>
+      <c r="A70" s="23"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="40"/>
+      <c r="A71" s="23"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="40"/>
+      <c r="A72" s="23"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="40"/>
+      <c r="A73" s="23"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="40"/>
+      <c r="A74" s="23"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="40"/>
+      <c r="A75" s="23"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="40"/>
+      <c r="A76" s="23"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="40"/>
+      <c r="A77" s="23"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="40"/>
+      <c r="A78" s="23"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="40"/>
+      <c r="A79" s="23"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="40"/>
+      <c r="A80" s="23"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="40"/>
+      <c r="A81" s="23"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="40"/>
+      <c r="A82" s="23"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="40"/>
+      <c r="A83" s="23"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="40"/>
+      <c r="A84" s="23"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="40"/>
+      <c r="A85" s="23"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="40"/>
+      <c r="A86" s="23"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="40"/>
+      <c r="A87" s="23"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="40"/>
+      <c r="A88" s="23"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="40"/>
+      <c r="A89" s="23"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="40"/>
+      <c r="A90" s="23"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="40"/>
+      <c r="A91" s="23"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="40"/>
+      <c r="A92" s="23"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="40"/>
+      <c r="A93" s="23"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="40"/>
+      <c r="A94" s="23"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="40"/>
+      <c r="A95" s="23"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="40"/>
+      <c r="A96" s="23"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="40"/>
+      <c r="A97" s="23"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="40"/>
+      <c r="A98" s="23"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="40"/>
+      <c r="A99" s="23"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="40"/>
+      <c r="A100" s="23"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="40"/>
+      <c r="A101" s="23"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="40"/>
+      <c r="A102" s="23"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="40"/>
+      <c r="A103" s="23"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="40"/>
+      <c r="A104" s="23"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="40"/>
+      <c r="A105" s="23"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="40"/>
+      <c r="A106" s="23"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="40"/>
+      <c r="A107" s="23"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="40"/>
+      <c r="A108" s="23"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="40"/>
+      <c r="A109" s="23"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="40"/>
+      <c r="A110" s="23"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="40"/>
+      <c r="A111" s="23"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="40"/>
+      <c r="A112" s="23"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="40"/>
+      <c r="A113" s="23"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="40"/>
+      <c r="A114" s="23"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="40"/>
+      <c r="A115" s="23"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="40"/>
+      <c r="A116" s="23"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="40"/>
+      <c r="A117" s="23"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="40"/>
+      <c r="A118" s="23"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="40"/>
+      <c r="A119" s="23"/>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="40"/>
+      <c r="A120" s="23"/>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="40"/>
+      <c r="A121" s="23"/>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="40"/>
+      <c r="A122" s="23"/>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="40"/>
+      <c r="A123" s="23"/>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="40"/>
+      <c r="A124" s="23"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="40"/>
+      <c r="A125" s="23"/>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="40"/>
+      <c r="A126" s="23"/>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="40"/>
+      <c r="A127" s="23"/>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="40"/>
+      <c r="A128" s="23"/>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="40"/>
+      <c r="A129" s="23"/>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="40"/>
+      <c r="A130" s="23"/>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="40"/>
+      <c r="A131" s="23"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="40"/>
+      <c r="A132" s="23"/>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="40"/>
+      <c r="A133" s="23"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="40"/>
+      <c r="A134" s="23"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="40"/>
+      <c r="A135" s="23"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="40"/>
+      <c r="A136" s="23"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="40"/>
+      <c r="A137" s="23"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="40"/>
+      <c r="A138" s="23"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="40"/>
+      <c r="A139" s="23"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="40"/>
+      <c r="A140" s="23"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="40"/>
+      <c r="A141" s="23"/>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="40"/>
+      <c r="A142" s="23"/>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="40"/>
+      <c r="A143" s="23"/>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="40"/>
+      <c r="A144" s="23"/>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="40"/>
+      <c r="A145" s="23"/>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="40"/>
+      <c r="A146" s="23"/>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="40"/>
+      <c r="A147" s="23"/>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="40"/>
+      <c r="A148" s="23"/>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="40"/>
+      <c r="A149" s="23"/>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="40"/>
+      <c r="A150" s="23"/>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="40"/>
+      <c r="A151" s="23"/>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="40"/>
+      <c r="A152" s="23"/>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="40"/>
+      <c r="A153" s="23"/>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="40"/>
+      <c r="A154" s="23"/>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="40"/>
+      <c r="A155" s="23"/>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="40"/>
+      <c r="A156" s="23"/>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="40"/>
+      <c r="A157" s="23"/>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="40"/>
+      <c r="A158" s="23"/>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="40"/>
+      <c r="A159" s="23"/>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="40"/>
+      <c r="A160" s="23"/>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="40"/>
+      <c r="A161" s="23"/>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="40"/>
+      <c r="A162" s="23"/>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="40"/>
+      <c r="A163" s="23"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="40"/>
+      <c r="A164" s="23"/>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="40"/>
+      <c r="A165" s="23"/>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="40"/>
+      <c r="A166" s="23"/>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="40"/>
+      <c r="A167" s="23"/>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="40"/>
+      <c r="A168" s="23"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="40"/>
+      <c r="A169" s="23"/>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="40"/>
+      <c r="A170" s="23"/>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="40"/>
+      <c r="A171" s="23"/>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="40"/>
+      <c r="A172" s="23"/>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="40"/>
+      <c r="A173" s="23"/>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="40"/>
+      <c r="A174" s="23"/>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="40"/>
+      <c r="A175" s="23"/>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="40"/>
+      <c r="A176" s="23"/>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="40"/>
+      <c r="A177" s="23"/>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="40"/>
+      <c r="A178" s="23"/>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="40"/>
+      <c r="A179" s="23"/>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="40"/>
+      <c r="A180" s="23"/>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="40"/>
+      <c r="A181" s="23"/>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="40"/>
+      <c r="A182" s="23"/>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="40"/>
+      <c r="A183" s="23"/>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="40"/>
+      <c r="A184" s="23"/>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="40"/>
+      <c r="A185" s="23"/>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="40"/>
+      <c r="A186" s="23"/>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="40"/>
+      <c r="A187" s="23"/>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="40"/>
+      <c r="A188" s="23"/>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="40"/>
+      <c r="A189" s="23"/>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="40"/>
+      <c r="A190" s="23"/>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="40"/>
+      <c r="A191" s="23"/>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="40"/>
+      <c r="A192" s="23"/>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="40"/>
+      <c r="A193" s="23"/>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="40"/>
+      <c r="A194" s="23"/>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="40"/>
+      <c r="A195" s="23"/>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="40"/>
+      <c r="A196" s="23"/>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="40"/>
+      <c r="A197" s="23"/>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="40"/>
+      <c r="A198" s="23"/>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="40"/>
+      <c r="A199" s="23"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="40"/>
+      <c r="A200" s="23"/>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="40"/>
+      <c r="A201" s="23"/>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="40"/>
+      <c r="A202" s="23"/>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="40"/>
+      <c r="A203" s="23"/>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="40"/>
+      <c r="A204" s="23"/>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="40"/>
+      <c r="A205" s="23"/>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="40"/>
+      <c r="A206" s="23"/>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="40"/>
+      <c r="A207" s="23"/>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="40"/>
+      <c r="A208" s="23"/>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="40"/>
+      <c r="A209" s="23"/>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="40"/>
+      <c r="A210" s="23"/>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="40"/>
+      <c r="A211" s="23"/>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="40"/>
+      <c r="A212" s="23"/>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="40"/>
+      <c r="A213" s="23"/>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="40"/>
+      <c r="A214" s="23"/>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="40"/>
+      <c r="A215" s="23"/>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="40"/>
+      <c r="A216" s="23"/>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="40"/>
+      <c r="A217" s="23"/>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="40"/>
+      <c r="A218" s="23"/>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="40"/>
+      <c r="A219" s="23"/>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="40"/>
+      <c r="A220" s="23"/>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="40"/>
+      <c r="A221" s="23"/>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="40"/>
+      <c r="A222" s="23"/>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="40"/>
+      <c r="A223" s="23"/>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="40"/>
+      <c r="A224" s="23"/>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="40"/>
+      <c r="A225" s="23"/>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="40"/>
+      <c r="A226" s="23"/>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="40"/>
+      <c r="A227" s="23"/>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="40"/>
+      <c r="A228" s="23"/>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="40"/>
+      <c r="A229" s="23"/>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="40"/>
+      <c r="A230" s="23"/>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="40"/>
+      <c r="A231" s="23"/>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="40"/>
+      <c r="A232" s="23"/>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="40"/>
+      <c r="A233" s="23"/>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="40"/>
+      <c r="A234" s="23"/>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="40"/>
+      <c r="A235" s="23"/>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="40"/>
+      <c r="A236" s="23"/>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="40"/>
+      <c r="A237" s="23"/>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="40"/>
+      <c r="A238" s="23"/>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="40"/>
+      <c r="A239" s="23"/>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="40"/>
+      <c r="A240" s="23"/>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="40"/>
+      <c r="A241" s="23"/>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="40"/>
+      <c r="A242" s="23"/>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="40"/>
+      <c r="A243" s="23"/>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="40"/>
+      <c r="A244" s="23"/>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="40"/>
+      <c r="A245" s="23"/>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="40"/>
+      <c r="A246" s="23"/>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="40"/>
+      <c r="A247" s="23"/>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="40"/>
+      <c r="A248" s="23"/>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="40"/>
+      <c r="A249" s="23"/>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="40"/>
+      <c r="A250" s="23"/>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="40"/>
+      <c r="A251" s="23"/>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="40"/>
+      <c r="A252" s="23"/>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="40"/>
+      <c r="A253" s="23"/>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="40"/>
+      <c r="A254" s="23"/>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="3"/>
+      <c r="A255" s="1"/>
     </row>
     <row r="260" spans="2:2">
-      <c r="B260" s="3"/>
+      <c r="B260" s="1"/>
     </row>
     <row r="261" spans="2:2">
-      <c r="B261" s="3"/>
+      <c r="B261" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
@@ -3818,7 +4195,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:L2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3868,41 +4245,41 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="40">
-        <v>44771</v>
+      <c r="A2" s="23">
+        <v>44895</v>
       </c>
       <c r="B2">
-        <v>162.18560005187899</v>
+        <v>146.41060066223099</v>
       </c>
       <c r="C2">
-        <v>142.498550109863</v>
+        <v>138.68065002441401</v>
       </c>
       <c r="D2">
-        <v>57.180449886322002</v>
+        <v>51.532799892425501</v>
       </c>
       <c r="E2">
-        <v>46.512600002288799</v>
+        <v>41.684300117492597</v>
       </c>
       <c r="F2">
-        <v>87.094549942016599</v>
+        <v>80.832650146484298</v>
       </c>
       <c r="G2">
-        <v>80.300399818420402</v>
+        <v>70.192349815368601</v>
       </c>
       <c r="H2">
-        <v>53.206200008392301</v>
+        <v>50.098649902343702</v>
       </c>
       <c r="I2">
-        <v>51.124649982452297</v>
+        <v>49.788900070190401</v>
       </c>
       <c r="J2">
-        <v>24.467199916839601</v>
+        <v>26.225949945449798</v>
       </c>
       <c r="K2">
-        <v>34.989850082397403</v>
+        <v>34.163800067901597</v>
       </c>
       <c r="L2">
-        <v>103.860850105285</v>
+        <v>94.753450126647905</v>
       </c>
     </row>
   </sheetData>
@@ -3974,164 +4351,164 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="40">
-        <v>44771</v>
+      <c r="A2" s="23">
+        <v>44895</v>
       </c>
       <c r="B2">
-        <v>5.1697611675497197E-2</v>
+        <v>3.4678915865306199E-2</v>
       </c>
       <c r="C2">
-        <v>5.0576265711183899E-2</v>
+        <v>5.9940597226144803E-2</v>
       </c>
       <c r="D2">
-        <v>3.3827111136427203E-2</v>
+        <v>0.13145852920006501</v>
       </c>
       <c r="E2">
-        <v>-7.9232129403324896E-3</v>
+        <v>0.14301832399745801</v>
       </c>
       <c r="F2">
-        <v>3.9182319349601202E-2</v>
+        <v>4.5502900509695403E-2</v>
       </c>
       <c r="G2">
-        <v>2.61939182019887E-2</v>
+        <v>6.4516131099709495E-2</v>
       </c>
       <c r="H2">
-        <v>3.2183778055167402E-2</v>
+        <v>2.31539558228759E-2</v>
       </c>
       <c r="I2">
-        <v>1.83069209808592E-2</v>
+        <v>5.2356020942410098E-3</v>
       </c>
       <c r="J2">
-        <v>-1.9894849528518499E-2</v>
+        <v>1.47292563504568E-2</v>
       </c>
       <c r="K2">
-        <v>-2.50655953345734E-2</v>
+        <v>8.4570657540288405E-2</v>
       </c>
       <c r="L2">
-        <v>8.6159569987195497E-2</v>
+        <v>6.1460572039070398E-2</v>
       </c>
       <c r="M2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="40">
-        <v>44771</v>
+      <c r="A3" s="23">
+        <v>44895</v>
       </c>
       <c r="B3">
-        <v>-2.14022540546665E-2</v>
+        <v>8.6795654241217796E-2</v>
       </c>
       <c r="C3">
-        <v>-8.9550821540127501E-3</v>
+        <v>8.4544715699239298E-2</v>
       </c>
       <c r="D3">
-        <v>-2.9769108526151201E-2</v>
+        <v>5.1032814970732802E-2</v>
       </c>
       <c r="E3">
-        <v>-4.1728609308223398E-2</v>
+        <v>-1.48310380381793E-2</v>
       </c>
       <c r="F3">
-        <v>2.4150530201403699E-2</v>
+        <v>-1.3185928149937499E-2</v>
       </c>
       <c r="G3">
-        <v>-8.2264263406042204E-3</v>
+        <v>-7.5036487440123506E-2</v>
       </c>
       <c r="H3">
-        <v>7.5796123616362898E-3</v>
+        <v>-3.0488114543258901E-3</v>
       </c>
       <c r="I3">
-        <v>7.2537098619862503E-3</v>
+        <v>-3.1672376527937501E-2</v>
       </c>
       <c r="J3">
-        <v>-5.1580095927231298E-2</v>
+        <v>-8.9424396724968602E-3</v>
       </c>
       <c r="K3">
-        <v>-7.1864597302827002E-2</v>
+        <v>3.5120130061671903E-2</v>
       </c>
       <c r="L3">
-        <v>-4.1847360669033301E-2</v>
+        <v>-5.30050552837837E-2</v>
       </c>
       <c r="M3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="40">
-        <v>44771</v>
+      <c r="A4" s="23">
+        <v>44895</v>
       </c>
       <c r="B4">
-        <v>-0.12869985203280099</v>
+        <v>4.8607703338702603E-2</v>
       </c>
       <c r="C4">
-        <v>-3.67159231584719E-2</v>
+        <v>2.1441022772712801E-2</v>
       </c>
       <c r="D4">
-        <v>-0.124685698548592</v>
+        <v>-4.0745869403052401E-2</v>
       </c>
       <c r="E4">
-        <v>-0.159500386542652</v>
+        <v>-6.4588468505597393E-2</v>
       </c>
       <c r="F4">
-        <v>-7.1087394875661999E-2</v>
+        <v>-4.01839705834936E-2</v>
       </c>
       <c r="G4">
-        <v>-0.156546278555556</v>
+        <v>-0.105436821043673</v>
       </c>
       <c r="H4">
-        <v>-5.64299659703595E-2</v>
+        <v>-2.5159925801493701E-2</v>
       </c>
       <c r="I4">
-        <v>9.1570536835843194E-3</v>
+        <v>-4.4658050028896397E-2</v>
       </c>
       <c r="J4">
-        <v>0.164585215053556</v>
+        <v>-0.11493054005650701</v>
       </c>
       <c r="K4">
-        <v>-2.2501473708242899E-2</v>
+        <v>-3.64210065003015E-2</v>
       </c>
       <c r="L4">
-        <v>-5.7460742866457103E-2</v>
+        <v>-0.10526812609798999</v>
       </c>
       <c r="M4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="40">
-        <v>44771</v>
+      <c r="A5" s="23">
+        <v>44895</v>
       </c>
       <c r="B5">
-        <v>-0.173119133577818</v>
+        <v>-0.15985448289607401</v>
       </c>
       <c r="C5">
-        <v>2.1853222698748599E-2</v>
+        <v>7.5784923497248705E-2</v>
       </c>
       <c r="D5">
-        <v>-0.14540183522511099</v>
+        <v>-0.109947789888844</v>
       </c>
       <c r="E5">
-        <v>-0.16747407567616601</v>
+        <v>-0.159524880918365</v>
       </c>
       <c r="F5">
-        <v>-0.110153811423918</v>
+        <v>-0.137182500273305</v>
       </c>
       <c r="G5">
-        <v>-0.19245607962724301</v>
+        <v>-0.29591870127962999</v>
       </c>
       <c r="H5">
-        <v>-8.4708359168368302E-2</v>
+        <v>-0.11241263936543</v>
       </c>
       <c r="I5">
-        <v>1.46157615352584E-2</v>
+        <v>-3.9684588787439898E-2</v>
       </c>
       <c r="J5">
-        <v>0.33897439027443799</v>
+        <v>0.30852157957452703</v>
       </c>
       <c r="K5">
-        <v>-3.2118071939934198E-2</v>
+        <v>-2.3753512568229699E-3</v>
       </c>
       <c r="L5">
-        <v>-4.31583593225595E-2</v>
+        <v>-0.15717285793402</v>
       </c>
       <c r="M5" t="s">
         <v>42</v>

--- a/Portfolio Optimization Tool.xlsx
+++ b/Portfolio Optimization Tool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanlupinski/PycharmProjects/Finance/Portfolio Optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C314B3C-3372-2C4F-80BC-3D57E96BD5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2018803-4C2B-1E49-902A-890730D986F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
   <si>
     <t>Rank</t>
   </si>
@@ -2022,7 +2022,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2310,7 +2310,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2318,10 +2318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Q45"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2344,8 +2344,45 @@
     <col min="20" max="20" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="14.5" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:17" ht="17" thickBot="1">
+    <row r="1" spans="1:17" ht="53" customHeight="1" thickBot="1">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17" thickBot="1">
       <c r="H2" s="44" t="s">
         <v>45</v>
       </c>
@@ -2353,11 +2390,11 @@
       <c r="J2" s="45"/>
       <c r="K2" s="46">
         <f>INDEX('Price Data'!$A$2:$A$265,COUNT('Price Data'!$A$2:$A$265))</f>
-        <v>44895</v>
+        <v>44925</v>
       </c>
       <c r="L2" s="47">
         <f>INDEX('Price Data'!$L$2:$L$255,COUNT('Price Data'!$L$2:$L$255))</f>
-        <v>88.080001831054602</v>
+        <v>38.9799995422363</v>
       </c>
       <c r="M2" s="56" t="s">
         <v>0</v>
@@ -2375,7 +2412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="1:17">
       <c r="B3" s="31" t="s">
         <v>4</v>
       </c>
@@ -2419,7 +2456,7 @@
       <c r="P3" s="59"/>
       <c r="Q3" s="61"/>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="1:17">
       <c r="B4" s="36" t="s">
         <v>16</v>
       </c>
@@ -2428,51 +2465,51 @@
       </c>
       <c r="D4" s="28">
         <f>IF($N$17="Trinity",0.05,0)</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="29">
         <f>IF(Q4="n/a",0,IF(Q4="add 10%",0.1,0.2))</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F4" s="30">
         <f t="shared" ref="F4:F14" si="0">IF($N$17="Trinity",(D4+E4),E4)</f>
-        <v>0.2</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="G4" s="42">
         <f t="shared" ref="G4:G15" si="1">F4*$P$17</f>
-        <v>20000</v>
+        <v>15000.000000000002</v>
       </c>
       <c r="H4" s="25">
-        <f>'Performance Data'!$B$2</f>
-        <v>3.4678915865306199E-2</v>
+        <f>'Performance Data'!$E$2</f>
+        <v>-3.9270237931518397E-2</v>
       </c>
       <c r="I4" s="2">
-        <f>'Performance Data'!$B$3</f>
-        <v>8.6795654241217796E-2</v>
+        <f>'Performance Data'!$E$3</f>
+        <v>0.118776312891091</v>
       </c>
       <c r="J4" s="2">
-        <f>'Performance Data'!$B$4</f>
-        <v>4.8607703338702603E-2</v>
+        <f>'Performance Data'!$E$4</f>
+        <v>8.4481600026487594E-2</v>
       </c>
       <c r="K4" s="2">
-        <f>'Performance Data'!$B$5</f>
-        <v>-0.15985448289607401</v>
+        <f>'Performance Data'!$E$5</f>
+        <v>-0.18267868158178899</v>
       </c>
       <c r="L4" s="10">
         <f t="shared" ref="L4:L14" si="2">AVERAGE(H4:K4)</f>
-        <v>2.5569476372881428E-3</v>
+        <v>-4.6727516489321955E-3</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ref="M4:M14" si="3">_xlfn.RANK.EQ(L4,$L$4:$L$14,0)</f>
         <v>5</v>
       </c>
       <c r="N4" s="11">
-        <f>INDEX('Price Data'!$B$2:$B$265,COUNT('Price Data'!$B$2:$B$265))</f>
-        <v>152.759994506835</v>
+        <f>INDEX('Price Data'!$E$2:$E$265,COUNT('Price Data'!$E$2:$E$265))</f>
+        <v>145.92999267578099</v>
       </c>
       <c r="O4" s="12">
-        <f>'200D SMA'!$B$2</f>
-        <v>146.41060066223099</v>
+        <f>'200D SMA'!$E$2</f>
+        <v>145.333450546264</v>
       </c>
       <c r="P4" s="5" t="str">
         <f t="shared" ref="P4:P14" si="4">IF(N4&gt;O4,"yes","no")</f>
@@ -2480,10 +2517,10 @@
       </c>
       <c r="Q4" s="6" t="str">
         <f t="shared" ref="Q4:Q14" si="5">IF(M4&gt;5,"n/a",IF(P4="yes", (IF($N$17="Trinity","add 10%","add 20%")),"n/a"))</f>
-        <v>add 20%</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17">
+        <v>add 10%</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="B5" s="36" t="s">
         <v>18</v>
       </c>
@@ -2492,51 +2529,51 @@
       </c>
       <c r="D5" s="28">
         <f>IF($N$17="Trinity",0.05,0)</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="29">
         <f t="shared" ref="E5:E14" si="6">IF(Q5="n/a",0,IF(Q5="add 10%",0.1,0.2))</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F5" s="30">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="G5" s="42">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>15000.000000000002</v>
       </c>
       <c r="H5" s="25">
-        <f>'Performance Data'!$C$2</f>
-        <v>5.9940597226144803E-2</v>
+        <f>'Performance Data'!$K$2</f>
+        <v>-3.3020592894652603E-2</v>
       </c>
       <c r="I5" s="2">
-        <f>'Performance Data'!$C$3</f>
-        <v>8.4544715699239298E-2</v>
+        <f>'Performance Data'!$K$3</f>
+        <v>0.14521433286911201</v>
       </c>
       <c r="J5" s="2">
-        <f>'Performance Data'!$C$4</f>
-        <v>2.1441022772712801E-2</v>
+        <f>'Performance Data'!$K$4</f>
+        <v>7.9449400648000601E-2</v>
       </c>
       <c r="K5" s="2">
-        <f>'Performance Data'!$C$5</f>
-        <v>7.5784923497248705E-2</v>
+        <f>'Performance Data'!$K$5</f>
+        <v>-2.0872046915779499E-2</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" si="2"/>
-        <v>6.0427814798836396E-2</v>
+        <v>4.2692773426670133E-2</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N5" s="11">
-        <f>INDEX('Price Data'!$C$2:$C$265,COUNT('Price Data'!$C$2:$C$265))</f>
-        <v>146.24000549316401</v>
+        <f>INDEX('Price Data'!$K$2:$K$265,COUNT('Price Data'!$K$2:$K$265))</f>
+        <v>140.36999511718699</v>
       </c>
       <c r="O5" s="12">
-        <f>'200D SMA'!$C$2</f>
-        <v>138.68065002441401</v>
+        <f>'200D SMA'!$K$2</f>
+        <v>138.52834976196201</v>
       </c>
       <c r="P5" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2544,10 +2581,10 @@
       </c>
       <c r="Q5" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>add 20%</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17">
+        <v>add 10%</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="B6" s="36" t="s">
         <v>43</v>
       </c>
@@ -2556,62 +2593,62 @@
       </c>
       <c r="D6" s="28">
         <f>IF($N$17="Trinity",0.0675,0)</f>
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="E6" s="29">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="30">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="G6" s="42">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>6750</v>
       </c>
       <c r="H6" s="25">
-        <f>'Performance Data'!$D$2</f>
-        <v>0.13145852920006501</v>
+        <f>'Performance Data'!$G$2</f>
+        <v>-2.1927475340761698E-2</v>
       </c>
       <c r="I6" s="2">
-        <f>'Performance Data'!$D$3</f>
-        <v>5.1032814970732802E-2</v>
+        <f>'Performance Data'!$G$3</f>
+        <v>0.144318421037511</v>
       </c>
       <c r="J6" s="2">
-        <f>'Performance Data'!$D$4</f>
-        <v>-4.0745869403052401E-2</v>
+        <f>'Performance Data'!$G$4</f>
+        <v>2.15920215108007E-2</v>
       </c>
       <c r="K6" s="2">
-        <f>'Performance Data'!$D$5</f>
-        <v>-0.109947789888844</v>
+        <f>'Performance Data'!$G$5</f>
+        <v>-0.155793561695139</v>
       </c>
       <c r="L6" s="10">
         <f t="shared" si="2"/>
-        <v>7.9494212197253507E-3</v>
+        <v>-2.9526486218972511E-3</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="N6" s="11">
-        <f>INDEX('Price Data'!$D$2:$D$265,COUNT('Price Data'!$D$2:$D$265))</f>
-        <v>51.900001525878899</v>
+        <f>INDEX('Price Data'!$G$2:$G$265,COUNT('Price Data'!$G$2:$G$265))</f>
+        <v>50.139999389648402</v>
       </c>
       <c r="O6" s="12">
-        <f>'200D SMA'!$D$2</f>
-        <v>51.532799892425501</v>
+        <f>'200D SMA'!$G$2</f>
+        <v>50.902349872589099</v>
       </c>
       <c r="P6" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="Q6" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>add 20%</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17">
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="B7" s="36" t="s">
         <v>44</v>
       </c>
@@ -2620,7 +2657,7 @@
       </c>
       <c r="D7" s="28">
         <f>IF($N$17="Trinity",0.0225,0)</f>
-        <v>0</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="E7" s="29">
         <f t="shared" si="6"/>
@@ -2628,43 +2665,43 @@
       </c>
       <c r="F7" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="G7" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="H7" s="25">
-        <f>'Performance Data'!$E$2</f>
-        <v>0.14301832399745801</v>
+        <f>'Performance Data'!$L$2</f>
+        <v>-2.2292411924611601E-2</v>
       </c>
       <c r="I7" s="2">
-        <f>'Performance Data'!$E$3</f>
-        <v>-1.48310380381793E-2</v>
+        <f>'Performance Data'!$L$3</f>
+        <v>8.5686870563925904E-2</v>
       </c>
       <c r="J7" s="2">
-        <f>'Performance Data'!$E$4</f>
-        <v>-6.4588468505597393E-2</v>
+        <f>'Performance Data'!$L$4</f>
+        <v>-3.5963076224063903E-2</v>
       </c>
       <c r="K7" s="2">
-        <f>'Performance Data'!$E$5</f>
-        <v>-0.159524880918365</v>
+        <f>'Performance Data'!$L$5</f>
+        <v>-0.17978829068115201</v>
       </c>
       <c r="L7" s="10">
         <f t="shared" si="2"/>
-        <v>-2.3981515866170925E-2</v>
+        <v>-3.8089227066475398E-2</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N7" s="11">
-        <f>INDEX('Price Data'!$E$2:$E$265,COUNT('Price Data'!$E$2:$E$265))</f>
-        <v>40.520000457763601</v>
+        <f>INDEX('Price Data'!$L$2:$L$265,COUNT('Price Data'!$L$2:$L$265))</f>
+        <v>38.9799995422363</v>
       </c>
       <c r="O7" s="12">
-        <f>'200D SMA'!$E$2</f>
-        <v>41.684300117492597</v>
+        <f>'200D SMA'!$L$2</f>
+        <v>40.934450092315601</v>
       </c>
       <c r="P7" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2675,7 +2712,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="1:17">
       <c r="B8" s="36" t="s">
         <v>22</v>
       </c>
@@ -2684,7 +2721,7 @@
       </c>
       <c r="D8" s="28">
         <f>IF($N$17="Trinity",0.089,0)</f>
-        <v>0</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="E8" s="29">
         <f t="shared" si="6"/>
@@ -2692,43 +2729,43 @@
       </c>
       <c r="F8" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="G8" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="H8" s="25">
         <f>'Performance Data'!$F$2</f>
-        <v>4.5502900509695403E-2</v>
+        <v>-7.9849306221576599E-3</v>
       </c>
       <c r="I8" s="2">
         <f>'Performance Data'!$F$3</f>
-        <v>-1.3185928149937499E-2</v>
+        <v>3.5788431609140997E-2</v>
       </c>
       <c r="J8" s="2">
         <f>'Performance Data'!$F$4</f>
-        <v>-4.01839705834936E-2</v>
+        <v>-1.31796015881768E-2</v>
       </c>
       <c r="K8" s="2">
         <f>'Performance Data'!$F$5</f>
-        <v>-0.137182500273305</v>
+        <v>-0.13976498596361001</v>
       </c>
       <c r="L8" s="10">
         <f t="shared" si="2"/>
-        <v>-3.6262374624260171E-2</v>
+        <v>-3.1285271641200867E-2</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N8" s="11">
         <f>INDEX('Price Data'!$F$2:$F$265,COUNT('Price Data'!$F$2:$F$265))</f>
-        <v>78.580001831054602</v>
+        <v>77.510002136230398</v>
       </c>
       <c r="O8" s="12">
         <f>'200D SMA'!$F$2</f>
-        <v>80.832650146484298</v>
+        <v>79.888000106811504</v>
       </c>
       <c r="P8" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2739,7 +2776,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="1:17">
       <c r="B9" s="36" t="s">
         <v>24</v>
       </c>
@@ -2748,7 +2785,7 @@
       </c>
       <c r="D9" s="28">
         <f>IF($N$17="Trinity",0.0675,0)</f>
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="E9" s="29">
         <f t="shared" si="6"/>
@@ -2756,43 +2793,43 @@
       </c>
       <c r="F9" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="G9" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6750</v>
       </c>
       <c r="H9" s="25">
-        <f>'Performance Data'!$G$2</f>
-        <v>6.4516131099709495E-2</v>
+        <f>'Performance Data'!$H$2</f>
+        <v>-2.2759764181914499E-2</v>
       </c>
       <c r="I9" s="2">
-        <f>'Performance Data'!$G$3</f>
-        <v>-7.5036487440123506E-2</v>
+        <f>'Performance Data'!$H$3</f>
+        <v>-1.12664352423281E-2</v>
       </c>
       <c r="J9" s="2">
-        <f>'Performance Data'!$G$4</f>
-        <v>-0.105436821043673</v>
+        <f>'Performance Data'!$H$4</f>
+        <v>-0.10733792360423999</v>
       </c>
       <c r="K9" s="2">
-        <f>'Performance Data'!$G$5</f>
-        <v>-0.29591870127962999</v>
+        <f>'Performance Data'!$H$5</f>
+        <v>-0.29345833741935301</v>
       </c>
       <c r="L9" s="10">
         <f t="shared" si="2"/>
-        <v>-0.10296896966592925</v>
+        <v>-0.10870561511195889</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="N9" s="11">
-        <f>INDEX('Price Data'!$G$2:$G$265,COUNT('Price Data'!$G$2:$G$265))</f>
-        <v>63.360000610351499</v>
+        <f>INDEX('Price Data'!$H$2:$H$265,COUNT('Price Data'!$H$2:$H$265))</f>
+        <v>61.619998931884702</v>
       </c>
       <c r="O9" s="12">
-        <f>'200D SMA'!$G$2</f>
-        <v>70.192349815368601</v>
+        <f>'200D SMA'!$H$2</f>
+        <v>68.281149864196706</v>
       </c>
       <c r="P9" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2803,7 +2840,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="1:17">
       <c r="B10" s="36" t="s">
         <v>26</v>
       </c>
@@ -2812,7 +2849,7 @@
       </c>
       <c r="D10" s="28">
         <f>IF($N$17="Trinity",0.072,0)</f>
-        <v>0</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="E10" s="29">
         <f t="shared" si="6"/>
@@ -2820,43 +2857,43 @@
       </c>
       <c r="F10" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="G10" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7199.9999999999991</v>
       </c>
       <c r="H10" s="25">
-        <f>'Performance Data'!$H$2</f>
-        <v>2.31539558228759E-2</v>
+        <f>'Performance Data'!$B$2</f>
+        <v>-2.7490743418946102E-2</v>
       </c>
       <c r="I10" s="2">
-        <f>'Performance Data'!$H$3</f>
-        <v>-3.0488114543258901E-3</v>
+        <f>'Performance Data'!$B$3</f>
+        <v>1.58065157451225E-3</v>
       </c>
       <c r="J10" s="2">
-        <f>'Performance Data'!$H$4</f>
-        <v>-2.5159925801493701E-2</v>
+        <f>'Performance Data'!$B$4</f>
+        <v>-3.2303657729338499E-2</v>
       </c>
       <c r="K10" s="2">
-        <f>'Performance Data'!$H$5</f>
-        <v>-0.11241263936543</v>
+        <f>'Performance Data'!$B$5</f>
+        <v>-0.127569404370836</v>
       </c>
       <c r="L10" s="10">
         <f t="shared" si="2"/>
-        <v>-2.9366855199593422E-2</v>
+        <v>-4.6445788486152086E-2</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N10" s="11">
-        <f>INDEX('Price Data'!$H$2:$H$265,COUNT('Price Data'!$H$2:$H$265))</f>
-        <v>49.049999237060497</v>
+        <f>INDEX('Price Data'!$B$2:$B$265,COUNT('Price Data'!$B$2:$B$265))</f>
+        <v>47.430000305175703</v>
       </c>
       <c r="O10" s="12">
-        <f>'200D SMA'!$H$2</f>
-        <v>50.098649902343702</v>
+        <f>'200D SMA'!$B$2</f>
+        <v>49.596299953460601</v>
       </c>
       <c r="P10" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2867,7 +2904,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="1:17">
       <c r="B11" s="36" t="s">
         <v>28</v>
       </c>
@@ -2876,7 +2913,7 @@
       </c>
       <c r="D11" s="28">
         <f>IF($N$17="Trinity",0.009,0)</f>
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E11" s="29">
         <f t="shared" si="6"/>
@@ -2884,43 +2921,43 @@
       </c>
       <c r="F11" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="G11" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>899.99999999999989</v>
       </c>
       <c r="H11" s="25">
-        <f>'Performance Data'!$I$2</f>
-        <v>5.2356020942410098E-3</v>
+        <f>'Performance Data'!$J$2</f>
+        <v>-3.6405102703234099E-3</v>
       </c>
       <c r="I11" s="2">
-        <f>'Performance Data'!$I$3</f>
-        <v>-3.1672376527937501E-2</v>
+        <f>'Performance Data'!$J$3</f>
+        <v>1.31181876317263E-2</v>
       </c>
       <c r="J11" s="2">
-        <f>'Performance Data'!$I$4</f>
-        <v>-4.4658050028896397E-2</v>
+        <f>'Performance Data'!$J$4</f>
+        <v>-1.40362441192205E-2</v>
       </c>
       <c r="K11" s="2">
-        <f>'Performance Data'!$I$5</f>
-        <v>-3.9684588787439898E-2</v>
+        <f>'Performance Data'!$J$5</f>
+        <v>-2.9358761041323199E-2</v>
       </c>
       <c r="L11" s="10">
         <f t="shared" si="2"/>
-        <v>-2.7694853312508195E-2</v>
+        <v>-8.4793319497852015E-3</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N11" s="11">
-        <f>INDEX('Price Data'!$I$2:$I$265,COUNT('Price Data'!$I$2:$I$265))</f>
-        <v>48</v>
+        <f>INDEX('Price Data'!$J$2:$J$265,COUNT('Price Data'!$J$2:$J$265))</f>
+        <v>46.709999084472599</v>
       </c>
       <c r="O11" s="12">
-        <f>'200D SMA'!$I$2</f>
-        <v>49.788900070190401</v>
+        <f>'200D SMA'!$J$2</f>
+        <v>49.382050094604402</v>
       </c>
       <c r="P11" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2931,7 +2968,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="1:17">
       <c r="B12" s="36" t="s">
         <v>30</v>
       </c>
@@ -2940,7 +2977,7 @@
       </c>
       <c r="D12" s="28">
         <f>IF($N$17="Trinity",0.025,0)</f>
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E12" s="29">
         <f t="shared" si="6"/>
@@ -2948,43 +2985,43 @@
       </c>
       <c r="F12" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G12" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="H12" s="25">
-        <f>'Performance Data'!$J$2</f>
-        <v>1.47292563504568E-2</v>
+        <f>'Performance Data'!$C$2</f>
+        <v>-2.7115166682299598E-2</v>
       </c>
       <c r="I12" s="2">
-        <f>'Performance Data'!$J$3</f>
-        <v>-8.9424396724968602E-3</v>
+        <f>'Performance Data'!$C$3</f>
+        <v>3.7174137038419097E-2</v>
       </c>
       <c r="J12" s="2">
-        <f>'Performance Data'!$J$4</f>
-        <v>-0.11493054005650701</v>
+        <f>'Performance Data'!$C$4</f>
+        <v>-6.9112849790397293E-2</v>
       </c>
       <c r="K12" s="2">
-        <f>'Performance Data'!$J$5</f>
-        <v>0.30852157957452703</v>
+        <f>'Performance Data'!$C$5</f>
+        <v>0.193399049376973</v>
       </c>
       <c r="L12" s="10">
         <f t="shared" si="2"/>
-        <v>4.9844464048994994E-2</v>
+        <v>3.3586292485673797E-2</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="N12" s="11">
-        <f>INDEX('Price Data'!$J$2:$J$265,COUNT('Price Data'!$J$2:$J$265))</f>
-        <v>25.4899997711181</v>
+        <f>INDEX('Price Data'!$C$2:$C$265,COUNT('Price Data'!$C$2:$C$265))</f>
+        <v>24.649999618530199</v>
       </c>
       <c r="O12" s="12">
-        <f>'200D SMA'!$J$2</f>
-        <v>26.225949945449798</v>
+        <f>'200D SMA'!$C$2</f>
+        <v>26.1815499401092</v>
       </c>
       <c r="P12" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2995,7 +3032,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="1:17">
       <c r="B13" s="36" t="s">
         <v>32</v>
       </c>
@@ -3004,62 +3041,62 @@
       </c>
       <c r="D13" s="28">
         <f>IF($N$17="Trinity",0.025,0)</f>
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E13" s="29">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F13" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G13" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="H13" s="25">
-        <f>'Performance Data'!$K$2</f>
-        <v>8.4570657540288405E-2</v>
+        <f>'Performance Data'!$D$2</f>
+        <v>2.946433700672E-2</v>
       </c>
       <c r="I13" s="2">
-        <f>'Performance Data'!$K$3</f>
-        <v>3.5120130061671903E-2</v>
+        <f>'Performance Data'!$D$3</f>
+        <v>9.7050409112055994E-2</v>
       </c>
       <c r="J13" s="2">
-        <f>'Performance Data'!$K$4</f>
-        <v>-3.64210065003015E-2</v>
+        <f>'Performance Data'!$D$4</f>
+        <v>8.1608501337693193E-3</v>
       </c>
       <c r="K13" s="2">
-        <f>'Performance Data'!$K$5</f>
-        <v>-2.3753512568229699E-3</v>
+        <f>'Performance Data'!$D$5</f>
+        <v>-6.32005780016853E-3</v>
       </c>
       <c r="L13" s="10">
         <f t="shared" si="2"/>
-        <v>2.0223607461208961E-2</v>
+        <v>3.2088884613094198E-2</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="N13" s="11">
-        <f>INDEX('Price Data'!$K$2:$K$265,COUNT('Price Data'!$K$2:$K$265))</f>
-        <v>33.599998474121001</v>
+        <f>INDEX('Price Data'!$D$2:$D$265,COUNT('Price Data'!$D$2:$D$265))</f>
+        <v>34.590000152587798</v>
       </c>
       <c r="O13" s="12">
-        <f>'200D SMA'!$K$2</f>
-        <v>34.163800067901597</v>
+        <f>'200D SMA'!$D$2</f>
+        <v>33.8827999877929</v>
       </c>
       <c r="P13" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="Q13" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="17" thickBot="1">
+        <v>add 10%</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="17" thickBot="1">
       <c r="B14" s="36" t="s">
         <v>34</v>
       </c>
@@ -3068,7 +3105,7 @@
       </c>
       <c r="D14" s="28">
         <f>IF($N$17="Trinity",0.0225,0)</f>
-        <v>0</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="E14" s="29">
         <f t="shared" si="6"/>
@@ -3076,43 +3113,43 @@
       </c>
       <c r="F14" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="G14" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="H14" s="26">
-        <f>'Performance Data'!$L$2</f>
-        <v>6.1460572039070398E-2</v>
+        <f>'Performance Data'!$I$2</f>
+        <v>-5.0343444813629998E-2</v>
       </c>
       <c r="I14" s="17">
-        <f>'Performance Data'!$L$3</f>
-        <v>-5.30050552837837E-2</v>
+        <f>'Performance Data'!$I$3</f>
+        <v>4.33548158709951E-2</v>
       </c>
       <c r="J14" s="17">
-        <f>'Performance Data'!$L$4</f>
-        <v>-0.10526812609798999</v>
+        <f>'Performance Data'!$I$4</f>
+        <v>-7.1981005637138204E-2</v>
       </c>
       <c r="K14" s="17">
-        <f>'Performance Data'!$L$5</f>
-        <v>-0.15717285793402</v>
+        <f>'Performance Data'!$I$5</f>
+        <v>-0.26251148955526599</v>
       </c>
       <c r="L14" s="18">
         <f t="shared" si="2"/>
-        <v>-6.3496366819180833E-2</v>
+        <v>-8.5370281033759765E-2</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="N14" s="16">
-        <f>INDEX('Price Data'!$L$2:$L$265,COUNT('Price Data'!$L$2:$L$265))</f>
-        <v>88.080001831054602</v>
+        <f>INDEX('Price Data'!$I$2:$I$265,COUNT('Price Data'!$I$2:$I$265))</f>
+        <v>82.480003356933594</v>
       </c>
       <c r="O14" s="13">
-        <f>'200D SMA'!$L$2</f>
-        <v>94.753450126647905</v>
+        <f>'200D SMA'!$I$2</f>
+        <v>92.82</v>
       </c>
       <c r="P14" s="8" t="str">
         <f t="shared" si="4"/>
@@ -3123,7 +3160,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="17" thickBot="1">
+    <row r="15" spans="1:17" ht="17" thickBot="1">
       <c r="B15" s="36" t="s">
         <v>36</v>
       </c>
@@ -3135,29 +3172,29 @@
       </c>
       <c r="E15" s="29">
         <f>IF($N$17="Trinity",0.5-SUM(E4:E14), 1-SUM(E4:E14))</f>
-        <v>0.39999999999999991</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="F15" s="30">
         <f t="shared" ref="F15" si="7">D15+E15</f>
-        <v>0.39999999999999991</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="G15" s="42">
         <f t="shared" si="1"/>
-        <v>39999.999999999993</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="17" thickBot="1">
+        <v>19999.999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="17" thickBot="1">
       <c r="B16" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="39">
         <f>SUM(D4:D15)</f>
-        <v>0</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="E16" s="40">
         <f>SUM(E4:E15)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F16" s="41">
         <f>SUM(F4:F15)</f>
@@ -3178,7 +3215,7 @@
     </row>
     <row r="17" spans="14:17" ht="17" thickBot="1">
       <c r="N17" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O17" s="49"/>
       <c r="P17" s="52">
@@ -3328,7 +3365,7 @@
   <dimension ref="A1:L261"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3344,75 +3381,75 @@
         <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
       </c>
       <c r="F1" t="s">
         <v>23</v>
       </c>
       <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
       <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="23">
-        <v>44895</v>
+        <v>44925</v>
       </c>
       <c r="B2">
-        <v>152.759994506835</v>
+        <v>47.430000305175703</v>
       </c>
       <c r="C2">
-        <v>146.24000549316401</v>
+        <v>24.649999618530199</v>
       </c>
       <c r="D2">
-        <v>51.900001525878899</v>
+        <v>34.590000152587798</v>
       </c>
       <c r="E2">
-        <v>40.520000457763601</v>
+        <v>145.92999267578099</v>
       </c>
       <c r="F2">
-        <v>78.580001831054602</v>
+        <v>77.510002136230398</v>
       </c>
       <c r="G2">
-        <v>63.360000610351499</v>
+        <v>50.139999389648402</v>
       </c>
       <c r="H2">
-        <v>49.049999237060497</v>
+        <v>61.619998931884702</v>
       </c>
       <c r="I2">
-        <v>48</v>
+        <v>82.480003356933594</v>
       </c>
       <c r="J2">
-        <v>25.4899997711181</v>
+        <v>46.709999084472599</v>
       </c>
       <c r="K2">
-        <v>33.599998474121001</v>
+        <v>140.36999511718699</v>
       </c>
       <c r="L2">
-        <v>88.080001831054602</v>
+        <v>38.9799995422363</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4195,7 +4232,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4211,75 +4248,75 @@
         <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
       </c>
       <c r="F1" t="s">
         <v>23</v>
       </c>
       <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
       <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="23">
-        <v>44895</v>
+        <v>44925</v>
       </c>
       <c r="B2">
-        <v>146.41060066223099</v>
+        <v>49.596299953460601</v>
       </c>
       <c r="C2">
-        <v>138.68065002441401</v>
+        <v>26.1815499401092</v>
       </c>
       <c r="D2">
-        <v>51.532799892425501</v>
+        <v>33.8827999877929</v>
       </c>
       <c r="E2">
-        <v>41.684300117492597</v>
+        <v>145.333450546264</v>
       </c>
       <c r="F2">
-        <v>80.832650146484298</v>
+        <v>79.888000106811504</v>
       </c>
       <c r="G2">
-        <v>70.192349815368601</v>
+        <v>50.902349872589099</v>
       </c>
       <c r="H2">
-        <v>50.098649902343702</v>
+        <v>68.281149864196706</v>
       </c>
       <c r="I2">
-        <v>49.788900070190401</v>
+        <v>92.82</v>
       </c>
       <c r="J2">
-        <v>26.225949945449798</v>
+        <v>49.382050094604402</v>
       </c>
       <c r="K2">
-        <v>34.163800067901597</v>
+        <v>138.52834976196201</v>
       </c>
       <c r="L2">
-        <v>94.753450126647905</v>
+        <v>40.934450092315601</v>
       </c>
     </row>
   </sheetData>
@@ -4297,7 +4334,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M5"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4314,37 +4351,37 @@
         <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
       </c>
       <c r="F1" t="s">
         <v>23</v>
       </c>
       <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
       <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="M1" t="s">
         <v>38</v>
@@ -4352,40 +4389,40 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="23">
-        <v>44895</v>
+        <v>44925</v>
       </c>
       <c r="B2">
-        <v>3.4678915865306199E-2</v>
+        <v>-2.7490743418946102E-2</v>
       </c>
       <c r="C2">
-        <v>5.9940597226144803E-2</v>
+        <v>-2.7115166682299598E-2</v>
       </c>
       <c r="D2">
-        <v>0.13145852920006501</v>
+        <v>2.946433700672E-2</v>
       </c>
       <c r="E2">
-        <v>0.14301832399745801</v>
+        <v>-3.9270237931518397E-2</v>
       </c>
       <c r="F2">
-        <v>4.5502900509695403E-2</v>
+        <v>-7.9849306221576599E-3</v>
       </c>
       <c r="G2">
-        <v>6.4516131099709495E-2</v>
+        <v>-2.1927475340761698E-2</v>
       </c>
       <c r="H2">
-        <v>2.31539558228759E-2</v>
+        <v>-2.2759764181914499E-2</v>
       </c>
       <c r="I2">
-        <v>5.2356020942410098E-3</v>
+        <v>-5.0343444813629998E-2</v>
       </c>
       <c r="J2">
-        <v>1.47292563504568E-2</v>
+        <v>-3.6405102703234099E-3</v>
       </c>
       <c r="K2">
-        <v>8.4570657540288405E-2</v>
+        <v>-3.3020592894652603E-2</v>
       </c>
       <c r="L2">
-        <v>6.1460572039070398E-2</v>
+        <v>-2.2292411924611601E-2</v>
       </c>
       <c r="M2" t="s">
         <v>39</v>
@@ -4393,40 +4430,40 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="23">
-        <v>44895</v>
+        <v>44925</v>
       </c>
       <c r="B3">
-        <v>8.6795654241217796E-2</v>
+        <v>1.58065157451225E-3</v>
       </c>
       <c r="C3">
-        <v>8.4544715699239298E-2</v>
+        <v>3.7174137038419097E-2</v>
       </c>
       <c r="D3">
-        <v>5.1032814970732802E-2</v>
+        <v>9.7050409112055994E-2</v>
       </c>
       <c r="E3">
-        <v>-1.48310380381793E-2</v>
+        <v>0.118776312891091</v>
       </c>
       <c r="F3">
-        <v>-1.3185928149937499E-2</v>
+        <v>3.5788431609140997E-2</v>
       </c>
       <c r="G3">
-        <v>-7.5036487440123506E-2</v>
+        <v>0.144318421037511</v>
       </c>
       <c r="H3">
-        <v>-3.0488114543258901E-3</v>
+        <v>-1.12664352423281E-2</v>
       </c>
       <c r="I3">
-        <v>-3.1672376527937501E-2</v>
+        <v>4.33548158709951E-2</v>
       </c>
       <c r="J3">
-        <v>-8.9424396724968602E-3</v>
+        <v>1.31181876317263E-2</v>
       </c>
       <c r="K3">
-        <v>3.5120130061671903E-2</v>
+        <v>0.14521433286911201</v>
       </c>
       <c r="L3">
-        <v>-5.30050552837837E-2</v>
+        <v>8.5686870563925904E-2</v>
       </c>
       <c r="M3" t="s">
         <v>40</v>
@@ -4434,40 +4471,40 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="23">
-        <v>44895</v>
+        <v>44925</v>
       </c>
       <c r="B4">
-        <v>4.8607703338702603E-2</v>
+        <v>-3.2303657729338499E-2</v>
       </c>
       <c r="C4">
-        <v>2.1441022772712801E-2</v>
+        <v>-6.9112849790397293E-2</v>
       </c>
       <c r="D4">
-        <v>-4.0745869403052401E-2</v>
+        <v>8.1608501337693193E-3</v>
       </c>
       <c r="E4">
-        <v>-6.4588468505597393E-2</v>
+        <v>8.4481600026487594E-2</v>
       </c>
       <c r="F4">
-        <v>-4.01839705834936E-2</v>
+        <v>-1.31796015881768E-2</v>
       </c>
       <c r="G4">
-        <v>-0.105436821043673</v>
+        <v>2.15920215108007E-2</v>
       </c>
       <c r="H4">
-        <v>-2.5159925801493701E-2</v>
+        <v>-0.10733792360423999</v>
       </c>
       <c r="I4">
-        <v>-4.4658050028896397E-2</v>
+        <v>-7.1981005637138204E-2</v>
       </c>
       <c r="J4">
-        <v>-0.11493054005650701</v>
+        <v>-1.40362441192205E-2</v>
       </c>
       <c r="K4">
-        <v>-3.64210065003015E-2</v>
+        <v>7.9449400648000601E-2</v>
       </c>
       <c r="L4">
-        <v>-0.10526812609798999</v>
+        <v>-3.5963076224063903E-2</v>
       </c>
       <c r="M4" t="s">
         <v>41</v>
@@ -4475,40 +4512,40 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="23">
-        <v>44895</v>
+        <v>44925</v>
       </c>
       <c r="B5">
-        <v>-0.15985448289607401</v>
+        <v>-0.127569404370836</v>
       </c>
       <c r="C5">
-        <v>7.5784923497248705E-2</v>
+        <v>0.193399049376973</v>
       </c>
       <c r="D5">
-        <v>-0.109947789888844</v>
+        <v>-6.32005780016853E-3</v>
       </c>
       <c r="E5">
-        <v>-0.159524880918365</v>
+        <v>-0.18267868158178899</v>
       </c>
       <c r="F5">
-        <v>-0.137182500273305</v>
+        <v>-0.13976498596361001</v>
       </c>
       <c r="G5">
-        <v>-0.29591870127962999</v>
+        <v>-0.155793561695139</v>
       </c>
       <c r="H5">
-        <v>-0.11241263936543</v>
+        <v>-0.29345833741935301</v>
       </c>
       <c r="I5">
-        <v>-3.9684588787439898E-2</v>
+        <v>-0.26251148955526599</v>
       </c>
       <c r="J5">
-        <v>0.30852157957452703</v>
+        <v>-2.9358761041323199E-2</v>
       </c>
       <c r="K5">
-        <v>-2.3753512568229699E-3</v>
+        <v>-2.0872046915779499E-2</v>
       </c>
       <c r="L5">
-        <v>-0.15717285793402</v>
+        <v>-0.17978829068115201</v>
       </c>
       <c r="M5" t="s">
         <v>42</v>

--- a/Portfolio Optimization Tool.xlsx
+++ b/Portfolio Optimization Tool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanlupinski/PycharmProjects/Finance/Portfolio Optimization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanlupinski/Documents/GitHub/Portfolio-Optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2018803-4C2B-1E49-902A-890730D986F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6EAF8B-437B-0642-90B6-1420C982453B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>Rank</t>
   </si>
@@ -1977,7 +1977,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="241300" y="3492500"/>
+              <a:off x="241300" y="3530600"/>
               <a:ext cx="14555611" cy="4471811"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2318,10 +2318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="B1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2344,45 +2344,8 @@
     <col min="20" max="20" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="53" customHeight="1" thickBot="1">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="17" thickBot="1">
+    <row r="1" spans="2:17" ht="17" thickBot="1"/>
+    <row r="2" spans="2:17" ht="17" thickBot="1">
       <c r="H2" s="44" t="s">
         <v>45</v>
       </c>
@@ -2390,11 +2353,11 @@
       <c r="J2" s="45"/>
       <c r="K2" s="46">
         <f>INDEX('Price Data'!$A$2:$A$265,COUNT('Price Data'!$A$2:$A$265))</f>
-        <v>44925</v>
+        <v>45016</v>
       </c>
       <c r="L2" s="47">
         <f>INDEX('Price Data'!$L$2:$L$255,COUNT('Price Data'!$L$2:$L$255))</f>
-        <v>38.9799995422363</v>
+        <v>40.400001525878899</v>
       </c>
       <c r="M2" s="56" t="s">
         <v>0</v>
@@ -2412,7 +2375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="2:17">
       <c r="B3" s="31" t="s">
         <v>4</v>
       </c>
@@ -2456,7 +2419,7 @@
       <c r="P3" s="59"/>
       <c r="Q3" s="61"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="2:17">
       <c r="B4" s="36" t="s">
         <v>16</v>
       </c>
@@ -2465,62 +2428,62 @@
       </c>
       <c r="D4" s="28">
         <f>IF($N$17="Trinity",0.05,0)</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E4" s="29">
         <f>IF(Q4="n/a",0,IF(Q4="add 10%",0.1,0.2))</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="30">
         <f t="shared" ref="F4:F14" si="0">IF($N$17="Trinity",(D4+E4),E4)</f>
-        <v>0.15000000000000002</v>
+        <v>0</v>
       </c>
       <c r="G4" s="42">
         <f t="shared" ref="G4:G15" si="1">F4*$P$17</f>
-        <v>15000.000000000002</v>
+        <v>0</v>
       </c>
       <c r="H4" s="25">
         <f>'Performance Data'!$E$2</f>
-        <v>-3.9270237931518397E-2</v>
+        <v>4.3289599551366003E-3</v>
       </c>
       <c r="I4" s="2">
         <f>'Performance Data'!$E$3</f>
-        <v>0.118776312891091</v>
+        <v>-4.1506854257499198E-2</v>
       </c>
       <c r="J4" s="2">
         <f>'Performance Data'!$E$4</f>
-        <v>8.4481600026487594E-2</v>
+        <v>7.2339309299156399E-2</v>
       </c>
       <c r="K4" s="2">
         <f>'Performance Data'!$E$5</f>
-        <v>-0.18267868158178899</v>
+        <v>-0.15544438938966301</v>
       </c>
       <c r="L4" s="10">
         <f t="shared" ref="L4:L14" si="2">AVERAGE(H4:K4)</f>
-        <v>-4.6727516489321955E-3</v>
+        <v>-3.0070743598217303E-2</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ref="M4:M14" si="3">_xlfn.RANK.EQ(L4,$L$4:$L$14,0)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N4" s="11">
         <f>INDEX('Price Data'!$E$2:$E$265,COUNT('Price Data'!$E$2:$E$265))</f>
-        <v>145.92999267578099</v>
+        <v>139.03999328613199</v>
       </c>
       <c r="O4" s="12">
         <f>'200D SMA'!$E$2</f>
-        <v>145.333450546264</v>
+        <v>141.74680038452101</v>
       </c>
       <c r="P4" s="5" t="str">
         <f t="shared" ref="P4:P14" si="4">IF(N4&gt;O4,"yes","no")</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="Q4" s="6" t="str">
         <f t="shared" ref="Q4:Q14" si="5">IF(M4&gt;5,"n/a",IF(P4="yes", (IF($N$17="Trinity","add 10%","add 20%")),"n/a"))</f>
-        <v>add 10%</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
       <c r="B5" s="36" t="s">
         <v>18</v>
       </c>
@@ -2529,51 +2492,51 @@
       </c>
       <c r="D5" s="28">
         <f>IF($N$17="Trinity",0.05,0)</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E5" s="29">
         <f t="shared" ref="E5:E14" si="6">IF(Q5="n/a",0,IF(Q5="add 10%",0.1,0.2))</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F5" s="30">
         <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G5" s="42">
         <f t="shared" si="1"/>
-        <v>15000.000000000002</v>
+        <v>20000</v>
       </c>
       <c r="H5" s="25">
         <f>'Performance Data'!$K$2</f>
-        <v>-3.3020592894652603E-2</v>
+        <v>-4.6180814831356899E-3</v>
       </c>
       <c r="I5" s="2">
         <f>'Performance Data'!$K$3</f>
-        <v>0.14521433286911201</v>
+        <v>-1.00073599935947E-2</v>
       </c>
       <c r="J5" s="2">
         <f>'Performance Data'!$K$4</f>
-        <v>7.9449400648000601E-2</v>
+        <v>0.133753773938352</v>
       </c>
       <c r="K5" s="2">
         <f>'Performance Data'!$K$5</f>
-        <v>-2.0872046915779499E-2</v>
+        <v>-4.0204985555638298E-2</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" si="2"/>
-        <v>4.2692773426670133E-2</v>
+        <v>1.9730836726495827E-2</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" s="11">
         <f>INDEX('Price Data'!$K$2:$K$265,COUNT('Price Data'!$K$2:$K$265))</f>
-        <v>140.36999511718699</v>
+        <v>138.11000061035099</v>
       </c>
       <c r="O5" s="12">
         <f>'200D SMA'!$K$2</f>
-        <v>138.52834976196201</v>
+        <v>137.37024986266999</v>
       </c>
       <c r="P5" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2581,10 +2544,10 @@
       </c>
       <c r="Q5" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>add 10%</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>add 20%</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
       <c r="B6" s="36" t="s">
         <v>43</v>
       </c>
@@ -2593,62 +2556,62 @@
       </c>
       <c r="D6" s="28">
         <f>IF($N$17="Trinity",0.0675,0)</f>
-        <v>6.7500000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="29">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F6" s="30">
         <f t="shared" si="0"/>
-        <v>6.7500000000000004E-2</v>
+        <v>0.2</v>
       </c>
       <c r="G6" s="42">
         <f t="shared" si="1"/>
-        <v>6750</v>
+        <v>20000</v>
       </c>
       <c r="H6" s="25">
         <f>'Performance Data'!$G$2</f>
-        <v>-2.1927475340761698E-2</v>
+        <v>2.8432291631127898E-2</v>
       </c>
       <c r="I6" s="2">
         <f>'Performance Data'!$G$3</f>
-        <v>0.144318421037511</v>
+        <v>6.8839395839965498E-2</v>
       </c>
       <c r="J6" s="2">
         <f>'Performance Data'!$G$4</f>
-        <v>2.15920215108007E-2</v>
+        <v>0.22309255112689</v>
       </c>
       <c r="K6" s="2">
         <f>'Performance Data'!$G$5</f>
-        <v>-0.155793561695139</v>
+        <v>-4.1622842250769003E-2</v>
       </c>
       <c r="L6" s="10">
         <f t="shared" si="2"/>
-        <v>-2.9526486218972511E-3</v>
+        <v>6.96853490868036E-2</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N6" s="11">
         <f>INDEX('Price Data'!$G$2:$G$265,COUNT('Price Data'!$G$2:$G$265))</f>
-        <v>50.139999389648402</v>
+        <v>53.470001220703097</v>
       </c>
       <c r="O6" s="12">
         <f>'200D SMA'!$G$2</f>
-        <v>50.902349872589099</v>
+        <v>50.3077498817443</v>
       </c>
       <c r="P6" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="Q6" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>add 20%</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
       <c r="B7" s="36" t="s">
         <v>44</v>
       </c>
@@ -2657,62 +2620,62 @@
       </c>
       <c r="D7" s="28">
         <f>IF($N$17="Trinity",0.0225,0)</f>
-        <v>2.2499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="29">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F7" s="30">
         <f t="shared" si="0"/>
-        <v>2.2499999999999999E-2</v>
+        <v>0.2</v>
       </c>
       <c r="G7" s="42">
         <f t="shared" si="1"/>
-        <v>2250</v>
+        <v>20000</v>
       </c>
       <c r="H7" s="25">
         <f>'Performance Data'!$L$2</f>
-        <v>-2.2292411924611601E-2</v>
+        <v>2.5601847408840799E-2</v>
       </c>
       <c r="I7" s="2">
         <f>'Performance Data'!$L$3</f>
-        <v>8.5686870563925904E-2</v>
+        <v>3.7178576647040398E-2</v>
       </c>
       <c r="J7" s="2">
         <f>'Performance Data'!$L$4</f>
-        <v>-3.5963076224063903E-2</v>
+        <v>0.126051265409999</v>
       </c>
       <c r="K7" s="2">
         <f>'Performance Data'!$L$5</f>
-        <v>-0.17978829068115201</v>
+        <v>-9.0512356029808602E-2</v>
       </c>
       <c r="L7" s="10">
         <f t="shared" si="2"/>
-        <v>-3.8089227066475398E-2</v>
+        <v>2.4579833359017898E-2</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N7" s="11">
         <f>INDEX('Price Data'!$L$2:$L$265,COUNT('Price Data'!$L$2:$L$265))</f>
-        <v>38.9799995422363</v>
+        <v>40.400001525878899</v>
       </c>
       <c r="O7" s="12">
         <f>'200D SMA'!$L$2</f>
-        <v>40.934450092315601</v>
+        <v>39.932199954986501</v>
       </c>
       <c r="P7" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="Q7" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>add 20%</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
       <c r="B8" s="36" t="s">
         <v>22</v>
       </c>
@@ -2721,62 +2684,62 @@
       </c>
       <c r="D8" s="28">
         <f>IF($N$17="Trinity",0.089,0)</f>
-        <v>8.8999999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="29">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F8" s="30">
         <f t="shared" si="0"/>
-        <v>8.8999999999999996E-2</v>
+        <v>0.2</v>
       </c>
       <c r="G8" s="42">
         <f t="shared" si="1"/>
-        <v>8900</v>
+        <v>20000</v>
       </c>
       <c r="H8" s="25">
         <f>'Performance Data'!$F$2</f>
-        <v>-7.9849306221576599E-3</v>
+        <v>3.1808311636817001E-2</v>
       </c>
       <c r="I8" s="2">
         <f>'Performance Data'!$F$3</f>
-        <v>3.5788431609140997E-2</v>
+        <v>4.0839159311477101E-2</v>
       </c>
       <c r="J8" s="2">
         <f>'Performance Data'!$F$4</f>
-        <v>-1.31796015881768E-2</v>
+        <v>7.8089099427015293E-2</v>
       </c>
       <c r="K8" s="2">
         <f>'Performance Data'!$F$5</f>
-        <v>-0.13976498596361001</v>
+        <v>-3.8302643289019098E-2</v>
       </c>
       <c r="L8" s="10">
         <f t="shared" si="2"/>
-        <v>-3.1285271641200867E-2</v>
+        <v>2.8108481771572578E-2</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N8" s="11">
         <f>INDEX('Price Data'!$F$2:$F$265,COUNT('Price Data'!$F$2:$F$265))</f>
-        <v>77.510002136230398</v>
+        <v>80.220001220703097</v>
       </c>
       <c r="O8" s="12">
         <f>'200D SMA'!$F$2</f>
-        <v>79.888000106811504</v>
+        <v>78.8047999954223</v>
       </c>
       <c r="P8" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="Q8" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>add 20%</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
       <c r="B9" s="36" t="s">
         <v>24</v>
       </c>
@@ -2785,7 +2748,7 @@
       </c>
       <c r="D9" s="28">
         <f>IF($N$17="Trinity",0.0675,0)</f>
-        <v>6.7500000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="29">
         <f t="shared" si="6"/>
@@ -2793,54 +2756,54 @@
       </c>
       <c r="F9" s="30">
         <f t="shared" si="0"/>
-        <v>6.7500000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="42">
         <f t="shared" si="1"/>
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="H9" s="25">
         <f>'Performance Data'!$H$2</f>
-        <v>-2.2759764181914499E-2</v>
+        <v>4.6669565039392902E-2</v>
       </c>
       <c r="I9" s="2">
         <f>'Performance Data'!$H$3</f>
-        <v>-1.12664352423281E-2</v>
+        <v>6.8299065033536596E-2</v>
       </c>
       <c r="J9" s="2">
         <f>'Performance Data'!$H$4</f>
-        <v>-0.10733792360423999</v>
+        <v>5.6263094007382199E-2</v>
       </c>
       <c r="K9" s="2">
         <f>'Performance Data'!$H$5</f>
-        <v>-0.29345833741935301</v>
+        <v>-0.16301918824186101</v>
       </c>
       <c r="L9" s="10">
         <f t="shared" si="2"/>
-        <v>-0.10870561511195889</v>
+        <v>2.0531339596126727E-3</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N9" s="11">
         <f>INDEX('Price Data'!$H$2:$H$265,COUNT('Price Data'!$H$2:$H$265))</f>
-        <v>61.619998931884702</v>
+        <v>65.510002136230398</v>
       </c>
       <c r="O9" s="12">
         <f>'200D SMA'!$H$2</f>
-        <v>68.281149864196706</v>
+        <v>65.408099899291997</v>
       </c>
       <c r="P9" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="Q9" s="6" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="2:17">
       <c r="B10" s="36" t="s">
         <v>26</v>
       </c>
@@ -2849,7 +2812,7 @@
       </c>
       <c r="D10" s="28">
         <f>IF($N$17="Trinity",0.072,0)</f>
-        <v>7.1999999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="29">
         <f t="shared" si="6"/>
@@ -2857,54 +2820,54 @@
       </c>
       <c r="F10" s="30">
         <f t="shared" si="0"/>
-        <v>7.1999999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="42">
         <f t="shared" si="1"/>
-        <v>7199.9999999999991</v>
+        <v>0</v>
       </c>
       <c r="H10" s="25">
         <f>'Performance Data'!$B$2</f>
-        <v>-2.7490743418946102E-2</v>
+        <v>2.55550040100509E-2</v>
       </c>
       <c r="I10" s="2">
         <f>'Performance Data'!$B$3</f>
-        <v>1.58065157451225E-3</v>
+        <v>3.4032227040537301E-2</v>
       </c>
       <c r="J10" s="2">
         <f>'Performance Data'!$B$4</f>
-        <v>-3.2303657729338499E-2</v>
+        <v>3.5666711796895102E-2</v>
       </c>
       <c r="K10" s="2">
         <f>'Performance Data'!$B$5</f>
-        <v>-0.127569404370836</v>
+        <v>-5.2524786005802099E-2</v>
       </c>
       <c r="L10" s="10">
         <f t="shared" si="2"/>
-        <v>-4.6445788486152086E-2</v>
+        <v>1.0682289210420304E-2</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N10" s="11">
         <f>INDEX('Price Data'!$B$2:$B$265,COUNT('Price Data'!$B$2:$B$265))</f>
-        <v>47.430000305175703</v>
+        <v>48.919998168945298</v>
       </c>
       <c r="O10" s="12">
         <f>'200D SMA'!$B$2</f>
-        <v>49.596299953460601</v>
+        <v>48.78125</v>
       </c>
       <c r="P10" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="Q10" s="6" t="str">
         <f t="shared" si="5"/>
         <v>n/a</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="2:17">
       <c r="B11" s="36" t="s">
         <v>28</v>
       </c>
@@ -2913,7 +2876,7 @@
       </c>
       <c r="D11" s="28">
         <f>IF($N$17="Trinity",0.009,0)</f>
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
       <c r="E11" s="29">
         <f t="shared" si="6"/>
@@ -2921,31 +2884,31 @@
       </c>
       <c r="F11" s="30">
         <f t="shared" si="0"/>
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
       <c r="G11" s="42">
         <f t="shared" si="1"/>
-        <v>899.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="H11" s="25">
         <f>'Performance Data'!$J$2</f>
-        <v>-3.6405102703234099E-3</v>
+        <v>1.9833646981174399E-2</v>
       </c>
       <c r="I11" s="2">
         <f>'Performance Data'!$J$3</f>
-        <v>1.31181876317263E-2</v>
+        <v>2.3763616235940001E-2</v>
       </c>
       <c r="J11" s="2">
         <f>'Performance Data'!$J$4</f>
-        <v>-1.40362441192205E-2</v>
+        <v>3.7193551581157801E-2</v>
       </c>
       <c r="K11" s="2">
         <f>'Performance Data'!$J$5</f>
-        <v>-2.9358761041323199E-2</v>
+        <v>-2.6058733576739199E-3</v>
       </c>
       <c r="L11" s="10">
         <f t="shared" si="2"/>
-        <v>-8.4793319497852015E-3</v>
+        <v>1.9546235360149572E-2</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="3"/>
@@ -2953,11 +2916,11 @@
       </c>
       <c r="N11" s="11">
         <f>INDEX('Price Data'!$J$2:$J$265,COUNT('Price Data'!$J$2:$J$265))</f>
-        <v>46.709999084472599</v>
+        <v>47.819999694824197</v>
       </c>
       <c r="O11" s="12">
         <f>'200D SMA'!$J$2</f>
-        <v>49.382050094604402</v>
+        <v>48.222900142669602</v>
       </c>
       <c r="P11" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2968,7 +2931,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="2:17">
       <c r="B12" s="36" t="s">
         <v>30</v>
       </c>
@@ -2977,7 +2940,7 @@
       </c>
       <c r="D12" s="28">
         <f>IF($N$17="Trinity",0.025,0)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="29">
         <f t="shared" si="6"/>
@@ -2985,43 +2948,43 @@
       </c>
       <c r="F12" s="30">
         <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="42">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="H12" s="25">
         <f>'Performance Data'!$C$2</f>
-        <v>-2.7115166682299598E-2</v>
+        <v>-8.4177009978991801E-4</v>
       </c>
       <c r="I12" s="2">
         <f>'Performance Data'!$C$3</f>
-        <v>3.7174137038419097E-2</v>
+        <v>-3.6916830080923502E-2</v>
       </c>
       <c r="J12" s="2">
         <f>'Performance Data'!$C$4</f>
-        <v>-6.9112849790397293E-2</v>
+        <v>-1.1150443429576099E-3</v>
       </c>
       <c r="K12" s="2">
         <f>'Performance Data'!$C$5</f>
-        <v>0.193399049376973</v>
+        <v>-8.3524968255154403E-2</v>
       </c>
       <c r="L12" s="10">
         <f t="shared" si="2"/>
-        <v>3.3586292485673797E-2</v>
+        <v>-3.059965319470636E-2</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N12" s="11">
         <f>INDEX('Price Data'!$C$2:$C$265,COUNT('Price Data'!$C$2:$C$265))</f>
-        <v>24.649999618530199</v>
+        <v>23.7399997711181</v>
       </c>
       <c r="O12" s="12">
         <f>'200D SMA'!$C$2</f>
-        <v>26.1815499401092</v>
+        <v>24.987449989318801</v>
       </c>
       <c r="P12" s="7" t="str">
         <f t="shared" si="4"/>
@@ -3032,7 +2995,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="2:17">
       <c r="B13" s="36" t="s">
         <v>32</v>
       </c>
@@ -3041,51 +3004,51 @@
       </c>
       <c r="D13" s="28">
         <f>IF($N$17="Trinity",0.025,0)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="29">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F13" s="30">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="G13" s="42">
         <f t="shared" si="1"/>
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="H13" s="25">
         <f>'Performance Data'!$D$2</f>
-        <v>2.946433700672E-2</v>
+        <v>7.9433855714746898E-2</v>
       </c>
       <c r="I13" s="2">
         <f>'Performance Data'!$D$3</f>
-        <v>9.7050409112055994E-2</v>
+        <v>8.0370013501977103E-2</v>
       </c>
       <c r="J13" s="2">
         <f>'Performance Data'!$D$4</f>
-        <v>8.1608501337693193E-3</v>
+        <v>0.18522036530474101</v>
       </c>
       <c r="K13" s="2">
         <f>'Performance Data'!$D$5</f>
-        <v>-6.32005780016853E-3</v>
+        <v>1.46618809118479E-2</v>
       </c>
       <c r="L13" s="10">
         <f t="shared" si="2"/>
-        <v>3.2088884613094198E-2</v>
+        <v>8.9921528858328229E-2</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" s="11">
         <f>INDEX('Price Data'!$D$2:$D$265,COUNT('Price Data'!$D$2:$D$265))</f>
-        <v>34.590000152587798</v>
+        <v>37.369998931884702</v>
       </c>
       <c r="O13" s="12">
         <f>'200D SMA'!$D$2</f>
-        <v>33.8827999877929</v>
+        <v>33.866199989318801</v>
       </c>
       <c r="P13" s="7" t="str">
         <f t="shared" si="4"/>
@@ -3093,10 +3056,10 @@
       </c>
       <c r="Q13" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>add 10%</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="17" thickBot="1">
+        <v>add 20%</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="17" thickBot="1">
       <c r="B14" s="36" t="s">
         <v>34</v>
       </c>
@@ -3105,7 +3068,7 @@
       </c>
       <c r="D14" s="28">
         <f>IF($N$17="Trinity",0.0225,0)</f>
-        <v>2.2499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="29">
         <f t="shared" si="6"/>
@@ -3113,43 +3076,43 @@
       </c>
       <c r="F14" s="30">
         <f t="shared" si="0"/>
-        <v>2.2499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="42">
         <f t="shared" si="1"/>
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="H14" s="26">
         <f>'Performance Data'!$I$2</f>
-        <v>-5.0343444813629998E-2</v>
+        <v>-2.1554582203942501E-2</v>
       </c>
       <c r="I14" s="17">
         <f>'Performance Data'!$I$3</f>
-        <v>4.33548158709951E-2</v>
+        <v>1.6880968181253099E-2</v>
       </c>
       <c r="J14" s="17">
         <f>'Performance Data'!$I$4</f>
-        <v>-7.1981005637138204E-2</v>
+        <v>6.09676641420617E-2</v>
       </c>
       <c r="K14" s="17">
         <f>'Performance Data'!$I$5</f>
-        <v>-0.26251148955526599</v>
+        <v>-0.20156117910697</v>
       </c>
       <c r="L14" s="18">
         <f t="shared" si="2"/>
-        <v>-8.5370281033759765E-2</v>
+        <v>-3.6316782246899423E-2</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N14" s="16">
         <f>INDEX('Price Data'!$I$2:$I$265,COUNT('Price Data'!$I$2:$I$265))</f>
-        <v>82.480003356933594</v>
+        <v>83.040000915527301</v>
       </c>
       <c r="O14" s="13">
         <f>'200D SMA'!$I$2</f>
-        <v>92.82</v>
+        <v>87.648699798583905</v>
       </c>
       <c r="P14" s="8" t="str">
         <f t="shared" si="4"/>
@@ -3160,7 +3123,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="17" thickBot="1">
+    <row r="15" spans="2:17" ht="17" thickBot="1">
       <c r="B15" s="36" t="s">
         <v>36</v>
       </c>
@@ -3172,29 +3135,29 @@
       </c>
       <c r="E15" s="29">
         <f>IF($N$17="Trinity",0.5-SUM(E4:E14), 1-SUM(E4:E14))</f>
-        <v>0.19999999999999996</v>
+        <v>0</v>
       </c>
       <c r="F15" s="30">
         <f t="shared" ref="F15" si="7">D15+E15</f>
-        <v>0.19999999999999996</v>
+        <v>0</v>
       </c>
       <c r="G15" s="42">
         <f t="shared" si="1"/>
-        <v>19999.999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="17" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="17" thickBot="1">
       <c r="B16" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="39">
         <f>SUM(D4:D15)</f>
-        <v>0.50000000000000011</v>
+        <v>0</v>
       </c>
       <c r="E16" s="40">
         <f>SUM(E4:E15)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F16" s="41">
         <f>SUM(F4:F15)</f>
@@ -3215,7 +3178,7 @@
     </row>
     <row r="17" spans="14:17" ht="17" thickBot="1">
       <c r="N17" s="48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O17" s="49"/>
       <c r="P17" s="52">
@@ -3250,16 +3213,6 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
   </mergeCells>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="cellIs" dxfId="15" priority="61" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N14">
-    <cfRule type="cellIs" dxfId="14" priority="53" operator="greaterThan">
-      <formula>$O4</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H4:L14">
     <cfRule type="colorScale" priority="24">
       <colorScale>
@@ -3272,74 +3225,84 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M2">
+    <cfRule type="cellIs" dxfId="15" priority="61" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M14">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="lessThanOrEqual">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N14">
+    <cfRule type="cellIs" dxfId="13" priority="53" operator="greaterThan">
+      <formula>$O4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
+      <formula>$N$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
+      <formula>$N$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+      <formula>$N$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
+      <formula>$N$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+      <formula>$N$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+      <formula>$N$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+      <formula>$N$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+      <formula>$N$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>$N$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>$N$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>$N$14</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P4:P14">
-    <cfRule type="containsText" dxfId="13" priority="22" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="1" priority="22" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",P4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q14">
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="add">
+    <cfRule type="containsText" dxfId="0" priority="21" operator="containsText" text="add">
       <formula>NOT(ISERROR(SEARCH("add",Q4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M14">
-    <cfRule type="cellIs" dxfId="11" priority="20" operator="lessThanOrEqual">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="lessThan">
-      <formula>$N$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="lessThan">
-      <formula>$N$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="lessThan">
-      <formula>$N$6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="lessThan">
-      <formula>$N$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
-      <formula>$N$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O9">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="lessThan">
-      <formula>$N$9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="lessThan">
-      <formula>$N$10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O11">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
-      <formula>$N$11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O12">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
-      <formula>$N$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O13">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
-      <formula>$N$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
-      <formula>$N$14</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -3365,7 +3328,7 @@
   <dimension ref="A1:L261"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3416,40 +3379,40 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="23">
-        <v>44925</v>
+        <v>45016</v>
       </c>
       <c r="B2">
-        <v>47.430000305175703</v>
+        <v>48.919998168945298</v>
       </c>
       <c r="C2">
-        <v>24.649999618530199</v>
+        <v>23.7399997711181</v>
       </c>
       <c r="D2">
-        <v>34.590000152587798</v>
+        <v>37.369998931884702</v>
       </c>
       <c r="E2">
-        <v>145.92999267578099</v>
+        <v>139.03999328613199</v>
       </c>
       <c r="F2">
-        <v>77.510002136230398</v>
+        <v>80.220001220703097</v>
       </c>
       <c r="G2">
-        <v>50.139999389648402</v>
+        <v>53.470001220703097</v>
       </c>
       <c r="H2">
-        <v>61.619998931884702</v>
+        <v>65.510002136230398</v>
       </c>
       <c r="I2">
-        <v>82.480003356933594</v>
+        <v>83.040000915527301</v>
       </c>
       <c r="J2">
-        <v>46.709999084472599</v>
+        <v>47.819999694824197</v>
       </c>
       <c r="K2">
-        <v>140.36999511718699</v>
+        <v>138.11000061035099</v>
       </c>
       <c r="L2">
-        <v>38.9799995422363</v>
+        <v>40.400001525878899</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4283,40 +4246,40 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="23">
-        <v>44925</v>
+        <v>45016</v>
       </c>
       <c r="B2">
-        <v>49.596299953460601</v>
+        <v>48.78125</v>
       </c>
       <c r="C2">
-        <v>26.1815499401092</v>
+        <v>24.987449989318801</v>
       </c>
       <c r="D2">
-        <v>33.8827999877929</v>
+        <v>33.866199989318801</v>
       </c>
       <c r="E2">
-        <v>145.333450546264</v>
+        <v>141.74680038452101</v>
       </c>
       <c r="F2">
-        <v>79.888000106811504</v>
+        <v>78.8047999954223</v>
       </c>
       <c r="G2">
-        <v>50.902349872589099</v>
+        <v>50.3077498817443</v>
       </c>
       <c r="H2">
-        <v>68.281149864196706</v>
+        <v>65.408099899291997</v>
       </c>
       <c r="I2">
-        <v>92.82</v>
+        <v>87.648699798583905</v>
       </c>
       <c r="J2">
-        <v>49.382050094604402</v>
+        <v>48.222900142669602</v>
       </c>
       <c r="K2">
-        <v>138.52834976196201</v>
+        <v>137.37024986266999</v>
       </c>
       <c r="L2">
-        <v>40.934450092315601</v>
+        <v>39.932199954986501</v>
       </c>
     </row>
   </sheetData>
@@ -4331,11 +4294,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -4389,40 +4350,40 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="23">
-        <v>44925</v>
+        <v>45016</v>
       </c>
       <c r="B2">
-        <v>-2.7490743418946102E-2</v>
+        <v>2.55550040100509E-2</v>
       </c>
       <c r="C2">
-        <v>-2.7115166682299598E-2</v>
+        <v>-8.4177009978991801E-4</v>
       </c>
       <c r="D2">
-        <v>2.946433700672E-2</v>
+        <v>7.9433855714746898E-2</v>
       </c>
       <c r="E2">
-        <v>-3.9270237931518397E-2</v>
+        <v>4.3289599551366003E-3</v>
       </c>
       <c r="F2">
-        <v>-7.9849306221576599E-3</v>
+        <v>3.1808311636817001E-2</v>
       </c>
       <c r="G2">
-        <v>-2.1927475340761698E-2</v>
+        <v>2.8432291631127898E-2</v>
       </c>
       <c r="H2">
-        <v>-2.2759764181914499E-2</v>
+        <v>4.6669565039392902E-2</v>
       </c>
       <c r="I2">
-        <v>-5.0343444813629998E-2</v>
+        <v>-2.1554582203942501E-2</v>
       </c>
       <c r="J2">
-        <v>-3.6405102703234099E-3</v>
+        <v>1.9833646981174399E-2</v>
       </c>
       <c r="K2">
-        <v>-3.3020592894652603E-2</v>
+        <v>-4.6180814831356899E-3</v>
       </c>
       <c r="L2">
-        <v>-2.2292411924611601E-2</v>
+        <v>2.5601847408840799E-2</v>
       </c>
       <c r="M2" t="s">
         <v>39</v>
@@ -4430,40 +4391,40 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="23">
-        <v>44925</v>
+        <v>45016</v>
       </c>
       <c r="B3">
-        <v>1.58065157451225E-3</v>
+        <v>3.4032227040537301E-2</v>
       </c>
       <c r="C3">
-        <v>3.7174137038419097E-2</v>
+        <v>-3.6916830080923502E-2</v>
       </c>
       <c r="D3">
-        <v>9.7050409112055994E-2</v>
+        <v>8.0370013501977103E-2</v>
       </c>
       <c r="E3">
-        <v>0.118776312891091</v>
+        <v>-4.1506854257499198E-2</v>
       </c>
       <c r="F3">
-        <v>3.5788431609140997E-2</v>
+        <v>4.0839159311477101E-2</v>
       </c>
       <c r="G3">
-        <v>0.144318421037511</v>
+        <v>6.8839395839965498E-2</v>
       </c>
       <c r="H3">
-        <v>-1.12664352423281E-2</v>
+        <v>6.8299065033536596E-2</v>
       </c>
       <c r="I3">
-        <v>4.33548158709951E-2</v>
+        <v>1.6880968181253099E-2</v>
       </c>
       <c r="J3">
-        <v>1.31181876317263E-2</v>
+        <v>2.3763616235940001E-2</v>
       </c>
       <c r="K3">
-        <v>0.14521433286911201</v>
+        <v>-1.00073599935947E-2</v>
       </c>
       <c r="L3">
-        <v>8.5686870563925904E-2</v>
+        <v>3.7178576647040398E-2</v>
       </c>
       <c r="M3" t="s">
         <v>40</v>
@@ -4471,40 +4432,40 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="23">
-        <v>44925</v>
+        <v>45016</v>
       </c>
       <c r="B4">
-        <v>-3.2303657729338499E-2</v>
+        <v>3.5666711796895102E-2</v>
       </c>
       <c r="C4">
-        <v>-6.9112849790397293E-2</v>
+        <v>-1.1150443429576099E-3</v>
       </c>
       <c r="D4">
-        <v>8.1608501337693193E-3</v>
+        <v>0.18522036530474101</v>
       </c>
       <c r="E4">
-        <v>8.4481600026487594E-2</v>
+        <v>7.2339309299156399E-2</v>
       </c>
       <c r="F4">
-        <v>-1.31796015881768E-2</v>
+        <v>7.8089099427015293E-2</v>
       </c>
       <c r="G4">
-        <v>2.15920215108007E-2</v>
+        <v>0.22309255112689</v>
       </c>
       <c r="H4">
-        <v>-0.10733792360423999</v>
+        <v>5.6263094007382199E-2</v>
       </c>
       <c r="I4">
-        <v>-7.1981005637138204E-2</v>
+        <v>6.09676641420617E-2</v>
       </c>
       <c r="J4">
-        <v>-1.40362441192205E-2</v>
+        <v>3.7193551581157801E-2</v>
       </c>
       <c r="K4">
-        <v>7.9449400648000601E-2</v>
+        <v>0.133753773938352</v>
       </c>
       <c r="L4">
-        <v>-3.5963076224063903E-2</v>
+        <v>0.126051265409999</v>
       </c>
       <c r="M4" t="s">
         <v>41</v>
@@ -4512,44 +4473,56 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="23">
-        <v>44925</v>
+        <v>45016</v>
       </c>
       <c r="B5">
-        <v>-0.127569404370836</v>
+        <v>-5.2524786005802099E-2</v>
       </c>
       <c r="C5">
-        <v>0.193399049376973</v>
+        <v>-8.3524968255154403E-2</v>
       </c>
       <c r="D5">
-        <v>-6.32005780016853E-3</v>
+        <v>1.46618809118479E-2</v>
       </c>
       <c r="E5">
-        <v>-0.18267868158178899</v>
+        <v>-0.15544438938966301</v>
       </c>
       <c r="F5">
-        <v>-0.13976498596361001</v>
+        <v>-3.8302643289019098E-2</v>
       </c>
       <c r="G5">
-        <v>-0.155793561695139</v>
+        <v>-4.1622842250769003E-2</v>
       </c>
       <c r="H5">
-        <v>-0.29345833741935301</v>
+        <v>-0.16301918824186101</v>
       </c>
       <c r="I5">
-        <v>-0.26251148955526599</v>
+        <v>-0.20156117910697</v>
       </c>
       <c r="J5">
-        <v>-2.9358761041323199E-2</v>
+        <v>-2.6058733576739199E-3</v>
       </c>
       <c r="K5">
-        <v>-2.0872046915779499E-2</v>
+        <v>-4.0204985555638298E-2</v>
       </c>
       <c r="L5">
-        <v>-0.17978829068115201</v>
+        <v>-9.0512356029808602E-2</v>
       </c>
       <c r="M5" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="23"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="23"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="23"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>

--- a/Portfolio Optimization Tool.xlsx
+++ b/Portfolio Optimization Tool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanlupinski/Documents/GitHub/Portfolio-Optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6EAF8B-437B-0642-90B6-1420C982453B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBC7CD6-8AEE-A64C-AF73-EF63AA8C5D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
@@ -2320,9 +2320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -2353,11 +2351,11 @@
       <c r="J2" s="45"/>
       <c r="K2" s="46">
         <f>INDEX('Price Data'!$A$2:$A$265,COUNT('Price Data'!$A$2:$A$265))</f>
-        <v>45016</v>
+        <v>45044</v>
       </c>
       <c r="L2" s="47">
         <f>INDEX('Price Data'!$L$2:$L$255,COUNT('Price Data'!$L$2:$L$255))</f>
-        <v>40.400001525878899</v>
+        <v>40.240001678466797</v>
       </c>
       <c r="M2" s="56" t="s">
         <v>0</v>
@@ -2444,23 +2442,23 @@
       </c>
       <c r="H4" s="25">
         <f>'Performance Data'!$E$2</f>
-        <v>4.3289599551366003E-3</v>
+        <v>2.3949956788345401E-2</v>
       </c>
       <c r="I4" s="2">
         <f>'Performance Data'!$E$3</f>
-        <v>-4.1506854257499198E-2</v>
+        <v>-1.31411109338895E-2</v>
       </c>
       <c r="J4" s="2">
         <f>'Performance Data'!$E$4</f>
-        <v>7.2339309299156399E-2</v>
+        <v>-2.4393712318921599E-2</v>
       </c>
       <c r="K4" s="2">
         <f>'Performance Data'!$E$5</f>
-        <v>-0.15544438938966301</v>
+        <v>-9.6168543333169307E-3</v>
       </c>
       <c r="L4" s="10">
         <f t="shared" ref="L4:L14" si="2">AVERAGE(H4:K4)</f>
-        <v>-3.0070743598217303E-2</v>
+        <v>-5.8004301994456567E-3</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ref="M4:M14" si="3">_xlfn.RANK.EQ(L4,$L$4:$L$14,0)</f>
@@ -2468,11 +2466,11 @@
       </c>
       <c r="N4" s="11">
         <f>INDEX('Price Data'!$E$2:$E$265,COUNT('Price Data'!$E$2:$E$265))</f>
-        <v>139.03999328613199</v>
+        <v>142.36999511718699</v>
       </c>
       <c r="O4" s="12">
         <f>'200D SMA'!$E$2</f>
-        <v>141.74680038452101</v>
+        <v>142.39220024108801</v>
       </c>
       <c r="P4" s="5" t="str">
         <f t="shared" ref="P4:P14" si="4">IF(N4&gt;O4,"yes","no")</f>
@@ -2508,23 +2506,23 @@
       </c>
       <c r="H5" s="25">
         <f>'Performance Data'!$K$2</f>
-        <v>-4.6180814831356899E-3</v>
+        <v>1.7739460845810101E-2</v>
       </c>
       <c r="I5" s="2">
         <f>'Performance Data'!$K$3</f>
-        <v>-1.00073599935947E-2</v>
+        <v>-1.97502697571867E-2</v>
       </c>
       <c r="J5" s="2">
         <f>'Performance Data'!$K$4</f>
-        <v>0.133753773938352</v>
+        <v>3.2683702542377797E-2</v>
       </c>
       <c r="K5" s="2">
         <f>'Performance Data'!$K$5</f>
-        <v>-4.0204985555638298E-2</v>
+        <v>2.5974642162866102E-2</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" si="2"/>
-        <v>1.9730836726495827E-2</v>
+        <v>1.4161883948466826E-2</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="3"/>
@@ -2532,11 +2530,11 @@
       </c>
       <c r="N5" s="11">
         <f>INDEX('Price Data'!$K$2:$K$265,COUNT('Price Data'!$K$2:$K$265))</f>
-        <v>138.11000061035099</v>
+        <v>140.55999755859301</v>
       </c>
       <c r="O5" s="12">
         <f>'200D SMA'!$K$2</f>
-        <v>137.37024986266999</v>
+        <v>138.13324974060001</v>
       </c>
       <c r="P5" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2572,23 +2570,23 @@
       </c>
       <c r="H6" s="25">
         <f>'Performance Data'!$G$2</f>
-        <v>2.8432291631127898E-2</v>
+        <v>1.8889064867687599E-2</v>
       </c>
       <c r="I6" s="2">
         <f>'Performance Data'!$G$3</f>
-        <v>6.8839395839965498E-2</v>
+        <v>1.9064951672218501E-3</v>
       </c>
       <c r="J6" s="2">
         <f>'Performance Data'!$G$4</f>
-        <v>0.22309255112689</v>
+        <v>0.20517208817830301</v>
       </c>
       <c r="K6" s="2">
         <f>'Performance Data'!$G$5</f>
-        <v>-4.1622842250769003E-2</v>
+        <v>4.4104739132551703E-2</v>
       </c>
       <c r="L6" s="10">
         <f t="shared" si="2"/>
-        <v>6.96853490868036E-2</v>
+        <v>6.7518096836441041E-2</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="3"/>
@@ -2596,11 +2594,11 @@
       </c>
       <c r="N6" s="11">
         <f>INDEX('Price Data'!$G$2:$G$265,COUNT('Price Data'!$G$2:$G$265))</f>
-        <v>53.470001220703097</v>
+        <v>54.4799995422363</v>
       </c>
       <c r="O6" s="12">
         <f>'200D SMA'!$G$2</f>
-        <v>50.3077498817443</v>
+        <v>50.722749900817803</v>
       </c>
       <c r="P6" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2636,23 +2634,23 @@
       </c>
       <c r="H7" s="25">
         <f>'Performance Data'!$L$2</f>
-        <v>2.5601847408840799E-2</v>
+        <v>-3.96039211309484E-3</v>
       </c>
       <c r="I7" s="2">
         <f>'Performance Data'!$L$3</f>
-        <v>3.7178576647040398E-2</v>
+        <v>-4.6433665933246597E-2</v>
       </c>
       <c r="J7" s="2">
         <f>'Performance Data'!$L$4</f>
-        <v>0.126051265409999</v>
+        <v>0.15449587612618601</v>
       </c>
       <c r="K7" s="2">
         <f>'Performance Data'!$L$5</f>
-        <v>-9.0512356029808602E-2</v>
+        <v>-3.8017666220419397E-2</v>
       </c>
       <c r="L7" s="10">
         <f t="shared" si="2"/>
-        <v>2.4579833359017898E-2</v>
+        <v>1.6521037964856294E-2</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="3"/>
@@ -2660,11 +2658,11 @@
       </c>
       <c r="N7" s="11">
         <f>INDEX('Price Data'!$L$2:$L$265,COUNT('Price Data'!$L$2:$L$265))</f>
-        <v>40.400001525878899</v>
+        <v>40.240001678466797</v>
       </c>
       <c r="O7" s="12">
         <f>'200D SMA'!$L$2</f>
-        <v>39.932199954986501</v>
+        <v>39.828299999236997</v>
       </c>
       <c r="P7" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2700,23 +2698,23 @@
       </c>
       <c r="H8" s="25">
         <f>'Performance Data'!$F$2</f>
-        <v>3.1808311636817001E-2</v>
+        <v>7.2527425559736304E-3</v>
       </c>
       <c r="I8" s="2">
         <f>'Performance Data'!$F$3</f>
-        <v>4.0839159311477101E-2</v>
+        <v>5.8244905642825797E-3</v>
       </c>
       <c r="J8" s="2">
         <f>'Performance Data'!$F$4</f>
-        <v>7.8089099427015293E-2</v>
+        <v>9.03724876048142E-2</v>
       </c>
       <c r="K8" s="2">
         <f>'Performance Data'!$F$5</f>
-        <v>-3.8302643289019098E-2</v>
+        <v>1.9605521592901399E-2</v>
       </c>
       <c r="L8" s="10">
         <f t="shared" si="2"/>
-        <v>2.8108481771572578E-2</v>
+        <v>3.0763810579492953E-2</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="3"/>
@@ -2724,11 +2722,11 @@
       </c>
       <c r="N8" s="11">
         <f>INDEX('Price Data'!$F$2:$F$265,COUNT('Price Data'!$F$2:$F$265))</f>
-        <v>80.220001220703097</v>
+        <v>80.550003051757798</v>
       </c>
       <c r="O8" s="12">
         <f>'200D SMA'!$F$2</f>
-        <v>78.8047999954223</v>
+        <v>78.840200004577596</v>
       </c>
       <c r="P8" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2764,35 +2762,35 @@
       </c>
       <c r="H9" s="25">
         <f>'Performance Data'!$H$2</f>
-        <v>4.6669565039392902E-2</v>
+        <v>5.1573691731039402E-3</v>
       </c>
       <c r="I9" s="2">
         <f>'Performance Data'!$H$3</f>
-        <v>6.8299065033536596E-2</v>
+        <v>2.2430765225900299E-3</v>
       </c>
       <c r="J9" s="2">
         <f>'Performance Data'!$H$4</f>
-        <v>5.6263094007382199E-2</v>
+        <v>0.119986901755949</v>
       </c>
       <c r="K9" s="2">
         <f>'Performance Data'!$H$5</f>
-        <v>-0.16301918824186101</v>
+        <v>-7.3603007752464797E-2</v>
       </c>
       <c r="L9" s="10">
         <f t="shared" si="2"/>
-        <v>2.0531339596126727E-3</v>
+        <v>1.3446084924794547E-2</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N9" s="11">
         <f>INDEX('Price Data'!$H$2:$H$265,COUNT('Price Data'!$H$2:$H$265))</f>
-        <v>65.510002136230398</v>
+        <v>65.680000305175696</v>
       </c>
       <c r="O9" s="12">
         <f>'200D SMA'!$H$2</f>
-        <v>65.408099899291997</v>
+        <v>65.026649971008297</v>
       </c>
       <c r="P9" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2828,35 +2826,35 @@
       </c>
       <c r="H10" s="25">
         <f>'Performance Data'!$B$2</f>
-        <v>2.55550040100509E-2</v>
+        <v>2.08821269531789E-3</v>
       </c>
       <c r="I10" s="2">
         <f>'Performance Data'!$B$3</f>
-        <v>3.4032227040537301E-2</v>
+        <v>1.22876047367237E-2</v>
       </c>
       <c r="J10" s="2">
         <f>'Performance Data'!$B$4</f>
-        <v>3.5666711796895102E-2</v>
+        <v>3.2200736813424197E-2</v>
       </c>
       <c r="K10" s="2">
         <f>'Performance Data'!$B$5</f>
-        <v>-5.2524786005802099E-2</v>
+        <v>-2.11829453875573E-2</v>
       </c>
       <c r="L10" s="10">
         <f t="shared" si="2"/>
-        <v>1.0682289210420304E-2</v>
+        <v>6.3484022144771213E-3</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N10" s="11">
         <f>INDEX('Price Data'!$B$2:$B$265,COUNT('Price Data'!$B$2:$B$265))</f>
-        <v>48.919998168945298</v>
+        <v>48.950000762939403</v>
       </c>
       <c r="O10" s="12">
         <f>'200D SMA'!$B$2</f>
-        <v>48.78125</v>
+        <v>48.725749988555897</v>
       </c>
       <c r="P10" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2892,35 +2890,35 @@
       </c>
       <c r="H11" s="25">
         <f>'Performance Data'!$J$2</f>
-        <v>1.9833646981174399E-2</v>
+        <v>1.0252931723859699E-3</v>
       </c>
       <c r="I11" s="2">
         <f>'Performance Data'!$J$3</f>
-        <v>2.3763616235940001E-2</v>
+        <v>1.67592597397043E-2</v>
       </c>
       <c r="J11" s="2">
         <f>'Performance Data'!$J$4</f>
-        <v>3.7193551581157801E-2</v>
+        <v>2.6428491453311199E-2</v>
       </c>
       <c r="K11" s="2">
         <f>'Performance Data'!$J$5</f>
-        <v>-2.6058733576739199E-3</v>
+        <v>-5.3890221267627303E-4</v>
       </c>
       <c r="L11" s="10">
         <f t="shared" si="2"/>
-        <v>1.9546235360149572E-2</v>
+        <v>1.0918535538181298E-2</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N11" s="11">
         <f>INDEX('Price Data'!$J$2:$J$265,COUNT('Price Data'!$J$2:$J$265))</f>
-        <v>47.819999694824197</v>
+        <v>47.840000152587798</v>
       </c>
       <c r="O11" s="12">
         <f>'200D SMA'!$J$2</f>
-        <v>48.222900142669602</v>
+        <v>48.0217501640319</v>
       </c>
       <c r="P11" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2956,35 +2954,35 @@
       </c>
       <c r="H12" s="25">
         <f>'Performance Data'!$C$2</f>
-        <v>-8.4177009978991801E-4</v>
+        <v>-7.5821527763773001E-3</v>
       </c>
       <c r="I12" s="2">
         <f>'Performance Data'!$C$3</f>
-        <v>-3.6916830080923502E-2</v>
+        <v>-5.2673957743677703E-2</v>
       </c>
       <c r="J12" s="2">
         <f>'Performance Data'!$C$4</f>
-        <v>-1.1150443429576099E-3</v>
+        <v>-5.6439071113576003E-2</v>
       </c>
       <c r="K12" s="2">
         <f>'Performance Data'!$C$5</f>
-        <v>-8.3524968255154403E-2</v>
+        <v>-0.139039158158455</v>
       </c>
       <c r="L12" s="10">
         <f t="shared" si="2"/>
-        <v>-3.059965319470636E-2</v>
+        <v>-6.3933584948021496E-2</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N12" s="11">
         <f>INDEX('Price Data'!$C$2:$C$265,COUNT('Price Data'!$C$2:$C$265))</f>
-        <v>23.7399997711181</v>
+        <v>23.559999465942301</v>
       </c>
       <c r="O12" s="12">
         <f>'200D SMA'!$C$2</f>
-        <v>24.987449989318801</v>
+        <v>24.704300012588501</v>
       </c>
       <c r="P12" s="7" t="str">
         <f t="shared" si="4"/>
@@ -3020,23 +3018,23 @@
       </c>
       <c r="H13" s="25">
         <f>'Performance Data'!$D$2</f>
-        <v>7.9433855714746898E-2</v>
+        <v>9.0982114612212506E-3</v>
       </c>
       <c r="I13" s="2">
         <f>'Performance Data'!$D$3</f>
-        <v>8.0370013501977103E-2</v>
+        <v>3.0609426816455801E-2</v>
       </c>
       <c r="J13" s="2">
         <f>'Performance Data'!$D$4</f>
-        <v>0.18522036530474101</v>
+        <v>0.217236915483523</v>
       </c>
       <c r="K13" s="2">
         <f>'Performance Data'!$D$5</f>
-        <v>1.46618809118479E-2</v>
+        <v>4.6337350902391203E-2</v>
       </c>
       <c r="L13" s="10">
         <f t="shared" si="2"/>
-        <v>8.9921528858328229E-2</v>
+        <v>7.5820476165897821E-2</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="3"/>
@@ -3044,11 +3042,11 @@
       </c>
       <c r="N13" s="11">
         <f>INDEX('Price Data'!$D$2:$D$265,COUNT('Price Data'!$D$2:$D$265))</f>
-        <v>37.369998931884702</v>
+        <v>37.709999084472599</v>
       </c>
       <c r="O13" s="12">
         <f>'200D SMA'!$D$2</f>
-        <v>33.866199989318801</v>
+        <v>34.232699985504098</v>
       </c>
       <c r="P13" s="7" t="str">
         <f t="shared" si="4"/>
@@ -3084,35 +3082,35 @@
       </c>
       <c r="H14" s="26">
         <f>'Performance Data'!$I$2</f>
-        <v>-2.1554582203942501E-2</v>
+        <v>3.1310468854035501E-3</v>
       </c>
       <c r="I14" s="17">
         <f>'Performance Data'!$I$3</f>
-        <v>1.6880968181253099E-2</v>
+        <v>-7.6049274898725802E-2</v>
       </c>
       <c r="J14" s="17">
         <f>'Performance Data'!$I$4</f>
-        <v>6.09676641420617E-2</v>
+        <v>2.8248854670531901E-2</v>
       </c>
       <c r="K14" s="17">
         <f>'Performance Data'!$I$5</f>
-        <v>-0.20156117910697</v>
+        <v>-0.16492457718672399</v>
       </c>
       <c r="L14" s="18">
         <f t="shared" si="2"/>
-        <v>-3.6316782246899423E-2</v>
+        <v>-5.2398487632378588E-2</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N14" s="16">
         <f>INDEX('Price Data'!$I$2:$I$265,COUNT('Price Data'!$I$2:$I$265))</f>
-        <v>83.040000915527301</v>
+        <v>83.300003051757798</v>
       </c>
       <c r="O14" s="13">
         <f>'200D SMA'!$I$2</f>
-        <v>87.648699798583905</v>
+        <v>86.812099838256799</v>
       </c>
       <c r="P14" s="8" t="str">
         <f t="shared" si="4"/>
@@ -3327,9 +3325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L261"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -3379,40 +3375,40 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="23">
-        <v>45016</v>
+        <v>45044</v>
       </c>
       <c r="B2">
-        <v>48.919998168945298</v>
+        <v>48.950000762939403</v>
       </c>
       <c r="C2">
-        <v>23.7399997711181</v>
+        <v>23.559999465942301</v>
       </c>
       <c r="D2">
-        <v>37.369998931884702</v>
+        <v>37.709999084472599</v>
       </c>
       <c r="E2">
-        <v>139.03999328613199</v>
+        <v>142.36999511718699</v>
       </c>
       <c r="F2">
-        <v>80.220001220703097</v>
+        <v>80.550003051757798</v>
       </c>
       <c r="G2">
-        <v>53.470001220703097</v>
+        <v>54.4799995422363</v>
       </c>
       <c r="H2">
-        <v>65.510002136230398</v>
+        <v>65.680000305175696</v>
       </c>
       <c r="I2">
-        <v>83.040000915527301</v>
+        <v>83.300003051757798</v>
       </c>
       <c r="J2">
-        <v>47.819999694824197</v>
+        <v>47.840000152587798</v>
       </c>
       <c r="K2">
-        <v>138.11000061035099</v>
+        <v>140.55999755859301</v>
       </c>
       <c r="L2">
-        <v>40.400001525878899</v>
+        <v>40.240001678466797</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4194,9 +4190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -4246,40 +4240,40 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="23">
-        <v>45016</v>
+        <v>45044</v>
       </c>
       <c r="B2">
-        <v>48.78125</v>
+        <v>48.725749988555897</v>
       </c>
       <c r="C2">
-        <v>24.987449989318801</v>
+        <v>24.704300012588501</v>
       </c>
       <c r="D2">
-        <v>33.866199989318801</v>
+        <v>34.232699985504098</v>
       </c>
       <c r="E2">
-        <v>141.74680038452101</v>
+        <v>142.39220024108801</v>
       </c>
       <c r="F2">
-        <v>78.8047999954223</v>
+        <v>78.840200004577596</v>
       </c>
       <c r="G2">
-        <v>50.3077498817443</v>
+        <v>50.722749900817803</v>
       </c>
       <c r="H2">
-        <v>65.408099899291997</v>
+        <v>65.026649971008297</v>
       </c>
       <c r="I2">
-        <v>87.648699798583905</v>
+        <v>86.812099838256799</v>
       </c>
       <c r="J2">
-        <v>48.222900142669602</v>
+        <v>48.0217501640319</v>
       </c>
       <c r="K2">
-        <v>137.37024986266999</v>
+        <v>138.13324974060001</v>
       </c>
       <c r="L2">
-        <v>39.932199954986501</v>
+        <v>39.828299999236997</v>
       </c>
     </row>
   </sheetData>
@@ -4350,40 +4344,40 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="23">
-        <v>45016</v>
+        <v>45044</v>
       </c>
       <c r="B2">
-        <v>2.55550040100509E-2</v>
+        <v>2.08821269531789E-3</v>
       </c>
       <c r="C2">
-        <v>-8.4177009978991801E-4</v>
+        <v>-7.5821527763773001E-3</v>
       </c>
       <c r="D2">
-        <v>7.9433855714746898E-2</v>
+        <v>9.0982114612212506E-3</v>
       </c>
       <c r="E2">
-        <v>4.3289599551366003E-3</v>
+        <v>2.3949956788345401E-2</v>
       </c>
       <c r="F2">
-        <v>3.1808311636817001E-2</v>
+        <v>7.2527425559736304E-3</v>
       </c>
       <c r="G2">
-        <v>2.8432291631127898E-2</v>
+        <v>1.8889064867687599E-2</v>
       </c>
       <c r="H2">
-        <v>4.6669565039392902E-2</v>
+        <v>5.1573691731039402E-3</v>
       </c>
       <c r="I2">
-        <v>-2.1554582203942501E-2</v>
+        <v>3.1310468854035501E-3</v>
       </c>
       <c r="J2">
-        <v>1.9833646981174399E-2</v>
+        <v>1.0252931723859699E-3</v>
       </c>
       <c r="K2">
-        <v>-4.6180814831356899E-3</v>
+        <v>1.7739460845810101E-2</v>
       </c>
       <c r="L2">
-        <v>2.5601847408840799E-2</v>
+        <v>-3.96039211309484E-3</v>
       </c>
       <c r="M2" t="s">
         <v>39</v>
@@ -4391,40 +4385,40 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="23">
-        <v>45016</v>
+        <v>45044</v>
       </c>
       <c r="B3">
-        <v>3.4032227040537301E-2</v>
+        <v>1.22876047367237E-2</v>
       </c>
       <c r="C3">
-        <v>-3.6916830080923502E-2</v>
+        <v>-5.2673957743677703E-2</v>
       </c>
       <c r="D3">
-        <v>8.0370013501977103E-2</v>
+        <v>3.0609426816455801E-2</v>
       </c>
       <c r="E3">
-        <v>-4.1506854257499198E-2</v>
+        <v>-1.31411109338895E-2</v>
       </c>
       <c r="F3">
-        <v>4.0839159311477101E-2</v>
+        <v>5.8244905642825797E-3</v>
       </c>
       <c r="G3">
-        <v>6.8839395839965498E-2</v>
+        <v>1.9064951672218501E-3</v>
       </c>
       <c r="H3">
-        <v>6.8299065033536596E-2</v>
+        <v>2.2430765225900299E-3</v>
       </c>
       <c r="I3">
-        <v>1.6880968181253099E-2</v>
+        <v>-7.6049274898725802E-2</v>
       </c>
       <c r="J3">
-        <v>2.3763616235940001E-2</v>
+        <v>1.67592597397043E-2</v>
       </c>
       <c r="K3">
-        <v>-1.00073599935947E-2</v>
+        <v>-1.97502697571867E-2</v>
       </c>
       <c r="L3">
-        <v>3.7178576647040398E-2</v>
+        <v>-4.6433665933246597E-2</v>
       </c>
       <c r="M3" t="s">
         <v>40</v>
@@ -4432,40 +4426,40 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="23">
-        <v>45016</v>
+        <v>45044</v>
       </c>
       <c r="B4">
-        <v>3.5666711796895102E-2</v>
+        <v>3.2200736813424197E-2</v>
       </c>
       <c r="C4">
-        <v>-1.1150443429576099E-3</v>
+        <v>-5.6439071113576003E-2</v>
       </c>
       <c r="D4">
-        <v>0.18522036530474101</v>
+        <v>0.217236915483523</v>
       </c>
       <c r="E4">
-        <v>7.2339309299156399E-2</v>
+        <v>-2.4393712318921599E-2</v>
       </c>
       <c r="F4">
-        <v>7.8089099427015293E-2</v>
+        <v>9.03724876048142E-2</v>
       </c>
       <c r="G4">
-        <v>0.22309255112689</v>
+        <v>0.20517208817830301</v>
       </c>
       <c r="H4">
-        <v>5.6263094007382199E-2</v>
+        <v>0.119986901755949</v>
       </c>
       <c r="I4">
-        <v>6.09676641420617E-2</v>
+        <v>2.8248854670531901E-2</v>
       </c>
       <c r="J4">
-        <v>3.7193551581157801E-2</v>
+        <v>2.6428491453311199E-2</v>
       </c>
       <c r="K4">
-        <v>0.133753773938352</v>
+        <v>3.2683702542377797E-2</v>
       </c>
       <c r="L4">
-        <v>0.126051265409999</v>
+        <v>0.15449587612618601</v>
       </c>
       <c r="M4" t="s">
         <v>41</v>
@@ -4473,40 +4467,40 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="23">
-        <v>45016</v>
+        <v>45044</v>
       </c>
       <c r="B5">
-        <v>-5.2524786005802099E-2</v>
+        <v>-2.11829453875573E-2</v>
       </c>
       <c r="C5">
-        <v>-8.3524968255154403E-2</v>
+        <v>-0.139039158158455</v>
       </c>
       <c r="D5">
-        <v>1.46618809118479E-2</v>
+        <v>4.6337350902391203E-2</v>
       </c>
       <c r="E5">
-        <v>-0.15544438938966301</v>
+        <v>-9.6168543333169307E-3</v>
       </c>
       <c r="F5">
-        <v>-3.8302643289019098E-2</v>
+        <v>1.9605521592901399E-2</v>
       </c>
       <c r="G5">
-        <v>-4.1622842250769003E-2</v>
+        <v>4.4104739132551703E-2</v>
       </c>
       <c r="H5">
-        <v>-0.16301918824186101</v>
+        <v>-7.3603007752464797E-2</v>
       </c>
       <c r="I5">
-        <v>-0.20156117910697</v>
+        <v>-0.16492457718672399</v>
       </c>
       <c r="J5">
-        <v>-2.6058733576739199E-3</v>
+        <v>-5.3890221267627303E-4</v>
       </c>
       <c r="K5">
-        <v>-4.0204985555638298E-2</v>
+        <v>2.5974642162866102E-2</v>
       </c>
       <c r="L5">
-        <v>-9.0512356029808602E-2</v>
+        <v>-3.8017666220419397E-2</v>
       </c>
       <c r="M5" t="s">
         <v>42</v>

--- a/Portfolio Optimization Tool.xlsx
+++ b/Portfolio Optimization Tool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanlupinski/Documents/GitHub/Portfolio-Optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBC7CD6-8AEE-A64C-AF73-EF63AA8C5D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFD075D-EFDF-3041-8FCB-0C77F5024BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2320,7 +2320,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -2351,11 +2353,11 @@
       <c r="J2" s="45"/>
       <c r="K2" s="46">
         <f>INDEX('Price Data'!$A$2:$A$265,COUNT('Price Data'!$A$2:$A$265))</f>
-        <v>45044</v>
+        <v>45106</v>
       </c>
       <c r="L2" s="47">
         <f>INDEX('Price Data'!$L$2:$L$255,COUNT('Price Data'!$L$2:$L$255))</f>
-        <v>40.240001678466797</v>
+        <v>40.330001831054602</v>
       </c>
       <c r="M2" s="56" t="s">
         <v>0</v>
@@ -2430,55 +2432,55 @@
       </c>
       <c r="E4" s="29">
         <f>IF(Q4="n/a",0,IF(Q4="add 10%",0.1,0.2))</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F4" s="30">
         <f t="shared" ref="F4:F14" si="0">IF($N$17="Trinity",(D4+E4),E4)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G4" s="42">
         <f t="shared" ref="G4:G15" si="1">F4*$P$17</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H4" s="25">
         <f>'Performance Data'!$E$2</f>
-        <v>2.3949956788345401E-2</v>
+        <v>5.1291490392931099E-2</v>
       </c>
       <c r="I4" s="2">
         <f>'Performance Data'!$E$3</f>
-        <v>-1.31411109338895E-2</v>
+        <v>2.45253439784902E-2</v>
       </c>
       <c r="J4" s="2">
         <f>'Performance Data'!$E$4</f>
-        <v>-2.4393712318921599E-2</v>
+        <v>-1.7999480157139799E-2</v>
       </c>
       <c r="K4" s="2">
         <f>'Performance Data'!$E$5</f>
-        <v>-9.6168543333169307E-3</v>
+        <v>6.4961294836280895E-2</v>
       </c>
       <c r="L4" s="10">
         <f t="shared" ref="L4:L14" si="2">AVERAGE(H4:K4)</f>
-        <v>-5.8004301994456567E-3</v>
+        <v>3.0694662262640598E-2</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ref="M4:M14" si="3">_xlfn.RANK.EQ(L4,$L$4:$L$14,0)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N4" s="11">
         <f>INDEX('Price Data'!$E$2:$E$265,COUNT('Price Data'!$E$2:$E$265))</f>
-        <v>142.36999511718699</v>
+        <v>142.44999694824199</v>
       </c>
       <c r="O4" s="12">
         <f>'200D SMA'!$E$2</f>
-        <v>142.39220024108801</v>
+        <v>141.878150177001</v>
       </c>
       <c r="P4" s="5" t="str">
         <f t="shared" ref="P4:P14" si="4">IF(N4&gt;O4,"yes","no")</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="Q4" s="6" t="str">
         <f t="shared" ref="Q4:Q14" si="5">IF(M4&gt;5,"n/a",IF(P4="yes", (IF($N$17="Trinity","add 10%","add 20%")),"n/a"))</f>
-        <v>n/a</v>
+        <v>add 20%</v>
       </c>
     </row>
     <row r="5" spans="2:17">
@@ -2506,35 +2508,35 @@
       </c>
       <c r="H5" s="25">
         <f>'Performance Data'!$K$2</f>
-        <v>1.7739460845810101E-2</v>
+        <v>4.5484821768132899E-2</v>
       </c>
       <c r="I5" s="2">
         <f>'Performance Data'!$K$3</f>
-        <v>-1.97502697571867E-2</v>
+        <v>2.0201240126006902E-2</v>
       </c>
       <c r="J5" s="2">
         <f>'Performance Data'!$K$4</f>
-        <v>3.2683702542377797E-2</v>
+        <v>9.9917190501552702E-3</v>
       </c>
       <c r="K5" s="2">
         <f>'Performance Data'!$K$5</f>
-        <v>2.5974642162866102E-2</v>
+        <v>9.0234970224636099E-2</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" si="2"/>
-        <v>1.4161883948466826E-2</v>
+        <v>4.1478187792232793E-2</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N5" s="11">
         <f>INDEX('Price Data'!$K$2:$K$265,COUNT('Price Data'!$K$2:$K$265))</f>
-        <v>140.55999755859301</v>
+        <v>140.89999389648401</v>
       </c>
       <c r="O5" s="12">
         <f>'200D SMA'!$K$2</f>
-        <v>138.13324974060001</v>
+        <v>138.31995002746501</v>
       </c>
       <c r="P5" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2570,35 +2572,35 @@
       </c>
       <c r="H6" s="25">
         <f>'Performance Data'!$G$2</f>
-        <v>1.8889064867687599E-2</v>
+        <v>2.2044847414643499E-2</v>
       </c>
       <c r="I6" s="2">
         <f>'Performance Data'!$G$3</f>
-        <v>1.9064951672218501E-3</v>
+        <v>5.7975977467099498E-3</v>
       </c>
       <c r="J6" s="2">
         <f>'Performance Data'!$G$4</f>
-        <v>0.20517208817830301</v>
+        <v>7.5036096712882E-2</v>
       </c>
       <c r="K6" s="2">
         <f>'Performance Data'!$G$5</f>
-        <v>4.4104739132551703E-2</v>
+        <v>9.8248330983337698E-2</v>
       </c>
       <c r="L6" s="10">
         <f t="shared" si="2"/>
-        <v>6.7518096836441041E-2</v>
+        <v>5.0281718214393284E-2</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" s="11">
         <f>INDEX('Price Data'!$G$2:$G$265,COUNT('Price Data'!$G$2:$G$265))</f>
-        <v>54.4799995422363</v>
+        <v>53.779998779296797</v>
       </c>
       <c r="O6" s="12">
         <f>'200D SMA'!$G$2</f>
-        <v>50.722749900817803</v>
+        <v>51.4951998710632</v>
       </c>
       <c r="P6" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2634,23 +2636,23 @@
       </c>
       <c r="H7" s="25">
         <f>'Performance Data'!$L$2</f>
-        <v>-3.96039211309484E-3</v>
+        <v>3.2778556184434399E-2</v>
       </c>
       <c r="I7" s="2">
         <f>'Performance Data'!$L$3</f>
-        <v>-4.6433665933246597E-2</v>
+        <v>-1.73266564803031E-3</v>
       </c>
       <c r="J7" s="2">
         <f>'Performance Data'!$L$4</f>
-        <v>0.15449587612618601</v>
+        <v>3.5381492956410597E-2</v>
       </c>
       <c r="K7" s="2">
         <f>'Performance Data'!$L$5</f>
-        <v>-3.8017666220419397E-2</v>
+        <v>-1.85396300287743E-3</v>
       </c>
       <c r="L7" s="10">
         <f t="shared" si="2"/>
-        <v>1.6521037964856294E-2</v>
+        <v>1.6143355122484312E-2</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="3"/>
@@ -2658,11 +2660,11 @@
       </c>
       <c r="N7" s="11">
         <f>INDEX('Price Data'!$L$2:$L$265,COUNT('Price Data'!$L$2:$L$265))</f>
-        <v>40.240001678466797</v>
+        <v>40.330001831054602</v>
       </c>
       <c r="O7" s="12">
         <f>'200D SMA'!$L$2</f>
-        <v>39.828299999236997</v>
+        <v>39.626099967956499</v>
       </c>
       <c r="P7" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2686,47 +2688,47 @@
       </c>
       <c r="E8" s="29">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="30">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="42">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H8" s="25">
         <f>'Performance Data'!$F$2</f>
-        <v>7.2527425559736304E-3</v>
+        <v>-1.03060833909124E-2</v>
       </c>
       <c r="I8" s="2">
         <f>'Performance Data'!$F$3</f>
-        <v>5.8244905642825797E-3</v>
+        <v>-1.6123223557787801E-2</v>
       </c>
       <c r="J8" s="2">
         <f>'Performance Data'!$F$4</f>
-        <v>9.03724876048142E-2</v>
+        <v>2.4057340063055401E-2</v>
       </c>
       <c r="K8" s="2">
         <f>'Performance Data'!$F$5</f>
-        <v>1.9605521592901399E-2</v>
+        <v>1.05608216728496E-2</v>
       </c>
       <c r="L8" s="10">
         <f t="shared" si="2"/>
-        <v>3.0763810579492953E-2</v>
+        <v>2.0472136968012001E-3</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N8" s="11">
         <f>INDEX('Price Data'!$F$2:$F$265,COUNT('Price Data'!$F$2:$F$265))</f>
-        <v>80.550003051757798</v>
+        <v>78.699996948242102</v>
       </c>
       <c r="O8" s="12">
         <f>'200D SMA'!$F$2</f>
-        <v>78.840200004577596</v>
+        <v>78.425199928283604</v>
       </c>
       <c r="P8" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2734,7 +2736,7 @@
       </c>
       <c r="Q8" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>add 20%</v>
+        <v>n/a</v>
       </c>
     </row>
     <row r="9" spans="2:17">
@@ -2762,39 +2764,39 @@
       </c>
       <c r="H9" s="25">
         <f>'Performance Data'!$H$2</f>
-        <v>5.1573691731039402E-3</v>
+        <v>-1.5125403758072401E-2</v>
       </c>
       <c r="I9" s="2">
         <f>'Performance Data'!$H$3</f>
-        <v>2.2430765225900299E-3</v>
+        <v>-3.7666472796377602E-2</v>
       </c>
       <c r="J9" s="2">
         <f>'Performance Data'!$H$4</f>
-        <v>0.119986901755949</v>
+        <v>2.8059952696565599E-2</v>
       </c>
       <c r="K9" s="2">
         <f>'Performance Data'!$H$5</f>
-        <v>-7.3603007752464797E-2</v>
+        <v>-8.2289980734325904E-2</v>
       </c>
       <c r="L9" s="10">
         <f t="shared" si="2"/>
-        <v>1.3446084924794547E-2</v>
+        <v>-2.6755476148052577E-2</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N9" s="11">
         <f>INDEX('Price Data'!$H$2:$H$265,COUNT('Price Data'!$H$2:$H$265))</f>
-        <v>65.680000305175696</v>
+        <v>62.889999389648402</v>
       </c>
       <c r="O9" s="12">
         <f>'200D SMA'!$H$2</f>
-        <v>65.026649971008297</v>
+        <v>63.6645500183105</v>
       </c>
       <c r="P9" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="Q9" s="6" t="str">
         <f t="shared" si="5"/>
@@ -2826,35 +2828,35 @@
       </c>
       <c r="H10" s="25">
         <f>'Performance Data'!$B$2</f>
-        <v>2.08821269531789E-3</v>
+        <v>-4.45123340187825E-3</v>
       </c>
       <c r="I10" s="2">
         <f>'Performance Data'!$B$3</f>
-        <v>1.22876047367237E-2</v>
+        <v>-9.4362220951671395E-4</v>
       </c>
       <c r="J10" s="2">
         <f>'Performance Data'!$B$4</f>
-        <v>3.2200736813424197E-2</v>
+        <v>3.3056465146963102E-2</v>
       </c>
       <c r="K10" s="2">
         <f>'Performance Data'!$B$5</f>
-        <v>-2.11829453875573E-2</v>
+        <v>-3.15051651330722E-4</v>
       </c>
       <c r="L10" s="10">
         <f t="shared" si="2"/>
-        <v>6.3484022144771213E-3</v>
+        <v>6.8366394710593541E-3</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N10" s="11">
         <f>INDEX('Price Data'!$B$2:$B$265,COUNT('Price Data'!$B$2:$B$265))</f>
-        <v>48.950000762939403</v>
+        <v>48.810001373291001</v>
       </c>
       <c r="O10" s="12">
         <f>'200D SMA'!$B$2</f>
-        <v>48.725749988555897</v>
+        <v>48.426050033569297</v>
       </c>
       <c r="P10" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2890,35 +2892,35 @@
       </c>
       <c r="H11" s="25">
         <f>'Performance Data'!$J$2</f>
-        <v>1.0252931723859699E-3</v>
+        <v>-1.07012975589151E-2</v>
       </c>
       <c r="I11" s="2">
         <f>'Performance Data'!$J$3</f>
-        <v>1.67592597397043E-2</v>
+        <v>-1.6104166912779199E-2</v>
       </c>
       <c r="J11" s="2">
         <f>'Performance Data'!$J$4</f>
-        <v>2.6428491453311199E-2</v>
+        <v>7.2767560808448799E-3</v>
       </c>
       <c r="K11" s="2">
         <f>'Performance Data'!$J$5</f>
-        <v>-5.3890221267627303E-4</v>
+        <v>-6.8615225631711799E-3</v>
       </c>
       <c r="L11" s="10">
         <f t="shared" si="2"/>
-        <v>1.0918535538181298E-2</v>
+        <v>-6.5975577385051498E-3</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N11" s="11">
         <f>INDEX('Price Data'!$J$2:$J$265,COUNT('Price Data'!$J$2:$J$265))</f>
-        <v>47.840000152587798</v>
+        <v>47.369998931884702</v>
       </c>
       <c r="O11" s="12">
         <f>'200D SMA'!$J$2</f>
-        <v>48.0217501640319</v>
+        <v>47.5597500419616</v>
       </c>
       <c r="P11" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2954,23 +2956,23 @@
       </c>
       <c r="H12" s="25">
         <f>'Performance Data'!$C$2</f>
-        <v>-7.5821527763773001E-3</v>
+        <v>2.08617237069166E-2</v>
       </c>
       <c r="I12" s="2">
         <f>'Performance Data'!$C$3</f>
-        <v>-5.2673957743677703E-2</v>
+        <v>-5.1811270180917399E-2</v>
       </c>
       <c r="J12" s="2">
         <f>'Performance Data'!$C$4</f>
-        <v>-5.6439071113576003E-2</v>
+        <v>-8.6815392404296102E-2</v>
       </c>
       <c r="K12" s="2">
         <f>'Performance Data'!$C$5</f>
-        <v>-0.139039158158455</v>
+        <v>-0.14992818301996</v>
       </c>
       <c r="L12" s="10">
         <f t="shared" si="2"/>
-        <v>-6.3933584948021496E-2</v>
+        <v>-6.6923280474564223E-2</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="3"/>
@@ -2978,11 +2980,11 @@
       </c>
       <c r="N12" s="11">
         <f>INDEX('Price Data'!$C$2:$C$265,COUNT('Price Data'!$C$2:$C$265))</f>
-        <v>23.559999465942301</v>
+        <v>22.5100002288818</v>
       </c>
       <c r="O12" s="12">
         <f>'200D SMA'!$C$2</f>
-        <v>24.704300012588501</v>
+        <v>24.1112500095367</v>
       </c>
       <c r="P12" s="7" t="str">
         <f t="shared" si="4"/>
@@ -3018,35 +3020,35 @@
       </c>
       <c r="H13" s="25">
         <f>'Performance Data'!$D$2</f>
-        <v>9.0982114612212506E-3</v>
+        <v>-2.8225785363601499E-2</v>
       </c>
       <c r="I13" s="2">
         <f>'Performance Data'!$D$3</f>
-        <v>3.0609426816455801E-2</v>
+        <v>-3.2646439413326497E-2</v>
       </c>
       <c r="J13" s="2">
         <f>'Performance Data'!$D$4</f>
-        <v>0.217236915483523</v>
+        <v>4.5099779312210098E-2</v>
       </c>
       <c r="K13" s="2">
         <f>'Performance Data'!$D$5</f>
-        <v>4.6337350902391203E-2</v>
+        <v>5.3628681986011797E-2</v>
       </c>
       <c r="L13" s="10">
         <f t="shared" si="2"/>
-        <v>7.5820476165897821E-2</v>
+        <v>9.4640591303234746E-3</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" s="11">
         <f>INDEX('Price Data'!$D$2:$D$265,COUNT('Price Data'!$D$2:$D$265))</f>
-        <v>37.709999084472599</v>
+        <v>36.150001525878899</v>
       </c>
       <c r="O13" s="12">
         <f>'200D SMA'!$D$2</f>
-        <v>34.232699985504098</v>
+        <v>35.119449939727701</v>
       </c>
       <c r="P13" s="7" t="str">
         <f t="shared" si="4"/>
@@ -3082,35 +3084,35 @@
       </c>
       <c r="H14" s="26">
         <f>'Performance Data'!$I$2</f>
-        <v>3.1310468854035501E-3</v>
+        <v>3.8749980926513397E-2</v>
       </c>
       <c r="I14" s="17">
         <f>'Performance Data'!$I$3</f>
-        <v>-7.6049274898725802E-2</v>
+        <v>7.2251394427103001E-4</v>
       </c>
       <c r="J14" s="17">
         <f>'Performance Data'!$I$4</f>
-        <v>2.8248854670531901E-2</v>
+        <v>1.7615678860427499E-2</v>
       </c>
       <c r="K14" s="17">
         <f>'Performance Data'!$I$5</f>
-        <v>-0.16492457718672399</v>
+        <v>-5.5633365887086499E-2</v>
       </c>
       <c r="L14" s="18">
         <f t="shared" si="2"/>
-        <v>-5.2398487632378588E-2</v>
+        <v>3.6370196103135792E-4</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N14" s="16">
         <f>INDEX('Price Data'!$I$2:$I$265,COUNT('Price Data'!$I$2:$I$265))</f>
-        <v>83.300003051757798</v>
+        <v>83.099998474121094</v>
       </c>
       <c r="O14" s="13">
         <f>'200D SMA'!$I$2</f>
-        <v>86.812099838256799</v>
+        <v>83.740399971008301</v>
       </c>
       <c r="P14" s="8" t="str">
         <f t="shared" si="4"/>
@@ -3375,40 +3377,40 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="23">
-        <v>45044</v>
+        <v>45106</v>
       </c>
       <c r="B2">
-        <v>48.950000762939403</v>
+        <v>48.810001373291001</v>
       </c>
       <c r="C2">
-        <v>23.559999465942301</v>
+        <v>22.5100002288818</v>
       </c>
       <c r="D2">
-        <v>37.709999084472599</v>
+        <v>36.150001525878899</v>
       </c>
       <c r="E2">
-        <v>142.36999511718699</v>
+        <v>142.44999694824199</v>
       </c>
       <c r="F2">
-        <v>80.550003051757798</v>
+        <v>78.699996948242102</v>
       </c>
       <c r="G2">
-        <v>54.4799995422363</v>
+        <v>53.779998779296797</v>
       </c>
       <c r="H2">
-        <v>65.680000305175696</v>
+        <v>62.889999389648402</v>
       </c>
       <c r="I2">
-        <v>83.300003051757798</v>
+        <v>83.099998474121094</v>
       </c>
       <c r="J2">
-        <v>47.840000152587798</v>
+        <v>47.369998931884702</v>
       </c>
       <c r="K2">
-        <v>140.55999755859301</v>
+        <v>140.89999389648401</v>
       </c>
       <c r="L2">
-        <v>40.240001678466797</v>
+        <v>40.330001831054602</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4190,7 +4192,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -4240,40 +4244,40 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="23">
-        <v>45044</v>
+        <v>45106</v>
       </c>
       <c r="B2">
-        <v>48.725749988555897</v>
+        <v>48.426050033569297</v>
       </c>
       <c r="C2">
-        <v>24.704300012588501</v>
+        <v>24.1112500095367</v>
       </c>
       <c r="D2">
-        <v>34.232699985504098</v>
+        <v>35.119449939727701</v>
       </c>
       <c r="E2">
-        <v>142.39220024108801</v>
+        <v>141.878150177001</v>
       </c>
       <c r="F2">
-        <v>78.840200004577596</v>
+        <v>78.425199928283604</v>
       </c>
       <c r="G2">
-        <v>50.722749900817803</v>
+        <v>51.4951998710632</v>
       </c>
       <c r="H2">
-        <v>65.026649971008297</v>
+        <v>63.6645500183105</v>
       </c>
       <c r="I2">
-        <v>86.812099838256799</v>
+        <v>83.740399971008301</v>
       </c>
       <c r="J2">
-        <v>48.0217501640319</v>
+        <v>47.5597500419616</v>
       </c>
       <c r="K2">
-        <v>138.13324974060001</v>
+        <v>138.31995002746501</v>
       </c>
       <c r="L2">
-        <v>39.828299999236997</v>
+        <v>39.626099967956499</v>
       </c>
     </row>
   </sheetData>
@@ -4290,7 +4294,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -4344,40 +4350,40 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="23">
-        <v>45044</v>
+        <v>45106</v>
       </c>
       <c r="B2">
-        <v>2.08821269531789E-3</v>
+        <v>-4.45123340187825E-3</v>
       </c>
       <c r="C2">
-        <v>-7.5821527763773001E-3</v>
+        <v>2.08617237069166E-2</v>
       </c>
       <c r="D2">
-        <v>9.0982114612212506E-3</v>
+        <v>-2.8225785363601499E-2</v>
       </c>
       <c r="E2">
-        <v>2.3949956788345401E-2</v>
+        <v>5.1291490392931099E-2</v>
       </c>
       <c r="F2">
-        <v>7.2527425559736304E-3</v>
+        <v>-1.03060833909124E-2</v>
       </c>
       <c r="G2">
-        <v>1.8889064867687599E-2</v>
+        <v>2.2044847414643499E-2</v>
       </c>
       <c r="H2">
-        <v>5.1573691731039402E-3</v>
+        <v>-1.5125403758072401E-2</v>
       </c>
       <c r="I2">
-        <v>3.1310468854035501E-3</v>
+        <v>3.8749980926513397E-2</v>
       </c>
       <c r="J2">
-        <v>1.0252931723859699E-3</v>
+        <v>-1.07012975589151E-2</v>
       </c>
       <c r="K2">
-        <v>1.7739460845810101E-2</v>
+        <v>4.5484821768132899E-2</v>
       </c>
       <c r="L2">
-        <v>-3.96039211309484E-3</v>
+        <v>3.2778556184434399E-2</v>
       </c>
       <c r="M2" t="s">
         <v>39</v>
@@ -4385,40 +4391,40 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="23">
-        <v>45044</v>
+        <v>45106</v>
       </c>
       <c r="B3">
-        <v>1.22876047367237E-2</v>
+        <v>-9.4362220951671395E-4</v>
       </c>
       <c r="C3">
-        <v>-5.2673957743677703E-2</v>
+        <v>-5.1811270180917399E-2</v>
       </c>
       <c r="D3">
-        <v>3.0609426816455801E-2</v>
+        <v>-3.2646439413326497E-2</v>
       </c>
       <c r="E3">
-        <v>-1.31411109338895E-2</v>
+        <v>2.45253439784902E-2</v>
       </c>
       <c r="F3">
-        <v>5.8244905642825797E-3</v>
+        <v>-1.6123223557787801E-2</v>
       </c>
       <c r="G3">
-        <v>1.9064951672218501E-3</v>
+        <v>5.7975977467099498E-3</v>
       </c>
       <c r="H3">
-        <v>2.2430765225900299E-3</v>
+        <v>-3.7666472796377602E-2</v>
       </c>
       <c r="I3">
-        <v>-7.6049274898725802E-2</v>
+        <v>7.2251394427103001E-4</v>
       </c>
       <c r="J3">
-        <v>1.67592597397043E-2</v>
+        <v>-1.6104166912779199E-2</v>
       </c>
       <c r="K3">
-        <v>-1.97502697571867E-2</v>
+        <v>2.0201240126006902E-2</v>
       </c>
       <c r="L3">
-        <v>-4.6433665933246597E-2</v>
+        <v>-1.73266564803031E-3</v>
       </c>
       <c r="M3" t="s">
         <v>40</v>
@@ -4426,40 +4432,40 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="23">
-        <v>45044</v>
+        <v>45106</v>
       </c>
       <c r="B4">
-        <v>3.2200736813424197E-2</v>
+        <v>3.3056465146963102E-2</v>
       </c>
       <c r="C4">
-        <v>-5.6439071113576003E-2</v>
+        <v>-8.6815392404296102E-2</v>
       </c>
       <c r="D4">
-        <v>0.217236915483523</v>
+        <v>4.5099779312210098E-2</v>
       </c>
       <c r="E4">
-        <v>-2.4393712318921599E-2</v>
+        <v>-1.7999480157139799E-2</v>
       </c>
       <c r="F4">
-        <v>9.03724876048142E-2</v>
+        <v>2.4057340063055401E-2</v>
       </c>
       <c r="G4">
-        <v>0.20517208817830301</v>
+        <v>7.5036096712882E-2</v>
       </c>
       <c r="H4">
-        <v>0.119986901755949</v>
+        <v>2.8059952696565599E-2</v>
       </c>
       <c r="I4">
-        <v>2.8248854670531901E-2</v>
+        <v>1.7615678860427499E-2</v>
       </c>
       <c r="J4">
-        <v>2.6428491453311199E-2</v>
+        <v>7.2767560808448799E-3</v>
       </c>
       <c r="K4">
-        <v>3.2683702542377797E-2</v>
+        <v>9.9917190501552702E-3</v>
       </c>
       <c r="L4">
-        <v>0.15449587612618601</v>
+        <v>3.5381492956410597E-2</v>
       </c>
       <c r="M4" t="s">
         <v>41</v>
@@ -4467,40 +4473,40 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="23">
-        <v>45044</v>
+        <v>45106</v>
       </c>
       <c r="B5">
-        <v>-2.11829453875573E-2</v>
+        <v>-3.15051651330722E-4</v>
       </c>
       <c r="C5">
-        <v>-0.139039158158455</v>
+        <v>-0.14992818301996</v>
       </c>
       <c r="D5">
-        <v>4.6337350902391203E-2</v>
+        <v>5.3628681986011797E-2</v>
       </c>
       <c r="E5">
-        <v>-9.6168543333169307E-3</v>
+        <v>6.4961294836280895E-2</v>
       </c>
       <c r="F5">
-        <v>1.9605521592901399E-2</v>
+        <v>1.05608216728496E-2</v>
       </c>
       <c r="G5">
-        <v>4.4104739132551703E-2</v>
+        <v>9.8248330983337698E-2</v>
       </c>
       <c r="H5">
-        <v>-7.3603007752464797E-2</v>
+        <v>-8.2289980734325904E-2</v>
       </c>
       <c r="I5">
-        <v>-0.16492457718672399</v>
+        <v>-5.5633365887086499E-2</v>
       </c>
       <c r="J5">
-        <v>-5.3890221267627303E-4</v>
+        <v>-6.8615225631711799E-3</v>
       </c>
       <c r="K5">
-        <v>2.5974642162866102E-2</v>
+        <v>9.0234970224636099E-2</v>
       </c>
       <c r="L5">
-        <v>-3.8017666220419397E-2</v>
+        <v>-1.85396300287743E-3</v>
       </c>
       <c r="M5" t="s">
         <v>42</v>

--- a/Portfolio Optimization Tool.xlsx
+++ b/Portfolio Optimization Tool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanlupinski/Documents/GitHub/Portfolio-Optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFD075D-EFDF-3041-8FCB-0C77F5024BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EB5088-2980-3C44-9E47-3B82A0104277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Portfolio!$B$2:$Q$16</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Portfolio!$B$4:$F$15</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Portfolio!$F$4:$F$15</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Portfolio!$B$4:$F$15</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Portfolio!$F$4:$F$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1235,10 +1237,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2022,9 +2024,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2062,7 +2064,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2168,7 +2170,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2310,7 +2312,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2320,9 +2322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -2353,11 +2353,11 @@
       <c r="J2" s="45"/>
       <c r="K2" s="46">
         <f>INDEX('Price Data'!$A$2:$A$265,COUNT('Price Data'!$A$2:$A$265))</f>
-        <v>45106</v>
+        <v>45351</v>
       </c>
       <c r="L2" s="47">
         <f>INDEX('Price Data'!$L$2:$L$255,COUNT('Price Data'!$L$2:$L$255))</f>
-        <v>40.330001831054602</v>
+        <v>41.020000457763601</v>
       </c>
       <c r="M2" s="56" t="s">
         <v>0</v>
@@ -2440,39 +2440,39 @@
       </c>
       <c r="G4" s="42">
         <f t="shared" ref="G4:G15" si="1">F4*$P$17</f>
-        <v>20000</v>
+        <v>37800</v>
       </c>
       <c r="H4" s="25">
         <f>'Performance Data'!$E$2</f>
-        <v>5.1291490392931099E-2</v>
+        <v>9.9969896936617605E-2</v>
       </c>
       <c r="I4" s="2">
         <f>'Performance Data'!$E$3</f>
-        <v>2.45253439784902E-2</v>
+        <v>0.21662284148365599</v>
       </c>
       <c r="J4" s="2">
         <f>'Performance Data'!$E$4</f>
-        <v>-1.7999480157139799E-2</v>
+        <v>0.244286706271057</v>
       </c>
       <c r="K4" s="2">
         <f>'Performance Data'!$E$5</f>
-        <v>6.4961294836280895E-2</v>
+        <v>0.32821832792835498</v>
       </c>
       <c r="L4" s="10">
         <f t="shared" ref="L4:L14" si="2">AVERAGE(H4:K4)</f>
-        <v>3.0694662262640598E-2</v>
+        <v>0.2222744431549214</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ref="M4:M14" si="3">_xlfn.RANK.EQ(L4,$L$4:$L$14,0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4" s="11">
         <f>INDEX('Price Data'!$E$2:$E$265,COUNT('Price Data'!$E$2:$E$265))</f>
-        <v>142.44999694824199</v>
+        <v>182.21000671386699</v>
       </c>
       <c r="O4" s="12">
         <f>'200D SMA'!$E$2</f>
-        <v>141.878150177001</v>
+        <v>149.34149986266999</v>
       </c>
       <c r="P4" s="5" t="str">
         <f t="shared" ref="P4:P14" si="4">IF(N4&gt;O4,"yes","no")</f>
@@ -2504,27 +2504,27 @@
       </c>
       <c r="G5" s="42">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>37800</v>
       </c>
       <c r="H5" s="25">
         <f>'Performance Data'!$K$2</f>
-        <v>4.5484821768132899E-2</v>
+        <v>3.3355428895916799E-2</v>
       </c>
       <c r="I5" s="2">
         <f>'Performance Data'!$K$3</f>
-        <v>2.0201240126006902E-2</v>
+        <v>9.5396182037539898E-2</v>
       </c>
       <c r="J5" s="2">
         <f>'Performance Data'!$K$4</f>
-        <v>9.9917190501552702E-3</v>
+        <v>0.100397674187316</v>
       </c>
       <c r="K5" s="2">
         <f>'Performance Data'!$K$5</f>
-        <v>9.0234970224636099E-2</v>
+        <v>0.14564250930258399</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" si="2"/>
-        <v>4.1478187792232793E-2</v>
+        <v>9.3697948605839174E-2</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="3"/>
@@ -2532,11 +2532,11 @@
       </c>
       <c r="N5" s="11">
         <f>INDEX('Price Data'!$K$2:$K$265,COUNT('Price Data'!$K$2:$K$265))</f>
-        <v>140.89999389648401</v>
+        <v>155.83000183105401</v>
       </c>
       <c r="O5" s="12">
         <f>'200D SMA'!$K$2</f>
-        <v>138.31995002746501</v>
+        <v>143.42199981689399</v>
       </c>
       <c r="P5" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2568,39 +2568,39 @@
       </c>
       <c r="G6" s="42">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>37800</v>
       </c>
       <c r="H6" s="25">
         <f>'Performance Data'!$G$2</f>
-        <v>2.2044847414643499E-2</v>
+        <v>3.16971568378841E-2</v>
       </c>
       <c r="I6" s="2">
         <f>'Performance Data'!$G$3</f>
-        <v>5.7975977467099498E-3</v>
+        <v>6.4376062783104704E-2</v>
       </c>
       <c r="J6" s="2">
         <f>'Performance Data'!$G$4</f>
-        <v>7.5036096712882E-2</v>
+        <v>7.74593854398406E-2</v>
       </c>
       <c r="K6" s="2">
         <f>'Performance Data'!$G$5</f>
-        <v>9.8248330983337698E-2</v>
+        <v>0.13091150270959601</v>
       </c>
       <c r="L6" s="10">
         <f t="shared" si="2"/>
-        <v>5.0281718214393284E-2</v>
+        <v>7.6111026942606352E-2</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N6" s="11">
         <f>INDEX('Price Data'!$G$2:$G$265,COUNT('Price Data'!$G$2:$G$265))</f>
-        <v>53.779998779296797</v>
+        <v>56.959999084472599</v>
       </c>
       <c r="O6" s="12">
         <f>'200D SMA'!$G$2</f>
-        <v>51.4951998710632</v>
+        <v>54.091399745941096</v>
       </c>
       <c r="P6" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2632,27 +2632,27 @@
       </c>
       <c r="G7" s="42">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>37800</v>
       </c>
       <c r="H7" s="25">
         <f>'Performance Data'!$L$2</f>
-        <v>3.2778556184434399E-2</v>
+        <v>3.4813347360333098E-2</v>
       </c>
       <c r="I7" s="2">
         <f>'Performance Data'!$L$3</f>
-        <v>-1.73266564803031E-3</v>
+        <v>3.1320031312261902E-2</v>
       </c>
       <c r="J7" s="2">
         <f>'Performance Data'!$L$4</f>
-        <v>3.5381492956410597E-2</v>
+        <v>4.2297730559299002E-2</v>
       </c>
       <c r="K7" s="2">
         <f>'Performance Data'!$L$5</f>
-        <v>-1.85396300287743E-3</v>
+        <v>7.8258237161627303E-2</v>
       </c>
       <c r="L7" s="10">
         <f t="shared" si="2"/>
-        <v>1.6143355122484312E-2</v>
+        <v>4.6672336598380326E-2</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="3"/>
@@ -2660,11 +2660,11 @@
       </c>
       <c r="N7" s="11">
         <f>INDEX('Price Data'!$L$2:$L$265,COUNT('Price Data'!$L$2:$L$265))</f>
-        <v>40.330001831054602</v>
+        <v>41.020000457763601</v>
       </c>
       <c r="O7" s="12">
         <f>'200D SMA'!$L$2</f>
-        <v>39.626099967956499</v>
+        <v>40.295900001525801</v>
       </c>
       <c r="P7" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2700,35 +2700,35 @@
       </c>
       <c r="H8" s="25">
         <f>'Performance Data'!$F$2</f>
-        <v>-1.03060833909124E-2</v>
+        <v>-1.44393918347506E-2</v>
       </c>
       <c r="I8" s="2">
         <f>'Performance Data'!$F$3</f>
-        <v>-1.6123223557787801E-2</v>
+        <v>2.5661457336266701E-2</v>
       </c>
       <c r="J8" s="2">
         <f>'Performance Data'!$F$4</f>
-        <v>2.4057340063055401E-2</v>
+        <v>4.0440572609490001E-2</v>
       </c>
       <c r="K8" s="2">
         <f>'Performance Data'!$F$5</f>
-        <v>1.05608216728496E-2</v>
+        <v>6.4192635500639E-2</v>
       </c>
       <c r="L8" s="10">
         <f t="shared" si="2"/>
-        <v>2.0472136968012001E-3</v>
+        <v>2.8963818402911276E-2</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N8" s="11">
         <f>INDEX('Price Data'!$F$2:$F$265,COUNT('Price Data'!$F$2:$F$265))</f>
-        <v>78.699996948242102</v>
+        <v>79.790000915527301</v>
       </c>
       <c r="O8" s="12">
         <f>'200D SMA'!$F$2</f>
-        <v>78.425199928283604</v>
+        <v>78.316349906921303</v>
       </c>
       <c r="P8" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2764,23 +2764,23 @@
       </c>
       <c r="H9" s="25">
         <f>'Performance Data'!$H$2</f>
-        <v>-1.5125403758072401E-2</v>
+        <v>-2.32728065760055E-2</v>
       </c>
       <c r="I9" s="2">
         <f>'Performance Data'!$H$3</f>
-        <v>-3.7666472796377602E-2</v>
+        <v>3.8119506935142697E-2</v>
       </c>
       <c r="J9" s="2">
         <f>'Performance Data'!$H$4</f>
-        <v>2.8059952696565599E-2</v>
+        <v>-1.7306641113679E-3</v>
       </c>
       <c r="K9" s="2">
         <f>'Performance Data'!$H$5</f>
-        <v>-8.2289980734325904E-2</v>
+        <v>-2.9391567247999802E-2</v>
       </c>
       <c r="L9" s="10">
         <f t="shared" si="2"/>
-        <v>-2.6755476148052577E-2</v>
+        <v>-4.0688827500576265E-3</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="3"/>
@@ -2788,11 +2788,11 @@
       </c>
       <c r="N9" s="11">
         <f>INDEX('Price Data'!$H$2:$H$265,COUNT('Price Data'!$H$2:$H$265))</f>
-        <v>62.889999389648402</v>
+        <v>58.840000152587798</v>
       </c>
       <c r="O9" s="12">
         <f>'200D SMA'!$H$2</f>
-        <v>63.6645500183105</v>
+        <v>59.1889000701904</v>
       </c>
       <c r="P9" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2828,35 +2828,35 @@
       </c>
       <c r="H10" s="25">
         <f>'Performance Data'!$B$2</f>
-        <v>-4.45123340187825E-3</v>
+        <v>-5.3884137192383701E-3</v>
       </c>
       <c r="I10" s="2">
         <f>'Performance Data'!$B$3</f>
-        <v>-9.4362220951671395E-4</v>
+        <v>2.0610385919621801E-2</v>
       </c>
       <c r="J10" s="2">
         <f>'Performance Data'!$B$4</f>
-        <v>3.3056465146963102E-2</v>
+        <v>3.5652626583980898E-2</v>
       </c>
       <c r="K10" s="2">
         <f>'Performance Data'!$B$5</f>
-        <v>-3.15051651330722E-4</v>
+        <v>6.6803642820775E-2</v>
       </c>
       <c r="L10" s="10">
         <f t="shared" si="2"/>
-        <v>6.8366394710593541E-3</v>
+        <v>2.9419560401284833E-2</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N10" s="11">
         <f>INDEX('Price Data'!$B$2:$B$265,COUNT('Price Data'!$B$2:$B$265))</f>
-        <v>48.810001373291001</v>
+        <v>48.7299995422363</v>
       </c>
       <c r="O10" s="12">
         <f>'200D SMA'!$B$2</f>
-        <v>48.426050033569297</v>
+        <v>48.6257500457763</v>
       </c>
       <c r="P10" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2892,23 +2892,23 @@
       </c>
       <c r="H11" s="25">
         <f>'Performance Data'!$J$2</f>
-        <v>-1.07012975589151E-2</v>
+        <v>-2.0956053281698801E-3</v>
       </c>
       <c r="I11" s="2">
         <f>'Performance Data'!$J$3</f>
-        <v>-1.6104166912779199E-2</v>
+        <v>1.34366668298444E-2</v>
       </c>
       <c r="J11" s="2">
         <f>'Performance Data'!$J$4</f>
-        <v>7.2767560808448799E-3</v>
+        <v>2.5991663553750901E-2</v>
       </c>
       <c r="K11" s="2">
         <f>'Performance Data'!$J$5</f>
-        <v>-6.8615225631711799E-3</v>
+        <v>4.5033484142287902E-2</v>
       </c>
       <c r="L11" s="10">
         <f t="shared" si="2"/>
-        <v>-6.5975577385051498E-3</v>
+        <v>2.0591552299428328E-2</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="3"/>
@@ -2916,15 +2916,15 @@
       </c>
       <c r="N11" s="11">
         <f>INDEX('Price Data'!$J$2:$J$265,COUNT('Price Data'!$J$2:$J$265))</f>
-        <v>47.369998931884702</v>
+        <v>47.619998931884702</v>
       </c>
       <c r="O11" s="12">
         <f>'200D SMA'!$J$2</f>
-        <v>47.5597500419616</v>
+        <v>47.386900024413997</v>
       </c>
       <c r="P11" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="Q11" s="6" t="str">
         <f t="shared" si="5"/>
@@ -2956,23 +2956,23 @@
       </c>
       <c r="H12" s="25">
         <f>'Performance Data'!$C$2</f>
-        <v>2.08617237069166E-2</v>
+        <v>-1.5226160042523499E-2</v>
       </c>
       <c r="I12" s="2">
         <f>'Performance Data'!$C$3</f>
-        <v>-5.1811270180917399E-2</v>
+        <v>-3.5106798144615203E-2</v>
       </c>
       <c r="J12" s="2">
         <f>'Performance Data'!$C$4</f>
-        <v>-8.6815392404296102E-2</v>
+        <v>-6.1789481547861201E-2</v>
       </c>
       <c r="K12" s="2">
         <f>'Performance Data'!$C$5</f>
-        <v>-0.14992818301996</v>
+        <v>-2.9015272441596001E-2</v>
       </c>
       <c r="L12" s="10">
         <f t="shared" si="2"/>
-        <v>-6.6923280474564223E-2</v>
+        <v>-3.5284428044148976E-2</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="3"/>
@@ -2980,11 +2980,11 @@
       </c>
       <c r="N12" s="11">
         <f>INDEX('Price Data'!$C$2:$C$265,COUNT('Price Data'!$C$2:$C$265))</f>
-        <v>22.5100002288818</v>
+        <v>21.9899997711181</v>
       </c>
       <c r="O12" s="12">
         <f>'200D SMA'!$C$2</f>
-        <v>24.1112500095367</v>
+        <v>23.500049962997402</v>
       </c>
       <c r="P12" s="7" t="str">
         <f t="shared" si="4"/>
@@ -3008,47 +3008,47 @@
       </c>
       <c r="E13" s="29">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="30">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="42">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H13" s="25">
         <f>'Performance Data'!$D$2</f>
-        <v>-2.8225785363601499E-2</v>
+        <v>4.1569197307056403E-3</v>
       </c>
       <c r="I13" s="2">
         <f>'Performance Data'!$D$3</f>
-        <v>-3.2646439413326497E-2</v>
+        <v>2.85419324697655E-3</v>
       </c>
       <c r="J13" s="2">
         <f>'Performance Data'!$D$4</f>
-        <v>4.5099779312210098E-2</v>
+        <v>5.1700721792621702E-2</v>
       </c>
       <c r="K13" s="2">
         <f>'Performance Data'!$D$5</f>
-        <v>5.3628681986011797E-2</v>
+        <v>0.116406779847775</v>
       </c>
       <c r="L13" s="10">
         <f t="shared" si="2"/>
-        <v>9.4640591303234746E-3</v>
+        <v>4.3779653654519725E-2</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N13" s="11">
         <f>INDEX('Price Data'!$D$2:$D$265,COUNT('Price Data'!$D$2:$D$265))</f>
-        <v>36.150001525878899</v>
+        <v>38.650001525878899</v>
       </c>
       <c r="O13" s="12">
         <f>'200D SMA'!$D$2</f>
-        <v>35.119449939727701</v>
+        <v>37.2485998535156</v>
       </c>
       <c r="P13" s="7" t="str">
         <f t="shared" si="4"/>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="Q13" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>add 20%</v>
+        <v>n/a</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="17" thickBot="1">
@@ -3072,55 +3072,55 @@
       </c>
       <c r="E14" s="29">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F14" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G14" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37800</v>
       </c>
       <c r="H14" s="26">
         <f>'Performance Data'!$I$2</f>
-        <v>3.8749980926513397E-2</v>
+        <v>1.9787861177576801E-2</v>
       </c>
       <c r="I14" s="17">
         <f>'Performance Data'!$I$3</f>
-        <v>7.2251394427103001E-4</v>
+        <v>5.9647902597001097E-2</v>
       </c>
       <c r="J14" s="17">
         <f>'Performance Data'!$I$4</f>
-        <v>1.7615678860427499E-2</v>
+        <v>6.1515332328163197E-2</v>
       </c>
       <c r="K14" s="17">
         <f>'Performance Data'!$I$5</f>
-        <v>-5.5633365887086499E-2</v>
+        <v>4.2014912252332698E-2</v>
       </c>
       <c r="L14" s="18">
         <f t="shared" si="2"/>
-        <v>3.6370196103135792E-4</v>
+        <v>4.5741502088768447E-2</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N14" s="16">
         <f>INDEX('Price Data'!$I$2:$I$265,COUNT('Price Data'!$I$2:$I$265))</f>
-        <v>83.099998474121094</v>
+        <v>85.550003051757798</v>
       </c>
       <c r="O14" s="13">
         <f>'200D SMA'!$I$2</f>
-        <v>83.740399971008301</v>
+        <v>81.865499992370601</v>
       </c>
       <c r="P14" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="Q14" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>n/a</v>
+        <v>add 20%</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="17" thickBot="1">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="G16" s="43">
         <f>SUM(G4:G15)</f>
-        <v>100000</v>
+        <v>189000</v>
       </c>
       <c r="N16" s="54" t="s">
         <v>53</v>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="O17" s="49"/>
       <c r="P17" s="52">
-        <v>100000</v>
+        <v>189000</v>
       </c>
       <c r="Q17" s="53"/>
     </row>
@@ -3327,7 +3327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L261"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -3377,40 +3379,40 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="23">
-        <v>45106</v>
+        <v>45351</v>
       </c>
       <c r="B2">
-        <v>48.810001373291001</v>
+        <v>48.7299995422363</v>
       </c>
       <c r="C2">
-        <v>22.5100002288818</v>
+        <v>21.9899997711181</v>
       </c>
       <c r="D2">
-        <v>36.150001525878899</v>
+        <v>38.650001525878899</v>
       </c>
       <c r="E2">
-        <v>142.44999694824199</v>
+        <v>182.21000671386699</v>
       </c>
       <c r="F2">
-        <v>78.699996948242102</v>
+        <v>79.790000915527301</v>
       </c>
       <c r="G2">
-        <v>53.779998779296797</v>
+        <v>56.959999084472599</v>
       </c>
       <c r="H2">
-        <v>62.889999389648402</v>
+        <v>58.840000152587798</v>
       </c>
       <c r="I2">
-        <v>83.099998474121094</v>
+        <v>85.550003051757798</v>
       </c>
       <c r="J2">
-        <v>47.369998931884702</v>
+        <v>47.619998931884702</v>
       </c>
       <c r="K2">
-        <v>140.89999389648401</v>
+        <v>155.83000183105401</v>
       </c>
       <c r="L2">
-        <v>40.330001831054602</v>
+        <v>41.020000457763601</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4193,7 +4195,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4244,40 +4246,40 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="23">
-        <v>45106</v>
+        <v>45351</v>
       </c>
       <c r="B2">
-        <v>48.426050033569297</v>
+        <v>48.6257500457763</v>
       </c>
       <c r="C2">
-        <v>24.1112500095367</v>
+        <v>23.500049962997402</v>
       </c>
       <c r="D2">
-        <v>35.119449939727701</v>
+        <v>37.2485998535156</v>
       </c>
       <c r="E2">
-        <v>141.878150177001</v>
+        <v>149.34149986266999</v>
       </c>
       <c r="F2">
-        <v>78.425199928283604</v>
+        <v>78.316349906921303</v>
       </c>
       <c r="G2">
-        <v>51.4951998710632</v>
+        <v>54.091399745941096</v>
       </c>
       <c r="H2">
-        <v>63.6645500183105</v>
+        <v>59.1889000701904</v>
       </c>
       <c r="I2">
-        <v>83.740399971008301</v>
+        <v>81.865499992370601</v>
       </c>
       <c r="J2">
-        <v>47.5597500419616</v>
+        <v>47.386900024413997</v>
       </c>
       <c r="K2">
-        <v>138.31995002746501</v>
+        <v>143.42199981689399</v>
       </c>
       <c r="L2">
-        <v>39.626099967956499</v>
+        <v>40.295900001525801</v>
       </c>
     </row>
   </sheetData>
@@ -4350,40 +4352,40 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="23">
-        <v>45106</v>
+        <v>45351</v>
       </c>
       <c r="B2">
-        <v>-4.45123340187825E-3</v>
+        <v>-5.3884137192383701E-3</v>
       </c>
       <c r="C2">
-        <v>2.08617237069166E-2</v>
+        <v>-1.5226160042523499E-2</v>
       </c>
       <c r="D2">
-        <v>-2.8225785363601499E-2</v>
+        <v>4.1569197307056403E-3</v>
       </c>
       <c r="E2">
-        <v>5.1291490392931099E-2</v>
+        <v>9.9969896936617605E-2</v>
       </c>
       <c r="F2">
-        <v>-1.03060833909124E-2</v>
+        <v>-1.44393918347506E-2</v>
       </c>
       <c r="G2">
-        <v>2.2044847414643499E-2</v>
+        <v>3.16971568378841E-2</v>
       </c>
       <c r="H2">
-        <v>-1.5125403758072401E-2</v>
+        <v>-2.32728065760055E-2</v>
       </c>
       <c r="I2">
-        <v>3.8749980926513397E-2</v>
+        <v>1.9787861177576801E-2</v>
       </c>
       <c r="J2">
-        <v>-1.07012975589151E-2</v>
+        <v>-2.0956053281698801E-3</v>
       </c>
       <c r="K2">
-        <v>4.5484821768132899E-2</v>
+        <v>3.3355428895916799E-2</v>
       </c>
       <c r="L2">
-        <v>3.2778556184434399E-2</v>
+        <v>3.4813347360333098E-2</v>
       </c>
       <c r="M2" t="s">
         <v>39</v>
@@ -4391,40 +4393,40 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="23">
-        <v>45106</v>
+        <v>45351</v>
       </c>
       <c r="B3">
-        <v>-9.4362220951671395E-4</v>
+        <v>2.0610385919621801E-2</v>
       </c>
       <c r="C3">
-        <v>-5.1811270180917399E-2</v>
+        <v>-3.5106798144615203E-2</v>
       </c>
       <c r="D3">
-        <v>-3.2646439413326497E-2</v>
+        <v>2.85419324697655E-3</v>
       </c>
       <c r="E3">
-        <v>2.45253439784902E-2</v>
+        <v>0.21662284148365599</v>
       </c>
       <c r="F3">
-        <v>-1.6123223557787801E-2</v>
+        <v>2.5661457336266701E-2</v>
       </c>
       <c r="G3">
-        <v>5.7975977467099498E-3</v>
+        <v>6.4376062783104704E-2</v>
       </c>
       <c r="H3">
-        <v>-3.7666472796377602E-2</v>
+        <v>3.8119506935142697E-2</v>
       </c>
       <c r="I3">
-        <v>7.2251394427103001E-4</v>
+        <v>5.9647902597001097E-2</v>
       </c>
       <c r="J3">
-        <v>-1.6104166912779199E-2</v>
+        <v>1.34366668298444E-2</v>
       </c>
       <c r="K3">
-        <v>2.0201240126006902E-2</v>
+        <v>9.5396182037539898E-2</v>
       </c>
       <c r="L3">
-        <v>-1.73266564803031E-3</v>
+        <v>3.1320031312261902E-2</v>
       </c>
       <c r="M3" t="s">
         <v>40</v>
@@ -4432,40 +4434,40 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="23">
-        <v>45106</v>
+        <v>45351</v>
       </c>
       <c r="B4">
-        <v>3.3056465146963102E-2</v>
+        <v>3.5652626583980898E-2</v>
       </c>
       <c r="C4">
-        <v>-8.6815392404296102E-2</v>
+        <v>-6.1789481547861201E-2</v>
       </c>
       <c r="D4">
-        <v>4.5099779312210098E-2</v>
+        <v>5.1700721792621702E-2</v>
       </c>
       <c r="E4">
-        <v>-1.7999480157139799E-2</v>
+        <v>0.244286706271057</v>
       </c>
       <c r="F4">
-        <v>2.4057340063055401E-2</v>
+        <v>4.0440572609490001E-2</v>
       </c>
       <c r="G4">
-        <v>7.5036096712882E-2</v>
+        <v>7.74593854398406E-2</v>
       </c>
       <c r="H4">
-        <v>2.8059952696565599E-2</v>
+        <v>-1.7306641113679E-3</v>
       </c>
       <c r="I4">
-        <v>1.7615678860427499E-2</v>
+        <v>6.1515332328163197E-2</v>
       </c>
       <c r="J4">
-        <v>7.2767560808448799E-3</v>
+        <v>2.5991663553750901E-2</v>
       </c>
       <c r="K4">
-        <v>9.9917190501552702E-3</v>
+        <v>0.100397674187316</v>
       </c>
       <c r="L4">
-        <v>3.5381492956410597E-2</v>
+        <v>4.2297730559299002E-2</v>
       </c>
       <c r="M4" t="s">
         <v>41</v>
@@ -4473,40 +4475,40 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="23">
-        <v>45106</v>
+        <v>45351</v>
       </c>
       <c r="B5">
-        <v>-3.15051651330722E-4</v>
+        <v>6.6803642820775E-2</v>
       </c>
       <c r="C5">
-        <v>-0.14992818301996</v>
+        <v>-2.9015272441596001E-2</v>
       </c>
       <c r="D5">
-        <v>5.3628681986011797E-2</v>
+        <v>0.116406779847775</v>
       </c>
       <c r="E5">
-        <v>6.4961294836280895E-2</v>
+        <v>0.32821832792835498</v>
       </c>
       <c r="F5">
-        <v>1.05608216728496E-2</v>
+        <v>6.4192635500639E-2</v>
       </c>
       <c r="G5">
-        <v>9.8248330983337698E-2</v>
+        <v>0.13091150270959601</v>
       </c>
       <c r="H5">
-        <v>-8.2289980734325904E-2</v>
+        <v>-2.9391567247999802E-2</v>
       </c>
       <c r="I5">
-        <v>-5.5633365887086499E-2</v>
+        <v>4.2014912252332698E-2</v>
       </c>
       <c r="J5">
-        <v>-6.8615225631711799E-3</v>
+        <v>4.5033484142287902E-2</v>
       </c>
       <c r="K5">
-        <v>9.0234970224636099E-2</v>
+        <v>0.14564250930258399</v>
       </c>
       <c r="L5">
-        <v>-1.85396300287743E-3</v>
+        <v>7.8258237161627303E-2</v>
       </c>
       <c r="M5" t="s">
         <v>42</v>
